--- a/document/projet_td_v2.xlsx
+++ b/document/projet_td_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1963411\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\Tower-Defense-2.0\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B084FF-823D-428D-BF03-6A156EA775E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D979DB8-97FB-4CF3-A1E3-AF0E81FA61A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9840" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="623">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2048,91 +2048,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SWITCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (type de tour)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> CASE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : Tour à projectiles</t>
-    </r>
-  </si>
-  <si>
-    <t>Attaque</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> CASE :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Tour éclaire</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> CASE :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Tour poison</t>
-    </r>
-  </si>
-  <si>
     <t>Check niveau de la tour et sélectionne l'attaque</t>
   </si>
   <si>
@@ -2227,9 +2142,6 @@
     <t>DoT qui fini soit quand le creep meurt ou atteint le château</t>
   </si>
   <si>
-    <t>Damage over time</t>
-  </si>
-  <si>
     <t>Recharge de l'abilitée plus rapide</t>
   </si>
   <si>
@@ -2522,6 +2434,42 @@
   <si>
     <t>resize jeu</t>
   </si>
+  <si>
+    <t>BOOST</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tour</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>liste_tours()</t>
+    </r>
+  </si>
+  <si>
+    <t>()tour.attaquer()</t>
+  </si>
 </sst>
 </file>
 
@@ -2532,7 +2480,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2692,6 +2640,13 @@
       <b/>
       <vertAlign val="superscript"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3910,7 +3865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4339,163 +4294,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4504,12 +4302,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4599,12 +4391,6 @@
     <xf numFmtId="0" fontId="16" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4618,12 +4404,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4646,16 +4426,10 @@
     <xf numFmtId="0" fontId="16" fillId="22" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -4664,9 +4438,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4684,10 +4455,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4777,6 +4544,199 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5125,7 +5085,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
@@ -5138,7 +5098,7 @@
     <col min="9" max="28" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" customHeight="1">
+    <row r="2" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5149,7 +5109,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" customHeight="1">
+    <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -5158,7 +5118,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="93"/>
     </row>
-    <row r="4" spans="2:8" ht="17.25" customHeight="1">
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
@@ -5169,7 +5129,7 @@
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
     </row>
-    <row r="5" spans="2:8" ht="17.25" customHeight="1">
+    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="91"/>
       <c r="C5" s="91"/>
       <c r="D5" s="91"/>
@@ -5178,7 +5138,7 @@
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
     </row>
-    <row r="6" spans="2:8" ht="17.25" customHeight="1">
+    <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="91"/>
       <c r="C6" s="91"/>
       <c r="D6" s="91"/>
@@ -5187,7 +5147,7 @@
       <c r="G6" s="91"/>
       <c r="H6" s="91"/>
     </row>
-    <row r="7" spans="2:8" ht="17.25" customHeight="1">
+    <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -5200,7 +5160,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" ht="17.25" customHeight="1">
+    <row r="8" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
@@ -5211,7 +5171,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="17.25" customHeight="1">
+    <row r="9" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -5225,7 +5185,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="17.25" customHeight="1">
+    <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
@@ -5233,7 +5193,7 @@
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="17.25" customHeight="1">
+    <row r="11" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
@@ -5250,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" customHeight="1">
+    <row r="12" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
@@ -5261,7 +5221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" customHeight="1">
+    <row r="13" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -5275,7 +5235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.25" customHeight="1">
+    <row r="14" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
@@ -5285,7 +5245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.25" customHeight="1">
+    <row r="15" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="13" t="s">
         <v>17</v>
@@ -5299,7 +5259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.25" customHeight="1">
+    <row r="16" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="93"/>
       <c r="D16" s="8" t="s">
@@ -5311,7 +5271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.25" customHeight="1">
+    <row r="18" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="93" t="s">
         <v>22</v>
@@ -5328,7 +5288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.25" customHeight="1">
+    <row r="19" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="93"/>
       <c r="D19" s="8" t="s">
@@ -5341,7 +5301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.25" customHeight="1">
+    <row r="20" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
       <c r="C20" s="93"/>
       <c r="D20" s="8"/>
@@ -5351,7 +5311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17.25" customHeight="1">
+    <row r="21" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="93" t="s">
         <v>29</v>
@@ -5365,7 +5325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.25" customHeight="1">
+    <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
       <c r="C22" s="93"/>
       <c r="D22" s="8" t="s">
@@ -5377,7 +5337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17.25" customHeight="1">
+    <row r="23" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
       <c r="C23" s="93"/>
       <c r="D23" s="8"/>
@@ -5388,7 +5348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" customHeight="1">
+    <row r="24" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
       <c r="C24" s="93" t="s">
         <v>35</v>
@@ -5402,7 +5362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="17.25" customHeight="1">
+    <row r="25" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
       <c r="C25" s="93"/>
       <c r="D25" s="8" t="s">
@@ -5412,7 +5372,7 @@
       <c r="F25" s="20"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" customHeight="1">
+    <row r="26" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="91"/>
       <c r="D26" s="8"/>
@@ -5425,7 +5385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" customHeight="1">
+    <row r="27" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="91"/>
       <c r="D27" s="8"/>
@@ -5435,7 +5395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17.25" customHeight="1">
+    <row r="28" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="83" t="s">
         <v>42</v>
       </c>
@@ -5449,7 +5409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.25" customHeight="1">
+    <row r="29" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>45</v>
       </c>
@@ -5462,7 +5422,7 @@
       <c r="G29" s="93"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" ht="17.25" customHeight="1">
+    <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="20"/>
       <c r="C30" s="91"/>
       <c r="D30" s="12" t="s">
@@ -5477,89 +5437,89 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="188"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-    </row>
-    <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
-    </row>
-    <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-    </row>
-    <row r="39" spans="6:9" ht="17.25" customHeight="1">
+    <row r="36" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="285"/>
+      <c r="G36" s="286"/>
+      <c r="H36" s="286"/>
+      <c r="I36" s="286"/>
+    </row>
+    <row r="37" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="286"/>
+      <c r="G37" s="286"/>
+      <c r="H37" s="286"/>
+      <c r="I37" s="286"/>
+    </row>
+    <row r="38" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="286"/>
+      <c r="G38" s="286"/>
+      <c r="H38" s="286"/>
+      <c r="I38" s="286"/>
+    </row>
+    <row r="39" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
       <c r="H39" s="93"/>
       <c r="I39" s="93"/>
     </row>
-    <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="188"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-    </row>
-    <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-    </row>
-    <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-    </row>
-    <row r="43" spans="6:9" ht="17.25" customHeight="1">
+    <row r="40" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="285"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="286"/>
+      <c r="I40" s="286"/>
+    </row>
+    <row r="41" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="286"/>
+      <c r="G41" s="286"/>
+      <c r="H41" s="286"/>
+      <c r="I41" s="286"/>
+    </row>
+    <row r="42" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="286"/>
+      <c r="G42" s="286"/>
+      <c r="H42" s="286"/>
+      <c r="I42" s="286"/>
+    </row>
+    <row r="43" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="93"/>
       <c r="G43" s="93"/>
       <c r="H43" s="93"/>
       <c r="I43" s="93"/>
     </row>
-    <row r="44" spans="6:9" ht="17.25" customHeight="1">
+    <row r="44" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
       <c r="H44" s="93"/>
       <c r="I44" s="93"/>
     </row>
-    <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="188"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="189"/>
-      <c r="I45" s="189"/>
-    </row>
-    <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="189"/>
-      <c r="G46" s="189"/>
-      <c r="H46" s="189"/>
-      <c r="I46" s="189"/>
-    </row>
-    <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="189"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="189"/>
-    </row>
-    <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="189"/>
-      <c r="G48" s="189"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="189"/>
-    </row>
-    <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="189"/>
-      <c r="G49" s="189"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="189"/>
+    <row r="45" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="285"/>
+      <c r="G45" s="286"/>
+      <c r="H45" s="286"/>
+      <c r="I45" s="286"/>
+    </row>
+    <row r="46" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="286"/>
+      <c r="G46" s="286"/>
+      <c r="H46" s="286"/>
+      <c r="I46" s="286"/>
+    </row>
+    <row r="47" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="286"/>
+      <c r="G47" s="286"/>
+      <c r="H47" s="286"/>
+      <c r="I47" s="286"/>
+    </row>
+    <row r="48" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="286"/>
+      <c r="G48" s="286"/>
+      <c r="H48" s="286"/>
+      <c r="I48" s="286"/>
+    </row>
+    <row r="49" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="286"/>
+      <c r="G49" s="286"/>
+      <c r="H49" s="286"/>
+      <c r="I49" s="286"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5582,7 +5542,7 @@
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -5590,7 +5550,7 @@
     <col min="6" max="7" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="12.75" customHeight="1">
+    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="93"/>
       <c r="C2" s="14" t="s">
         <v>8</v>
@@ -5598,13 +5558,13 @@
       <c r="D2" s="93"/>
       <c r="E2" s="93"/>
     </row>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1">
+    <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="93"/>
       <c r="C3" s="91"/>
       <c r="D3" s="93"/>
       <c r="E3" s="93"/>
     </row>
-    <row r="4" spans="2:5" ht="12.75" customHeight="1">
+    <row r="4" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="93"/>
       <c r="C4" s="93" t="s">
         <v>50</v>
@@ -5612,7 +5572,7 @@
       <c r="D4" s="93"/>
       <c r="E4" s="93"/>
     </row>
-    <row r="5" spans="2:5" ht="12.75" customHeight="1">
+    <row r="5" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
       <c r="C5" s="93" t="s">
         <v>51</v>
@@ -5620,7 +5580,7 @@
       <c r="D5" s="93"/>
       <c r="E5" s="93"/>
     </row>
-    <row r="6" spans="2:5" ht="12.75" customHeight="1">
+    <row r="6" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="93"/>
       <c r="C6" s="93" t="s">
         <v>52</v>
@@ -5628,7 +5588,7 @@
       <c r="D6" s="93"/>
       <c r="E6" s="93"/>
     </row>
-    <row r="7" spans="2:5" ht="12.75" customHeight="1">
+    <row r="7" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="93"/>
       <c r="C7" s="93" t="s">
         <v>53</v>
@@ -5636,7 +5596,7 @@
       <c r="D7" s="93"/>
       <c r="E7" s="93"/>
     </row>
-    <row r="8" spans="2:5" ht="12.75" customHeight="1">
+    <row r="8" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="93"/>
       <c r="C8" s="93" t="s">
         <v>54</v>
@@ -5644,7 +5604,7 @@
       <c r="D8" s="93"/>
       <c r="E8" s="93"/>
     </row>
-    <row r="9" spans="2:5" ht="15.75" customHeight="1">
+    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="93"/>
       <c r="C9" s="93" t="s">
         <v>55</v>
@@ -5652,7 +5612,7 @@
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
     </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1">
+    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="93"/>
       <c r="C10" s="93" t="s">
         <v>150</v>
@@ -5660,13 +5620,13 @@
       <c r="D10" s="93"/>
       <c r="E10" s="93"/>
     </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
       <c r="E11" s="93"/>
     </row>
-    <row r="12" spans="2:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="128" t="s">
         <v>56</v>
@@ -5678,8 +5638,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B13" s="190" t="s">
+    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="287" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="120" t="s">
@@ -5692,8 +5652,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B14" s="191"/>
+    <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="288"/>
       <c r="C14" s="114" t="s">
         <v>237</v>
       </c>
@@ -5704,8 +5664,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B15" s="191"/>
+    <row r="15" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="288"/>
       <c r="C15" s="116" t="s">
         <v>385</v>
       </c>
@@ -5716,8 +5676,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="191"/>
+    <row r="16" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="288"/>
       <c r="C16" s="114" t="s">
         <v>149</v>
       </c>
@@ -5728,8 +5688,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="191"/>
+    <row r="17" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="288"/>
       <c r="C17" s="116" t="s">
         <v>387</v>
       </c>
@@ -5740,8 +5700,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="191"/>
+    <row r="18" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="288"/>
       <c r="C18" s="114" t="s">
         <v>179</v>
       </c>
@@ -5752,8 +5712,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="191"/>
+    <row r="19" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="288"/>
       <c r="C19" s="114" t="s">
         <v>202</v>
       </c>
@@ -5764,8 +5724,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="191"/>
+    <row r="20" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="288"/>
       <c r="C20" s="116" t="s">
         <v>422</v>
       </c>
@@ -5776,8 +5736,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="191"/>
+    <row r="21" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="288"/>
       <c r="C21" s="116" t="s">
         <v>367</v>
       </c>
@@ -5788,8 +5748,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="191"/>
+    <row r="22" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="288"/>
       <c r="C22" s="116" t="s">
         <v>359</v>
       </c>
@@ -5800,8 +5760,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="191"/>
+    <row r="23" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="288"/>
       <c r="C23" s="116" t="s">
         <v>349</v>
       </c>
@@ -5812,8 +5772,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="191"/>
+    <row r="24" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="288"/>
       <c r="C24" s="114" t="s">
         <v>253</v>
       </c>
@@ -5824,8 +5784,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="191"/>
+    <row r="25" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="288"/>
       <c r="C25" s="114" t="s">
         <v>176</v>
       </c>
@@ -5836,8 +5796,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="191"/>
+    <row r="26" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="288"/>
       <c r="C26" s="116" t="s">
         <v>302</v>
       </c>
@@ -5848,8 +5808,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="191"/>
+    <row r="27" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="288"/>
       <c r="C27" s="116" t="s">
         <v>370</v>
       </c>
@@ -5860,8 +5820,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="191"/>
+    <row r="28" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="288"/>
       <c r="C28" s="114" t="s">
         <v>194</v>
       </c>
@@ -5872,8 +5832,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="191"/>
+    <row r="29" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="288"/>
       <c r="C29" s="114" t="s">
         <v>265</v>
       </c>
@@ -5884,8 +5844,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="191"/>
+    <row r="30" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="288"/>
       <c r="C30" s="114" t="s">
         <v>232</v>
       </c>
@@ -5896,8 +5856,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="191"/>
+    <row r="31" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="288"/>
       <c r="C31" s="114" t="s">
         <v>156</v>
       </c>
@@ -5908,8 +5868,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="191"/>
+    <row r="32" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="288"/>
       <c r="C32" s="114" t="s">
         <v>255</v>
       </c>
@@ -5920,8 +5880,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="191"/>
+    <row r="33" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="288"/>
       <c r="C33" s="116" t="s">
         <v>255</v>
       </c>
@@ -5932,8 +5892,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="191"/>
+    <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="288"/>
       <c r="C34" s="114" t="s">
         <v>220</v>
       </c>
@@ -5944,8 +5904,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="191"/>
+    <row r="35" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="288"/>
       <c r="C35" s="116" t="s">
         <v>381</v>
       </c>
@@ -5956,8 +5916,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="191"/>
+    <row r="36" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="288"/>
       <c r="C36" s="114" t="s">
         <v>247</v>
       </c>
@@ -5968,8 +5928,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="191"/>
+    <row r="37" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="288"/>
       <c r="C37" s="116" t="s">
         <v>304</v>
       </c>
@@ -5980,8 +5940,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="191"/>
+    <row r="38" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="288"/>
       <c r="C38" s="116" t="s">
         <v>411</v>
       </c>
@@ -5992,8 +5952,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="191"/>
+    <row r="39" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="288"/>
       <c r="C39" s="116" t="s">
         <v>366</v>
       </c>
@@ -6004,8 +5964,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="191"/>
+    <row r="40" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="288"/>
       <c r="C40" s="116" t="s">
         <v>373</v>
       </c>
@@ -6016,8 +5976,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="191"/>
+    <row r="41" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="288"/>
       <c r="C41" s="116" t="s">
         <v>417</v>
       </c>
@@ -6028,8 +5988,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="191"/>
+    <row r="42" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="288"/>
       <c r="C42" s="116" t="s">
         <v>269</v>
       </c>
@@ -6040,8 +6000,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="191"/>
+    <row r="43" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="288"/>
       <c r="C43" s="114" t="s">
         <v>153</v>
       </c>
@@ -6052,8 +6012,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="191"/>
+    <row r="44" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="288"/>
       <c r="C44" s="114" t="s">
         <v>267</v>
       </c>
@@ -6064,8 +6024,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="191"/>
+    <row r="45" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="288"/>
       <c r="C45" s="116" t="s">
         <v>301</v>
       </c>
@@ -6076,8 +6036,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="191"/>
+    <row r="46" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="288"/>
       <c r="C46" s="114" t="s">
         <v>249</v>
       </c>
@@ -6088,8 +6048,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="191"/>
+    <row r="47" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="288"/>
       <c r="C47" s="116" t="s">
         <v>308</v>
       </c>
@@ -6100,8 +6060,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="191"/>
+    <row r="48" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="288"/>
       <c r="C48" s="116" t="s">
         <v>426</v>
       </c>
@@ -6112,8 +6072,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="191"/>
+    <row r="49" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="288"/>
       <c r="C49" s="116" t="s">
         <v>347</v>
       </c>
@@ -6124,8 +6084,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="191"/>
+    <row r="50" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="288"/>
       <c r="C50" s="114" t="s">
         <v>217</v>
       </c>
@@ -6136,8 +6096,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="191"/>
+    <row r="51" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="288"/>
       <c r="C51" s="116" t="s">
         <v>380</v>
       </c>
@@ -6148,8 +6108,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="191"/>
+    <row r="52" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="288"/>
       <c r="C52" s="116" t="s">
         <v>375</v>
       </c>
@@ -6160,8 +6120,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="191"/>
+    <row r="53" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="288"/>
       <c r="C53" s="114" t="s">
         <v>185</v>
       </c>
@@ -6172,8 +6132,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="191"/>
+    <row r="54" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="288"/>
       <c r="C54" s="116" t="s">
         <v>290</v>
       </c>
@@ -6184,8 +6144,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="191"/>
+    <row r="55" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="288"/>
       <c r="C55" s="116" t="s">
         <v>348</v>
       </c>
@@ -6196,8 +6156,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="191"/>
+    <row r="56" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="288"/>
       <c r="C56" s="116" t="s">
         <v>374</v>
       </c>
@@ -6208,8 +6168,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="191"/>
+    <row r="57" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="288"/>
       <c r="C57" s="116" t="s">
         <v>397</v>
       </c>
@@ -6220,8 +6180,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="191"/>
+    <row r="58" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="288"/>
       <c r="C58" s="116" t="s">
         <v>289</v>
       </c>
@@ -6232,8 +6192,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="191"/>
+    <row r="59" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="288"/>
       <c r="C59" s="116" t="s">
         <v>372</v>
       </c>
@@ -6244,8 +6204,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="191"/>
+    <row r="60" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="288"/>
       <c r="C60" s="114" t="s">
         <v>173</v>
       </c>
@@ -6256,8 +6216,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="191"/>
+    <row r="61" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="288"/>
       <c r="C61" s="114" t="s">
         <v>259</v>
       </c>
@@ -6268,8 +6228,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="191"/>
+    <row r="62" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="288"/>
       <c r="C62" s="116" t="s">
         <v>193</v>
       </c>
@@ -6280,8 +6240,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="191"/>
+    <row r="63" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="288"/>
       <c r="C63" s="116" t="s">
         <v>282</v>
       </c>
@@ -6292,8 +6252,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="191"/>
+    <row r="64" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="288"/>
       <c r="C64" s="116" t="s">
         <v>350</v>
       </c>
@@ -6304,8 +6264,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="191"/>
+    <row r="65" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="288"/>
       <c r="C65" s="116" t="s">
         <v>294</v>
       </c>
@@ -6316,8 +6276,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="191"/>
+    <row r="66" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="288"/>
       <c r="C66" s="116" t="s">
         <v>292</v>
       </c>
@@ -6328,8 +6288,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="191"/>
+    <row r="67" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="288"/>
       <c r="C67" s="116" t="s">
         <v>286</v>
       </c>
@@ -6340,8 +6300,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="191"/>
+    <row r="68" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="288"/>
       <c r="C68" s="114" t="s">
         <v>258</v>
       </c>
@@ -6352,8 +6312,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="191"/>
+    <row r="69" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="288"/>
       <c r="C69" s="116" t="s">
         <v>423</v>
       </c>
@@ -6364,8 +6324,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="191"/>
+    <row r="70" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="288"/>
       <c r="C70" s="114" t="s">
         <v>191</v>
       </c>
@@ -6376,8 +6336,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="191"/>
+    <row r="71" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="288"/>
       <c r="C71" s="114" t="s">
         <v>162</v>
       </c>
@@ -6388,8 +6348,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="191"/>
+    <row r="72" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="288"/>
       <c r="C72" s="114" t="s">
         <v>252</v>
       </c>
@@ -6400,8 +6360,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="191"/>
+    <row r="73" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="288"/>
       <c r="C73" s="116" t="s">
         <v>312</v>
       </c>
@@ -6412,8 +6372,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="191"/>
+    <row r="74" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="288"/>
       <c r="C74" s="114" t="s">
         <v>257</v>
       </c>
@@ -6424,8 +6384,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="191"/>
+    <row r="75" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="288"/>
       <c r="C75" s="114" t="s">
         <v>211</v>
       </c>
@@ -6436,8 +6396,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="191"/>
+    <row r="76" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="288"/>
       <c r="C76" s="114" t="s">
         <v>223</v>
       </c>
@@ -6448,8 +6408,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="191"/>
+    <row r="77" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="288"/>
       <c r="C77" s="116" t="s">
         <v>344</v>
       </c>
@@ -6460,8 +6420,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="191"/>
+    <row r="78" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="288"/>
       <c r="C78" s="114" t="s">
         <v>262</v>
       </c>
@@ -6472,8 +6432,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="191"/>
+    <row r="79" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="288"/>
       <c r="C79" s="116" t="s">
         <v>322</v>
       </c>
@@ -6484,8 +6444,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="191"/>
+    <row r="80" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="288"/>
       <c r="C80" s="116" t="s">
         <v>293</v>
       </c>
@@ -6496,8 +6456,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="191"/>
+    <row r="81" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="288"/>
       <c r="C81" s="116" t="s">
         <v>74</v>
       </c>
@@ -6508,8 +6468,8 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="192"/>
+    <row r="82" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="289"/>
       <c r="C82" s="114" t="s">
         <v>266</v>
       </c>
@@ -6520,8 +6480,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="192"/>
+    <row r="83" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="289"/>
       <c r="C83" s="116" t="s">
         <v>391</v>
       </c>
@@ -6532,8 +6492,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="192"/>
+    <row r="84" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="289"/>
       <c r="C84" s="116" t="s">
         <v>377</v>
       </c>
@@ -6544,8 +6504,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="192"/>
+    <row r="85" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="289"/>
       <c r="C85" s="114" t="s">
         <v>205</v>
       </c>
@@ -6556,8 +6516,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="192"/>
+    <row r="86" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="289"/>
       <c r="C86" s="114" t="s">
         <v>273</v>
       </c>
@@ -6568,8 +6528,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="192"/>
+    <row r="87" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="289"/>
       <c r="C87" s="114" t="s">
         <v>170</v>
       </c>
@@ -6580,8 +6540,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="192"/>
+    <row r="88" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="289"/>
       <c r="C88" s="114" t="s">
         <v>245</v>
       </c>
@@ -6592,8 +6552,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="192"/>
+    <row r="89" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="289"/>
       <c r="C89" s="116" t="s">
         <v>320</v>
       </c>
@@ -6604,8 +6564,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="192"/>
+    <row r="90" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="289"/>
       <c r="C90" s="114" t="s">
         <v>229</v>
       </c>
@@ -6614,8 +6574,8 @@
       </c>
       <c r="E90" s="118"/>
     </row>
-    <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="192"/>
+    <row r="91" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="289"/>
       <c r="C91" s="116" t="s">
         <v>229</v>
       </c>
@@ -6624,8 +6584,8 @@
       </c>
       <c r="E91" s="118"/>
     </row>
-    <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="192"/>
+    <row r="92" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="289"/>
       <c r="C92" s="114" t="s">
         <v>243</v>
       </c>
@@ -6634,8 +6594,8 @@
       </c>
       <c r="E92" s="118"/>
     </row>
-    <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="192"/>
+    <row r="93" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="289"/>
       <c r="C93" s="116" t="s">
         <v>371</v>
       </c>
@@ -6644,8 +6604,8 @@
       </c>
       <c r="E93" s="118"/>
     </row>
-    <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="192"/>
+    <row r="94" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="289"/>
       <c r="C94" s="114" t="s">
         <v>261</v>
       </c>
@@ -6654,431 +6614,431 @@
       </c>
       <c r="E94" s="118"/>
     </row>
-    <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="192"/>
+    <row r="95" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="289"/>
       <c r="C95" s="115" t="s">
         <v>409</v>
       </c>
       <c r="E95" s="113"/>
     </row>
-    <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="192"/>
+    <row r="96" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="289"/>
       <c r="C96" s="116" t="s">
         <v>279</v>
       </c>
       <c r="D96" s="113"/>
       <c r="E96" s="118"/>
     </row>
-    <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="192"/>
+    <row r="97" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="289"/>
       <c r="C97" s="116" t="s">
         <v>331</v>
       </c>
       <c r="D97" s="113"/>
       <c r="E97" s="118"/>
     </row>
-    <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="192"/>
+    <row r="98" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="289"/>
       <c r="C98" s="116" t="s">
         <v>337</v>
       </c>
       <c r="D98" s="113"/>
       <c r="E98" s="118"/>
     </row>
-    <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="192"/>
+    <row r="99" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="289"/>
       <c r="C99" s="116" t="s">
         <v>356</v>
       </c>
       <c r="D99" s="113"/>
       <c r="E99" s="118"/>
     </row>
-    <row r="100" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B100" s="192"/>
+    <row r="100" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="289"/>
       <c r="C100" s="116" t="s">
         <v>364</v>
       </c>
       <c r="D100" s="113"/>
       <c r="E100" s="118"/>
     </row>
-    <row r="101" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B101" s="192"/>
+    <row r="101" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="289"/>
       <c r="C101" s="116" t="s">
         <v>315</v>
       </c>
       <c r="D101" s="113"/>
       <c r="E101" s="118"/>
     </row>
-    <row r="102" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B102" s="192"/>
+    <row r="102" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="289"/>
       <c r="C102" s="114" t="s">
         <v>208</v>
       </c>
       <c r="D102" s="113"/>
       <c r="E102" s="118"/>
     </row>
-    <row r="103" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B103" s="192"/>
+    <row r="103" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="289"/>
       <c r="C103" s="116" t="s">
         <v>351</v>
       </c>
       <c r="D103" s="113"/>
       <c r="E103" s="118"/>
     </row>
-    <row r="104" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B104" s="192"/>
+    <row r="104" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="289"/>
       <c r="C104" s="114" t="s">
         <v>197</v>
       </c>
       <c r="D104" s="113"/>
       <c r="E104" s="118"/>
     </row>
-    <row r="105" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B105" s="192"/>
+    <row r="105" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="289"/>
       <c r="C105" s="114" t="s">
         <v>240</v>
       </c>
       <c r="D105" s="113"/>
       <c r="E105" s="118"/>
     </row>
-    <row r="106" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B106" s="192"/>
+    <row r="106" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="289"/>
       <c r="C106" s="116" t="s">
         <v>384</v>
       </c>
       <c r="D106" s="126"/>
       <c r="E106" s="118"/>
     </row>
-    <row r="107" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B107" s="192"/>
+    <row r="107" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="289"/>
       <c r="C107" s="114" t="s">
         <v>254</v>
       </c>
       <c r="D107" s="113"/>
       <c r="E107" s="118"/>
     </row>
-    <row r="108" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B108" s="192"/>
+    <row r="108" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="289"/>
       <c r="C108" s="114" t="s">
         <v>251</v>
       </c>
       <c r="D108" s="113"/>
       <c r="E108" s="118"/>
     </row>
-    <row r="109" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B109" s="192"/>
+    <row r="109" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="289"/>
       <c r="C109" s="114" t="s">
         <v>263</v>
       </c>
       <c r="D109" s="113"/>
       <c r="E109" s="118"/>
     </row>
-    <row r="110" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B110" s="192"/>
+    <row r="110" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="289"/>
       <c r="C110" s="116" t="s">
         <v>342</v>
       </c>
       <c r="D110" s="113"/>
       <c r="E110" s="118"/>
     </row>
-    <row r="111" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B111" s="192"/>
+    <row r="111" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="289"/>
       <c r="C111" s="116" t="s">
         <v>148</v>
       </c>
       <c r="D111" s="113"/>
       <c r="E111" s="118"/>
     </row>
-    <row r="112" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B112" s="192"/>
+    <row r="112" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="289"/>
       <c r="C112" s="114" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="113"/>
       <c r="E112" s="118"/>
     </row>
-    <row r="113" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B113" s="192"/>
+    <row r="113" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="289"/>
       <c r="C113" s="116" t="s">
         <v>354</v>
       </c>
       <c r="D113" s="113"/>
       <c r="E113" s="118"/>
     </row>
-    <row r="114" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B114" s="192"/>
+    <row r="114" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="289"/>
       <c r="C114" s="116" t="s">
         <v>336</v>
       </c>
       <c r="D114" s="113"/>
       <c r="E114" s="118"/>
     </row>
-    <row r="115" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B115" s="192"/>
+    <row r="115" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="289"/>
       <c r="C115" s="114" t="s">
         <v>260</v>
       </c>
       <c r="D115" s="113"/>
       <c r="E115" s="118"/>
     </row>
-    <row r="116" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B116" s="192"/>
+    <row r="116" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="289"/>
       <c r="C116" s="114" t="s">
         <v>159</v>
       </c>
       <c r="D116" s="113"/>
       <c r="E116" s="118"/>
     </row>
-    <row r="117" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B117" s="192"/>
+    <row r="117" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="289"/>
       <c r="C117" s="116" t="s">
         <v>346</v>
       </c>
       <c r="D117" s="113"/>
       <c r="E117" s="118"/>
     </row>
-    <row r="118" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B118" s="192"/>
+    <row r="118" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="289"/>
       <c r="C118" s="116" t="s">
         <v>321</v>
       </c>
       <c r="D118" s="113"/>
       <c r="E118" s="118"/>
     </row>
-    <row r="119" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B119" s="192"/>
+    <row r="119" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="289"/>
       <c r="C119" s="116" t="s">
         <v>329</v>
       </c>
       <c r="D119" s="113"/>
       <c r="E119" s="118"/>
     </row>
-    <row r="120" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B120" s="192"/>
+    <row r="120" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="289"/>
       <c r="C120" s="114" t="s">
         <v>182</v>
       </c>
       <c r="D120" s="113"/>
       <c r="E120" s="118"/>
     </row>
-    <row r="121" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B121" s="192"/>
+    <row r="121" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="289"/>
       <c r="C121" s="116" t="s">
         <v>306</v>
       </c>
       <c r="D121" s="113"/>
       <c r="E121" s="118"/>
     </row>
-    <row r="122" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B122" s="192"/>
+    <row r="122" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="289"/>
       <c r="C122" s="114" t="s">
         <v>188</v>
       </c>
       <c r="D122" s="113"/>
       <c r="E122" s="118"/>
     </row>
-    <row r="123" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B123" s="192"/>
+    <row r="123" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="289"/>
       <c r="C123" s="116" t="s">
         <v>188</v>
       </c>
       <c r="D123" s="113"/>
       <c r="E123" s="118"/>
     </row>
-    <row r="124" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B124" s="192"/>
+    <row r="124" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="289"/>
       <c r="C124" s="116" t="s">
         <v>291</v>
       </c>
       <c r="D124" s="113"/>
       <c r="E124" s="118"/>
     </row>
-    <row r="125" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B125" s="192"/>
+    <row r="125" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="289"/>
       <c r="C125" s="114" t="s">
         <v>226</v>
       </c>
       <c r="D125" s="113"/>
       <c r="E125" s="118"/>
     </row>
-    <row r="126" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B126" s="192"/>
+    <row r="126" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="289"/>
       <c r="C126" s="114" t="s">
         <v>214</v>
       </c>
       <c r="D126" s="113"/>
       <c r="E126" s="118"/>
     </row>
-    <row r="127" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B127" s="192"/>
+    <row r="127" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="289"/>
       <c r="C127" s="114" t="s">
         <v>234</v>
       </c>
       <c r="D127" s="113"/>
       <c r="E127" s="118"/>
     </row>
-    <row r="128" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B128" s="192"/>
+    <row r="128" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="289"/>
       <c r="C128" s="114" t="s">
         <v>165</v>
       </c>
       <c r="D128" s="113"/>
       <c r="E128" s="118"/>
     </row>
-    <row r="129" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B129" s="192"/>
+    <row r="129" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="289"/>
       <c r="C129" s="114" t="s">
         <v>268</v>
       </c>
       <c r="D129" s="113"/>
       <c r="E129" s="118"/>
     </row>
-    <row r="130" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B130" s="192"/>
+    <row r="130" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="289"/>
       <c r="C130" s="116" t="s">
         <v>378</v>
       </c>
       <c r="D130" s="113"/>
       <c r="E130" s="118"/>
     </row>
-    <row r="131" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B131" s="192"/>
+    <row r="131" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="289"/>
       <c r="C131" s="116" t="s">
         <v>283</v>
       </c>
       <c r="D131" s="113"/>
       <c r="E131" s="118"/>
     </row>
-    <row r="132" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B132" s="192"/>
+    <row r="132" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="289"/>
       <c r="C132" s="116" t="s">
         <v>389</v>
       </c>
       <c r="D132" s="113"/>
       <c r="E132" s="118"/>
     </row>
-    <row r="133" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B133" s="192"/>
+    <row r="133" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="289"/>
       <c r="C133" s="116" t="s">
         <v>324</v>
       </c>
       <c r="D133" s="113"/>
       <c r="E133" s="118"/>
     </row>
-    <row r="134" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B134" s="192"/>
+    <row r="134" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="289"/>
       <c r="C134" s="116" t="s">
         <v>280</v>
       </c>
       <c r="D134" s="113"/>
       <c r="E134" s="118"/>
     </row>
-    <row r="135" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B135" s="192"/>
+    <row r="135" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="289"/>
       <c r="C135" s="114" t="s">
         <v>256</v>
       </c>
       <c r="D135" s="113"/>
       <c r="E135" s="118"/>
     </row>
-    <row r="136" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B136" s="192"/>
+    <row r="136" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="289"/>
       <c r="C136" s="116" t="s">
         <v>196</v>
       </c>
       <c r="D136" s="113"/>
       <c r="E136" s="118"/>
     </row>
-    <row r="137" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B137" s="192"/>
+    <row r="137" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="289"/>
       <c r="C137" s="116" t="s">
         <v>369</v>
       </c>
       <c r="D137" s="113"/>
       <c r="E137" s="118"/>
     </row>
-    <row r="138" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B138" s="192"/>
+    <row r="138" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="289"/>
       <c r="C138" s="116" t="s">
         <v>395</v>
       </c>
       <c r="D138" s="113"/>
       <c r="E138" s="118"/>
     </row>
-    <row r="139" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B139" s="192"/>
+    <row r="139" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="289"/>
       <c r="C139" s="116"/>
       <c r="D139" s="113"/>
       <c r="E139" s="118"/>
     </row>
-    <row r="140" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B140" s="192"/>
+    <row r="140" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="289"/>
       <c r="C140" s="116"/>
       <c r="D140" s="113"/>
       <c r="E140" s="118"/>
     </row>
-    <row r="141" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B141" s="192"/>
+    <row r="141" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="289"/>
       <c r="C141" s="116"/>
       <c r="D141" s="113"/>
       <c r="E141" s="118"/>
     </row>
-    <row r="142" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B142" s="192"/>
+    <row r="142" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="289"/>
       <c r="C142" s="116"/>
       <c r="D142" s="113"/>
       <c r="E142" s="118"/>
     </row>
-    <row r="143" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B143" s="192"/>
+    <row r="143" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="289"/>
       <c r="C143" s="116"/>
       <c r="D143" s="113"/>
       <c r="E143" s="118"/>
     </row>
-    <row r="144" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B144" s="192"/>
+    <row r="144" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="289"/>
       <c r="C144" s="116"/>
       <c r="D144" s="113"/>
       <c r="E144" s="118"/>
     </row>
-    <row r="145" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B145" s="192"/>
+    <row r="145" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="289"/>
       <c r="C145" s="116"/>
       <c r="D145" s="113"/>
       <c r="E145" s="118"/>
     </row>
-    <row r="146" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B146" s="192"/>
+    <row r="146" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="289"/>
       <c r="C146" s="116"/>
       <c r="D146" s="113"/>
       <c r="E146" s="118"/>
     </row>
-    <row r="147" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B147" s="192"/>
+    <row r="147" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="289"/>
       <c r="C147" s="116"/>
       <c r="D147" s="113"/>
       <c r="E147" s="118"/>
     </row>
-    <row r="148" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B148" s="192"/>
+    <row r="148" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="289"/>
       <c r="C148" s="116"/>
       <c r="D148" s="113"/>
       <c r="E148" s="118"/>
     </row>
-    <row r="149" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B149" s="192"/>
+    <row r="149" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="289"/>
       <c r="C149" s="116"/>
       <c r="D149" s="113"/>
       <c r="E149" s="118"/>
     </row>
-    <row r="150" spans="2:5" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B150" s="192"/>
+    <row r="150" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="289"/>
       <c r="C150" s="116"/>
       <c r="D150" s="113"/>
       <c r="E150" s="118"/>
     </row>
-    <row r="151" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B151" s="190" t="s">
+    <row r="151" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="287" t="s">
         <v>60</v>
       </c>
       <c r="C151" s="120" t="s">
@@ -7087,114 +7047,114 @@
       <c r="D151" s="125"/>
       <c r="E151" s="121"/>
     </row>
-    <row r="152" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B152" s="192"/>
+    <row r="152" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="289"/>
       <c r="C152" s="116" t="s">
         <v>398</v>
       </c>
       <c r="D152" s="113"/>
       <c r="E152" s="118"/>
     </row>
-    <row r="153" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B153" s="192"/>
+    <row r="153" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="289"/>
       <c r="C153" s="116"/>
       <c r="D153" s="113"/>
       <c r="E153" s="118"/>
     </row>
-    <row r="154" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B154" s="192"/>
+    <row r="154" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="289"/>
       <c r="C154" s="116"/>
       <c r="D154" s="113"/>
       <c r="E154" s="118"/>
     </row>
-    <row r="155" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B155" s="192"/>
+    <row r="155" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="289"/>
       <c r="C155" s="116"/>
       <c r="D155" s="113"/>
       <c r="E155" s="118"/>
     </row>
-    <row r="156" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B156" s="192"/>
+    <row r="156" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="289"/>
       <c r="C156" s="116"/>
       <c r="D156" s="113"/>
       <c r="E156" s="118"/>
     </row>
-    <row r="157" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B157" s="192"/>
+    <row r="157" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="289"/>
       <c r="C157" s="116"/>
       <c r="D157" s="113"/>
       <c r="E157" s="118"/>
     </row>
-    <row r="158" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B158" s="192"/>
+    <row r="158" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="289"/>
       <c r="C158" s="116"/>
       <c r="D158" s="113"/>
       <c r="E158" s="118"/>
     </row>
-    <row r="159" spans="2:5" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B159" s="193"/>
+    <row r="159" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="290"/>
       <c r="C159" s="122"/>
       <c r="D159" s="127"/>
       <c r="E159" s="119"/>
     </row>
-    <row r="160" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B160" s="190" t="s">
+    <row r="160" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="287" t="s">
         <v>61</v>
       </c>
       <c r="C160" s="120"/>
       <c r="D160" s="125"/>
       <c r="E160" s="121"/>
     </row>
-    <row r="161" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B161" s="192"/>
+    <row r="161" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="289"/>
       <c r="C161" s="116"/>
       <c r="D161" s="113"/>
       <c r="E161" s="118"/>
     </row>
-    <row r="162" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B162" s="192"/>
+    <row r="162" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="289"/>
       <c r="C162" s="116"/>
       <c r="D162" s="113"/>
       <c r="E162" s="118"/>
     </row>
-    <row r="163" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B163" s="192"/>
+    <row r="163" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="289"/>
       <c r="C163" s="116"/>
       <c r="D163" s="113"/>
       <c r="E163" s="118"/>
     </row>
-    <row r="164" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B164" s="192"/>
+    <row r="164" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="289"/>
       <c r="C164" s="116"/>
       <c r="D164" s="113"/>
       <c r="E164" s="118"/>
     </row>
-    <row r="165" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B165" s="192"/>
+    <row r="165" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="289"/>
       <c r="C165" s="116"/>
       <c r="D165" s="113"/>
       <c r="E165" s="118"/>
     </row>
-    <row r="166" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B166" s="192"/>
+    <row r="166" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="289"/>
       <c r="C166" s="116"/>
       <c r="D166" s="113"/>
       <c r="E166" s="118"/>
     </row>
-    <row r="167" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B167" s="192"/>
+    <row r="167" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="289"/>
       <c r="C167" s="116"/>
       <c r="D167" s="113"/>
       <c r="E167" s="118"/>
     </row>
-    <row r="168" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B168" s="192"/>
+    <row r="168" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="289"/>
       <c r="C168" s="114"/>
       <c r="D168" s="113"/>
       <c r="E168" s="118"/>
     </row>
-    <row r="169" spans="2:5" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B169" s="193"/>
+    <row r="169" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="290"/>
       <c r="C169" s="123"/>
       <c r="D169" s="127"/>
       <c r="E169" s="119"/>
@@ -7218,31 +7178,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:L365"/>
+  <dimension ref="A2:Q227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B323" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="139" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="139" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" style="139" customWidth="1"/>
     <col min="4" max="4" width="69" style="139" customWidth="1"/>
-    <col min="5" max="5" width="74.5703125" style="139" customWidth="1"/>
+    <col min="5" max="5" width="77.5703125" style="139" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.28515625" style="139" customWidth="1"/>
     <col min="7" max="7" width="1.28515625" style="145" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" style="139" customWidth="1"/>
     <col min="9" max="10" width="1.28515625" style="139" customWidth="1"/>
     <col min="11" max="11" width="46.140625" style="173" customWidth="1"/>
     <col min="12" max="12" width="1.28515625" style="139" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" style="139" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="139" customWidth="1"/>
-    <col min="15" max="16384" width="17.28515625" style="139"/>
+    <col min="13" max="13" width="16.85546875" style="139" customWidth="1"/>
+    <col min="14" max="14" width="110.85546875" style="139" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="139" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="139" customWidth="1"/>
+    <col min="17" max="17" width="77.28515625" style="139" customWidth="1"/>
+    <col min="18" max="16384" width="17.28515625" style="139"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20.25" customHeight="1">
+    <row r="2" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="140"/>
       <c r="C2" s="141" t="s">
         <v>62</v>
@@ -7257,27 +7220,27 @@
       <c r="K2" s="143"/>
       <c r="L2" s="140"/>
     </row>
-    <row r="3" spans="2:12" ht="56.25" customHeight="1">
+    <row r="3" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="140"/>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="305" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
       <c r="K3" s="139" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="30.75" customHeight="1">
+    <row r="4" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="146"/>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="307" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
       <c r="K4" s="148"/>
     </row>
-    <row r="5" spans="2:12" ht="21" customHeight="1">
+    <row r="5" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="140"/>
       <c r="C5" s="149" t="s">
         <v>65</v>
@@ -7292,7 +7255,7 @@
       <c r="K5" s="143"/>
       <c r="L5" s="140"/>
     </row>
-    <row r="6" spans="2:12" ht="21" customHeight="1">
+    <row r="6" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="146"/>
       <c r="C6" s="150" t="s">
         <v>66</v>
@@ -7307,7 +7270,7 @@
       <c r="K6" s="148"/>
       <c r="L6" s="151"/>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1">
+    <row r="7" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="146"/>
       <c r="C7" s="151"/>
       <c r="D7" s="151"/>
@@ -7320,7 +7283,7 @@
       <c r="K7" s="148"/>
       <c r="L7" s="151"/>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1">
+    <row r="8" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="141"/>
       <c r="C8" s="141"/>
       <c r="D8" s="141"/>
@@ -7333,7 +7296,7 @@
       <c r="K8" s="154"/>
       <c r="L8" s="146"/>
     </row>
-    <row r="9" spans="2:12" ht="19.5" customHeight="1">
+    <row r="9" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="155" t="s">
         <v>67</v>
       </c>
@@ -7354,7 +7317,7 @@
       <c r="K9" s="157"/>
       <c r="L9" s="155"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="146"/>
       <c r="C10" s="151"/>
       <c r="D10" s="146"/>
@@ -7367,7 +7330,7 @@
       <c r="K10" s="148"/>
       <c r="L10" s="146"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="158" t="s">
         <v>71</v>
       </c>
@@ -7388,8 +7351,15 @@
         <v>432</v>
       </c>
       <c r="L11" s="162"/>
-    </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="N11" s="247" t="s">
+        <v>587</v>
+      </c>
+      <c r="P11" s="348" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q11" s="348"/>
+    </row>
+    <row r="12" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="141"/>
       <c r="C12" s="165"/>
       <c r="D12" s="166"/>
@@ -7401,27 +7371,36 @@
       <c r="J12" s="164"/>
       <c r="K12" s="168"/>
       <c r="L12" s="164"/>
-    </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N12" s="248" t="s">
+        <v>538</v>
+      </c>
+      <c r="P12" s="347"/>
+      <c r="Q12" s="247" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="146"/>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="313" t="s">
         <v>429</v>
       </c>
-      <c r="D13" s="229"/>
-      <c r="E13" s="230"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="317"/>
       <c r="F13" s="151"/>
       <c r="G13" s="152"/>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
-      <c r="K13" s="196" t="s">
+      <c r="K13" s="311" t="s">
         <v>477</v>
       </c>
       <c r="L13" s="151"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N13" s="231"/>
+      <c r="P13" s="347"/>
+    </row>
+    <row r="14" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="146"/>
-      <c r="C14" s="227"/>
+      <c r="C14" s="314"/>
       <c r="D14" s="134" t="s">
         <v>430</v>
       </c>
@@ -7431,12 +7410,16 @@
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
-      <c r="K14" s="197"/>
+      <c r="K14" s="312"/>
       <c r="L14" s="151"/>
-    </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N14" s="249" t="s">
+        <v>539</v>
+      </c>
+      <c r="P14" s="347"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="146"/>
-      <c r="C15" s="227"/>
+      <c r="C15" s="314"/>
       <c r="D15" s="136"/>
       <c r="E15" s="137" t="s">
         <v>433</v>
@@ -7446,12 +7429,19 @@
       <c r="H15" s="151"/>
       <c r="I15" s="169"/>
       <c r="J15" s="151"/>
-      <c r="K15" s="197"/>
+      <c r="K15" s="312"/>
       <c r="L15" s="151"/>
-    </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1">
+      <c r="N15" s="250" t="s">
+        <v>540</v>
+      </c>
+      <c r="P15" s="347"/>
+      <c r="Q15" s="247" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="146"/>
-      <c r="C16" s="227"/>
+      <c r="C16" s="314"/>
       <c r="D16" s="136"/>
       <c r="E16" s="137" t="s">
         <v>456</v>
@@ -7461,12 +7451,16 @@
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
       <c r="J16" s="151"/>
-      <c r="K16" s="197"/>
+      <c r="K16" s="312"/>
       <c r="L16" s="151"/>
-    </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1">
+      <c r="N16" s="251" t="s">
+        <v>541</v>
+      </c>
+      <c r="P16" s="347"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="146"/>
-      <c r="C17" s="227"/>
+      <c r="C17" s="314"/>
       <c r="D17" s="136" t="s">
         <v>434</v>
       </c>
@@ -7476,12 +7470,16 @@
       <c r="H17" s="151"/>
       <c r="I17" s="151"/>
       <c r="J17" s="151"/>
-      <c r="K17" s="197"/>
+      <c r="K17" s="312"/>
       <c r="L17" s="151"/>
-    </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1">
+      <c r="N17" s="250" t="s">
+        <v>542</v>
+      </c>
+      <c r="P17" s="347"/>
+    </row>
+    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="146"/>
-      <c r="C18" s="227"/>
+      <c r="C18" s="314"/>
       <c r="D18" s="136" t="s">
         <v>457</v>
       </c>
@@ -7491,12 +7489,16 @@
       <c r="H18" s="151"/>
       <c r="I18" s="151"/>
       <c r="J18" s="151"/>
-      <c r="K18" s="197"/>
+      <c r="K18" s="312"/>
       <c r="L18" s="151"/>
-    </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1">
+      <c r="N18" s="251" t="s">
+        <v>543</v>
+      </c>
+      <c r="P18" s="347"/>
+    </row>
+    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="146"/>
-      <c r="C19" s="227"/>
+      <c r="C19" s="314"/>
       <c r="D19" s="136"/>
       <c r="E19" s="137" t="s">
         <v>458</v>
@@ -7506,12 +7508,16 @@
       <c r="H19" s="151"/>
       <c r="I19" s="151"/>
       <c r="J19" s="151"/>
-      <c r="K19" s="197"/>
+      <c r="K19" s="312"/>
       <c r="L19" s="151"/>
-    </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1">
+      <c r="N19" s="250" t="s">
+        <v>544</v>
+      </c>
+      <c r="P19" s="347"/>
+    </row>
+    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="146"/>
-      <c r="C20" s="227"/>
+      <c r="C20" s="314"/>
       <c r="D20" s="136"/>
       <c r="E20" s="183" t="s">
         <v>438</v>
@@ -7521,12 +7527,16 @@
       <c r="H20" s="151"/>
       <c r="I20" s="151"/>
       <c r="J20" s="151"/>
-      <c r="K20" s="197"/>
+      <c r="K20" s="312"/>
       <c r="L20" s="151"/>
-    </row>
-    <row r="21" spans="2:12" ht="18" customHeight="1">
+      <c r="N20" s="281" t="s">
+        <v>593</v>
+      </c>
+      <c r="P20" s="347"/>
+    </row>
+    <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
-      <c r="C21" s="227"/>
+      <c r="C21" s="314"/>
       <c r="D21" s="136"/>
       <c r="E21" s="137" t="s">
         <v>459</v>
@@ -7536,12 +7546,16 @@
       <c r="H21" s="151"/>
       <c r="I21" s="151"/>
       <c r="J21" s="151"/>
-      <c r="K21" s="197"/>
+      <c r="K21" s="312"/>
       <c r="L21" s="151"/>
-    </row>
-    <row r="22" spans="2:12" ht="18" customHeight="1">
+      <c r="N21" s="244" t="s">
+        <v>545</v>
+      </c>
+      <c r="P21" s="347"/>
+    </row>
+    <row r="22" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="146"/>
-      <c r="C22" s="227"/>
+      <c r="C22" s="314"/>
       <c r="D22" s="136"/>
       <c r="E22" s="183" t="s">
         <v>436</v>
@@ -7551,12 +7565,14 @@
       <c r="H22" s="151"/>
       <c r="I22" s="151"/>
       <c r="J22" s="151"/>
-      <c r="K22" s="197"/>
+      <c r="K22" s="312"/>
       <c r="L22" s="151"/>
-    </row>
-    <row r="23" spans="2:12" ht="18" customHeight="1">
+      <c r="N22" s="246"/>
+      <c r="P22" s="347"/>
+    </row>
+    <row r="23" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
-      <c r="C23" s="227"/>
+      <c r="C23" s="314"/>
       <c r="D23" s="175"/>
       <c r="E23" s="137" t="s">
         <v>460</v>
@@ -7566,11 +7582,12 @@
       <c r="H23" s="151"/>
       <c r="I23" s="151"/>
       <c r="J23" s="151"/>
-      <c r="K23" s="197"/>
+      <c r="K23" s="312"/>
       <c r="L23" s="151"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C24" s="227"/>
+      <c r="P23" s="347"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="314"/>
       <c r="D24" s="138"/>
       <c r="E24" s="184" t="s">
         <v>437</v>
@@ -7580,13 +7597,17 @@
       <c r="H24" s="151"/>
       <c r="I24" s="151"/>
       <c r="J24" s="151"/>
-      <c r="K24" s="197"/>
+      <c r="K24" s="312"/>
       <c r="L24" s="151"/>
-    </row>
-    <row r="25" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C25" s="227"/>
-      <c r="D25" s="242"/>
-      <c r="E25" s="243" t="s">
+      <c r="N24" s="247" t="s">
+        <v>546</v>
+      </c>
+      <c r="P24" s="347"/>
+    </row>
+    <row r="25" spans="2:16" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="314"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="190" t="s">
         <v>476</v>
       </c>
       <c r="F25" s="151"/>
@@ -7594,29 +7615,39 @@
       <c r="H25" s="151"/>
       <c r="I25" s="151"/>
       <c r="J25" s="151"/>
-      <c r="K25" s="197"/>
+      <c r="K25" s="312"/>
       <c r="L25" s="151"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C26" s="228"/>
-      <c r="D26" s="199" t="s">
+      <c r="N25" s="248" t="s">
+        <v>538</v>
+      </c>
+      <c r="P25" s="347"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="315"/>
+      <c r="D26" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="200"/>
+      <c r="E26" s="300"/>
       <c r="F26" s="151"/>
       <c r="G26" s="152"/>
       <c r="H26" s="151"/>
       <c r="I26" s="151"/>
       <c r="J26" s="151"/>
-      <c r="K26" s="197"/>
+      <c r="K26" s="312"/>
       <c r="L26" s="151"/>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1">
+      <c r="N26" s="231"/>
+      <c r="P26" s="347"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="170"/>
       <c r="D27" s="171"/>
       <c r="E27" s="172"/>
-    </row>
-    <row r="28" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N27" s="249" t="s">
+        <v>539</v>
+      </c>
+      <c r="P27" s="347"/>
+    </row>
+    <row r="28" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="141"/>
       <c r="C28" s="165"/>
       <c r="D28" s="166"/>
@@ -7628,25 +7659,33 @@
       <c r="J28" s="164"/>
       <c r="K28" s="168"/>
       <c r="L28" s="164"/>
-    </row>
-    <row r="29" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N28" s="250" t="s">
+        <v>547</v>
+      </c>
+      <c r="P28" s="347"/>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="146"/>
-      <c r="C29" s="218" t="s">
+      <c r="C29" s="291" t="s">
         <v>472</v>
       </c>
-      <c r="D29" s="221"/>
-      <c r="E29" s="222"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="295"/>
       <c r="F29" s="151"/>
       <c r="G29" s="152"/>
       <c r="H29" s="151"/>
       <c r="I29" s="151"/>
       <c r="J29" s="151"/>
-      <c r="K29" s="214"/>
+      <c r="K29" s="324"/>
       <c r="L29" s="151"/>
-    </row>
-    <row r="30" spans="2:12" ht="18" customHeight="1">
+      <c r="N29" s="251" t="s">
+        <v>541</v>
+      </c>
+      <c r="P29" s="347"/>
+    </row>
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="146"/>
-      <c r="C30" s="219"/>
+      <c r="C30" s="292"/>
       <c r="D30" s="134"/>
       <c r="E30" s="135" t="s">
         <v>441</v>
@@ -7656,14 +7695,18 @@
       <c r="H30" s="151"/>
       <c r="I30" s="151"/>
       <c r="J30" s="151"/>
-      <c r="K30" s="215"/>
+      <c r="K30" s="325"/>
       <c r="L30" s="151"/>
-    </row>
-    <row r="31" spans="2:12" ht="18" customHeight="1">
+      <c r="N30" s="250" t="s">
+        <v>548</v>
+      </c>
+      <c r="P30" s="347"/>
+    </row>
+    <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="146"/>
-      <c r="C31" s="219"/>
+      <c r="C31" s="292"/>
       <c r="D31" s="136"/>
-      <c r="E31" s="241" t="s">
+      <c r="E31" s="188" t="s">
         <v>442</v>
       </c>
       <c r="F31" s="151"/>
@@ -7671,12 +7714,16 @@
       <c r="H31" s="151"/>
       <c r="I31" s="151"/>
       <c r="J31" s="151"/>
-      <c r="K31" s="215"/>
+      <c r="K31" s="325"/>
       <c r="L31" s="151"/>
-    </row>
-    <row r="32" spans="2:12" ht="18" customHeight="1">
+      <c r="N31" s="251" t="s">
+        <v>543</v>
+      </c>
+      <c r="P31" s="347"/>
+    </row>
+    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="146"/>
-      <c r="C32" s="219"/>
+      <c r="C32" s="292"/>
       <c r="D32" s="136" t="s">
         <v>443</v>
       </c>
@@ -7686,12 +7733,16 @@
       <c r="H32" s="151"/>
       <c r="I32" s="151"/>
       <c r="J32" s="151"/>
-      <c r="K32" s="215"/>
+      <c r="K32" s="325"/>
       <c r="L32" s="151"/>
-    </row>
-    <row r="33" spans="2:12" ht="18" customHeight="1">
+      <c r="N32" s="250" t="s">
+        <v>549</v>
+      </c>
+      <c r="P32" s="347"/>
+    </row>
+    <row r="33" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="146"/>
-      <c r="C33" s="219"/>
+      <c r="C33" s="292"/>
       <c r="D33" s="136"/>
       <c r="E33" s="137" t="s">
         <v>470</v>
@@ -7701,12 +7752,16 @@
       <c r="H33" s="151"/>
       <c r="I33" s="151"/>
       <c r="J33" s="151"/>
-      <c r="K33" s="215"/>
+      <c r="K33" s="325"/>
       <c r="L33" s="151"/>
-    </row>
-    <row r="34" spans="2:12" ht="18" customHeight="1">
+      <c r="N33" s="281" t="s">
+        <v>594</v>
+      </c>
+      <c r="P33" s="347"/>
+    </row>
+    <row r="34" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="146"/>
-      <c r="C34" s="219"/>
+      <c r="C34" s="292"/>
       <c r="D34" s="136"/>
       <c r="E34" s="137" t="s">
         <v>444</v>
@@ -7716,12 +7771,16 @@
       <c r="H34" s="151"/>
       <c r="I34" s="151"/>
       <c r="J34" s="151"/>
-      <c r="K34" s="215"/>
+      <c r="K34" s="325"/>
       <c r="L34" s="151"/>
-    </row>
-    <row r="35" spans="2:12" ht="18" customHeight="1">
+      <c r="N34" s="244" t="s">
+        <v>545</v>
+      </c>
+      <c r="P34" s="347"/>
+    </row>
+    <row r="35" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="146"/>
-      <c r="C35" s="219"/>
+      <c r="C35" s="292"/>
       <c r="D35" s="136"/>
       <c r="E35" s="137" t="s">
         <v>445</v>
@@ -7731,12 +7790,14 @@
       <c r="H35" s="151"/>
       <c r="I35" s="151"/>
       <c r="J35" s="151"/>
-      <c r="K35" s="215"/>
+      <c r="K35" s="325"/>
       <c r="L35" s="151"/>
-    </row>
-    <row r="36" spans="2:12" ht="18" customHeight="1">
+      <c r="N35" s="246"/>
+      <c r="P35" s="347"/>
+    </row>
+    <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="146"/>
-      <c r="C36" s="219"/>
+      <c r="C36" s="292"/>
       <c r="D36" s="136"/>
       <c r="E36" s="137" t="s">
         <v>446</v>
@@ -7746,12 +7807,13 @@
       <c r="H36" s="151"/>
       <c r="I36" s="151"/>
       <c r="J36" s="151"/>
-      <c r="K36" s="215"/>
+      <c r="K36" s="325"/>
       <c r="L36" s="151"/>
-    </row>
-    <row r="37" spans="2:12" ht="18" customHeight="1">
+      <c r="P36" s="347"/>
+    </row>
+    <row r="37" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="146"/>
-      <c r="C37" s="219"/>
+      <c r="C37" s="292"/>
       <c r="D37" s="136" t="s">
         <v>447</v>
       </c>
@@ -7761,12 +7823,16 @@
       <c r="H37" s="151"/>
       <c r="I37" s="151"/>
       <c r="J37" s="151"/>
-      <c r="K37" s="215"/>
+      <c r="K37" s="325"/>
       <c r="L37" s="151"/>
-    </row>
-    <row r="38" spans="2:12" ht="18" customHeight="1">
+      <c r="N37" s="247" t="s">
+        <v>550</v>
+      </c>
+      <c r="P37" s="347"/>
+    </row>
+    <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="146"/>
-      <c r="C38" s="219"/>
+      <c r="C38" s="292"/>
       <c r="D38" s="136" t="s">
         <v>451</v>
       </c>
@@ -7776,12 +7842,16 @@
       <c r="H38" s="151"/>
       <c r="I38" s="151"/>
       <c r="J38" s="151"/>
-      <c r="K38" s="215"/>
+      <c r="K38" s="325"/>
       <c r="L38" s="151"/>
-    </row>
-    <row r="39" spans="2:12" ht="20.45" customHeight="1">
+      <c r="N38" s="248" t="s">
+        <v>538</v>
+      </c>
+      <c r="P38" s="347"/>
+    </row>
+    <row r="39" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="146"/>
-      <c r="C39" s="219"/>
+      <c r="C39" s="292"/>
       <c r="D39" s="136"/>
       <c r="E39" s="176" t="s">
         <v>448</v>
@@ -7791,12 +7861,14 @@
       <c r="H39" s="151"/>
       <c r="I39" s="151"/>
       <c r="J39" s="151"/>
-      <c r="K39" s="215"/>
+      <c r="K39" s="325"/>
       <c r="L39" s="151"/>
-    </row>
-    <row r="40" spans="2:12" ht="18" customHeight="1">
+      <c r="N39" s="231"/>
+      <c r="P39" s="347"/>
+    </row>
+    <row r="40" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
-      <c r="C40" s="219"/>
+      <c r="C40" s="292"/>
       <c r="D40" s="136"/>
       <c r="E40" s="181" t="s">
         <v>449</v>
@@ -7806,12 +7878,16 @@
       <c r="H40" s="151"/>
       <c r="I40" s="151"/>
       <c r="J40" s="151"/>
-      <c r="K40" s="215"/>
+      <c r="K40" s="325"/>
       <c r="L40" s="151"/>
-    </row>
-    <row r="41" spans="2:12" ht="18" customHeight="1">
+      <c r="N40" s="249" t="s">
+        <v>539</v>
+      </c>
+      <c r="P40" s="347"/>
+    </row>
+    <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="146"/>
-      <c r="C41" s="219"/>
+      <c r="C41" s="292"/>
       <c r="D41" s="175"/>
       <c r="E41" s="177" t="s">
         <v>435</v>
@@ -7821,12 +7897,16 @@
       <c r="H41" s="151"/>
       <c r="I41" s="151"/>
       <c r="J41" s="151"/>
-      <c r="K41" s="215"/>
+      <c r="K41" s="325"/>
       <c r="L41" s="151"/>
-    </row>
-    <row r="42" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N41" s="250" t="s">
+        <v>551</v>
+      </c>
+      <c r="P41" s="347"/>
+    </row>
+    <row r="42" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="146"/>
-      <c r="C42" s="219"/>
+      <c r="C42" s="292"/>
       <c r="D42" s="175"/>
       <c r="E42" s="179" t="s">
         <v>452</v>
@@ -7836,28 +7916,40 @@
       <c r="H42" s="151"/>
       <c r="I42" s="151"/>
       <c r="J42" s="151"/>
-      <c r="K42" s="215"/>
+      <c r="K42" s="325"/>
       <c r="L42" s="151"/>
-    </row>
-    <row r="43" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C43" s="220"/>
-      <c r="D43" s="216" t="s">
+      <c r="N42" s="251" t="s">
+        <v>541</v>
+      </c>
+      <c r="P42" s="347"/>
+    </row>
+    <row r="43" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="293"/>
+      <c r="D43" s="326" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="217"/>
+      <c r="E43" s="327"/>
       <c r="F43" s="151"/>
       <c r="G43" s="152"/>
       <c r="H43" s="151"/>
       <c r="I43" s="151"/>
       <c r="J43" s="151"/>
-      <c r="K43" s="215"/>
+      <c r="K43" s="325"/>
       <c r="L43" s="151"/>
-    </row>
-    <row r="44" spans="2:12" ht="15.75" customHeight="1">
+      <c r="N43" s="250" t="s">
+        <v>552</v>
+      </c>
+      <c r="P43" s="347"/>
+    </row>
+    <row r="44" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="171"/>
       <c r="E44" s="172"/>
-    </row>
-    <row r="45" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N44" s="251" t="s">
+        <v>543</v>
+      </c>
+      <c r="P44" s="347"/>
+    </row>
+    <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="141"/>
       <c r="C45" s="165"/>
       <c r="D45" s="166"/>
@@ -7869,27 +7961,35 @@
       <c r="J45" s="164"/>
       <c r="K45" s="168"/>
       <c r="L45" s="164"/>
-    </row>
-    <row r="46" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N45" s="250" t="s">
+        <v>553</v>
+      </c>
+      <c r="P45" s="347"/>
+    </row>
+    <row r="46" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
-      <c r="C46" s="209" t="s">
+      <c r="C46" s="318" t="s">
         <v>473</v>
       </c>
-      <c r="D46" s="212"/>
-      <c r="E46" s="213"/>
+      <c r="D46" s="321"/>
+      <c r="E46" s="322"/>
       <c r="F46" s="151"/>
       <c r="G46" s="152"/>
       <c r="H46" s="151"/>
       <c r="I46" s="151"/>
       <c r="J46" s="151"/>
-      <c r="K46" s="196" t="s">
+      <c r="K46" s="311" t="s">
         <v>450</v>
       </c>
       <c r="L46" s="151"/>
-    </row>
-    <row r="47" spans="2:12" ht="18" customHeight="1">
+      <c r="N46" s="281" t="s">
+        <v>595</v>
+      </c>
+      <c r="P46" s="347"/>
+    </row>
+    <row r="47" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
-      <c r="C47" s="210"/>
+      <c r="C47" s="319"/>
       <c r="D47" s="134"/>
       <c r="E47" s="135"/>
       <c r="F47" s="151"/>
@@ -7897,12 +7997,16 @@
       <c r="H47" s="151"/>
       <c r="I47" s="151"/>
       <c r="J47" s="151"/>
-      <c r="K47" s="197"/>
+      <c r="K47" s="312"/>
       <c r="L47" s="151"/>
-    </row>
-    <row r="48" spans="2:12" ht="18" customHeight="1">
+      <c r="N47" s="244" t="s">
+        <v>545</v>
+      </c>
+      <c r="P47" s="347"/>
+    </row>
+    <row r="48" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="146"/>
-      <c r="C48" s="210"/>
+      <c r="C48" s="319"/>
       <c r="D48" s="136"/>
       <c r="E48" s="137"/>
       <c r="F48" s="151"/>
@@ -7910,12 +8014,14 @@
       <c r="H48" s="151"/>
       <c r="I48" s="151"/>
       <c r="J48" s="151"/>
-      <c r="K48" s="197"/>
+      <c r="K48" s="312"/>
       <c r="L48" s="151"/>
-    </row>
-    <row r="49" spans="2:12" ht="18" customHeight="1">
+      <c r="N48" s="246"/>
+      <c r="P48" s="347"/>
+    </row>
+    <row r="49" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
-      <c r="C49" s="210"/>
+      <c r="C49" s="319"/>
       <c r="D49" s="136"/>
       <c r="E49" s="137"/>
       <c r="F49" s="151"/>
@@ -7923,12 +8029,12 @@
       <c r="H49" s="151"/>
       <c r="I49" s="151"/>
       <c r="J49" s="151"/>
-      <c r="K49" s="197"/>
+      <c r="K49" s="312"/>
       <c r="L49" s="151"/>
     </row>
-    <row r="50" spans="2:12" ht="18" customHeight="1">
+    <row r="50" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="146"/>
-      <c r="C50" s="210"/>
+      <c r="C50" s="319"/>
       <c r="D50" s="136"/>
       <c r="E50" s="137"/>
       <c r="F50" s="151"/>
@@ -7936,12 +8042,15 @@
       <c r="H50" s="151"/>
       <c r="I50" s="151"/>
       <c r="J50" s="151"/>
-      <c r="K50" s="197"/>
+      <c r="K50" s="312"/>
       <c r="L50" s="151"/>
-    </row>
-    <row r="51" spans="2:12" ht="18" customHeight="1">
+      <c r="N50" s="247" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="146"/>
-      <c r="C51" s="210"/>
+      <c r="C51" s="319"/>
       <c r="D51" s="136"/>
       <c r="E51" s="137"/>
       <c r="F51" s="151"/>
@@ -7949,12 +8058,15 @@
       <c r="H51" s="151"/>
       <c r="I51" s="151"/>
       <c r="J51" s="151"/>
-      <c r="K51" s="197"/>
+      <c r="K51" s="312"/>
       <c r="L51" s="151"/>
-    </row>
-    <row r="52" spans="2:12" ht="18" customHeight="1">
+      <c r="N51" s="248" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="146"/>
-      <c r="C52" s="210"/>
+      <c r="C52" s="319"/>
       <c r="D52" s="136"/>
       <c r="E52" s="137"/>
       <c r="F52" s="151"/>
@@ -7962,12 +8074,13 @@
       <c r="H52" s="151"/>
       <c r="I52" s="151"/>
       <c r="J52" s="151"/>
-      <c r="K52" s="197"/>
+      <c r="K52" s="312"/>
       <c r="L52" s="151"/>
-    </row>
-    <row r="53" spans="2:12" ht="18" customHeight="1">
+      <c r="N52" s="231"/>
+    </row>
+    <row r="53" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="146"/>
-      <c r="C53" s="210"/>
+      <c r="C53" s="319"/>
       <c r="D53" s="136"/>
       <c r="E53" s="137"/>
       <c r="F53" s="151"/>
@@ -7975,12 +8088,15 @@
       <c r="H53" s="151"/>
       <c r="I53" s="151"/>
       <c r="J53" s="151"/>
-      <c r="K53" s="197"/>
+      <c r="K53" s="312"/>
       <c r="L53" s="151"/>
-    </row>
-    <row r="54" spans="2:12" ht="18" customHeight="1">
+      <c r="N53" s="249" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="146"/>
-      <c r="C54" s="210"/>
+      <c r="C54" s="319"/>
       <c r="D54" s="136"/>
       <c r="E54" s="132"/>
       <c r="F54" s="151"/>
@@ -7988,12 +8104,15 @@
       <c r="H54" s="151"/>
       <c r="I54" s="151"/>
       <c r="J54" s="151"/>
-      <c r="K54" s="197"/>
+      <c r="K54" s="312"/>
       <c r="L54" s="151"/>
-    </row>
-    <row r="55" spans="2:12" ht="18" customHeight="1">
+      <c r="N54" s="250" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="146"/>
-      <c r="C55" s="210"/>
+      <c r="C55" s="319"/>
       <c r="D55" s="136"/>
       <c r="E55" s="132"/>
       <c r="F55" s="151"/>
@@ -8001,11 +8120,14 @@
       <c r="H55" s="151"/>
       <c r="I55" s="151"/>
       <c r="J55" s="151"/>
-      <c r="K55" s="197"/>
+      <c r="K55" s="312"/>
       <c r="L55" s="151"/>
-    </row>
-    <row r="56" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C56" s="210"/>
+      <c r="N55" s="251" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="319"/>
       <c r="D56" s="138"/>
       <c r="E56" s="133"/>
       <c r="F56" s="151"/>
@@ -8013,28 +8135,37 @@
       <c r="H56" s="151"/>
       <c r="I56" s="151"/>
       <c r="J56" s="151"/>
-      <c r="K56" s="197"/>
+      <c r="K56" s="312"/>
       <c r="L56" s="151"/>
-    </row>
-    <row r="57" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C57" s="211"/>
-      <c r="D57" s="199" t="s">
+      <c r="N56" s="250" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="320"/>
+      <c r="D57" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="200"/>
+      <c r="E57" s="300"/>
       <c r="F57" s="151"/>
       <c r="G57" s="152"/>
       <c r="H57" s="151"/>
       <c r="I57" s="151"/>
       <c r="J57" s="151"/>
-      <c r="K57" s="198"/>
+      <c r="K57" s="323"/>
       <c r="L57" s="151"/>
-    </row>
-    <row r="58" spans="2:12" ht="15.75" customHeight="1">
+      <c r="N57" s="251" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D58" s="171"/>
       <c r="E58" s="172"/>
-    </row>
-    <row r="59" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N58" s="244" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="141"/>
       <c r="C59" s="165"/>
       <c r="D59" s="166"/>
@@ -8046,25 +8177,31 @@
       <c r="J59" s="164"/>
       <c r="K59" s="168"/>
       <c r="L59" s="164"/>
-    </row>
-    <row r="60" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N59" s="281" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="146"/>
-      <c r="C60" s="218" t="s">
+      <c r="C60" s="291" t="s">
         <v>474</v>
       </c>
-      <c r="D60" s="221"/>
-      <c r="E60" s="222"/>
+      <c r="D60" s="294"/>
+      <c r="E60" s="295"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
       <c r="H60" s="151"/>
       <c r="I60" s="151"/>
       <c r="J60" s="151"/>
-      <c r="K60" s="223"/>
+      <c r="K60" s="296"/>
       <c r="L60" s="151"/>
-    </row>
-    <row r="61" spans="2:12" ht="18" customHeight="1">
+      <c r="N60" s="244" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="146"/>
-      <c r="C61" s="219"/>
+      <c r="C61" s="292"/>
       <c r="D61" s="134"/>
       <c r="E61" s="135" t="s">
         <v>469</v>
@@ -8074,12 +8211,13 @@
       <c r="H61" s="151"/>
       <c r="I61" s="151"/>
       <c r="J61" s="151"/>
-      <c r="K61" s="224"/>
+      <c r="K61" s="297"/>
       <c r="L61" s="151"/>
-    </row>
-    <row r="62" spans="2:12" ht="18" customHeight="1">
+      <c r="N61" s="246"/>
+    </row>
+    <row r="62" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="146"/>
-      <c r="C62" s="219"/>
+      <c r="C62" s="292"/>
       <c r="D62" s="136"/>
       <c r="E62" s="137" t="s">
         <v>444</v>
@@ -8089,12 +8227,12 @@
       <c r="H62" s="151"/>
       <c r="I62" s="151"/>
       <c r="J62" s="151"/>
-      <c r="K62" s="224"/>
+      <c r="K62" s="297"/>
       <c r="L62" s="151"/>
     </row>
-    <row r="63" spans="2:12" ht="18" customHeight="1">
+    <row r="63" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="146"/>
-      <c r="C63" s="219"/>
+      <c r="C63" s="292"/>
       <c r="D63" s="136"/>
       <c r="E63" s="137" t="s">
         <v>445</v>
@@ -8104,12 +8242,15 @@
       <c r="H63" s="151"/>
       <c r="I63" s="151"/>
       <c r="J63" s="151"/>
-      <c r="K63" s="224"/>
+      <c r="K63" s="297"/>
       <c r="L63" s="151"/>
-    </row>
-    <row r="64" spans="2:12" ht="18" customHeight="1">
+      <c r="N63" s="247" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146"/>
-      <c r="C64" s="219"/>
+      <c r="C64" s="292"/>
       <c r="D64" s="136"/>
       <c r="E64" s="137" t="s">
         <v>453</v>
@@ -8119,12 +8260,15 @@
       <c r="H64" s="151"/>
       <c r="I64" s="151"/>
       <c r="J64" s="151"/>
-      <c r="K64" s="224"/>
+      <c r="K64" s="297"/>
       <c r="L64" s="151"/>
-    </row>
-    <row r="65" spans="2:12" ht="18" customHeight="1">
+      <c r="N64" s="248" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="146"/>
-      <c r="C65" s="219"/>
+      <c r="C65" s="292"/>
       <c r="D65" s="136" t="s">
         <v>447</v>
       </c>
@@ -8134,12 +8278,13 @@
       <c r="H65" s="151"/>
       <c r="I65" s="151"/>
       <c r="J65" s="151"/>
-      <c r="K65" s="224"/>
+      <c r="K65" s="297"/>
       <c r="L65" s="151"/>
-    </row>
-    <row r="66" spans="2:12" ht="18" customHeight="1">
+      <c r="N65" s="231"/>
+    </row>
+    <row r="66" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="146"/>
-      <c r="C66" s="219"/>
+      <c r="C66" s="292"/>
       <c r="D66" s="136" t="s">
         <v>454</v>
       </c>
@@ -8149,12 +8294,15 @@
       <c r="H66" s="151"/>
       <c r="I66" s="151"/>
       <c r="J66" s="151"/>
-      <c r="K66" s="224"/>
+      <c r="K66" s="297"/>
       <c r="L66" s="151"/>
-    </row>
-    <row r="67" spans="2:12" ht="18" customHeight="1">
+      <c r="N66" s="249" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="146"/>
-      <c r="C67" s="219"/>
+      <c r="C67" s="292"/>
       <c r="D67" s="136"/>
       <c r="E67" s="137" t="s">
         <v>461</v>
@@ -8164,12 +8312,15 @@
       <c r="H67" s="151"/>
       <c r="I67" s="151"/>
       <c r="J67" s="151"/>
-      <c r="K67" s="224"/>
+      <c r="K67" s="297"/>
       <c r="L67" s="151"/>
-    </row>
-    <row r="68" spans="2:12" ht="18" customHeight="1">
+      <c r="N67" s="282" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="146"/>
-      <c r="C68" s="219"/>
+      <c r="C68" s="292"/>
       <c r="D68" s="136"/>
       <c r="E68" s="185" t="s">
         <v>463</v>
@@ -8179,12 +8330,15 @@
       <c r="H68" s="151"/>
       <c r="I68" s="151"/>
       <c r="J68" s="151"/>
-      <c r="K68" s="224"/>
+      <c r="K68" s="297"/>
       <c r="L68" s="151"/>
-    </row>
-    <row r="69" spans="2:12" ht="18" customHeight="1">
+      <c r="N68" s="251" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146"/>
-      <c r="C69" s="219"/>
+      <c r="C69" s="292"/>
       <c r="D69" s="136"/>
       <c r="E69" s="137" t="s">
         <v>455</v>
@@ -8194,12 +8348,15 @@
       <c r="H69" s="151"/>
       <c r="I69" s="151"/>
       <c r="J69" s="151"/>
-      <c r="K69" s="224"/>
+      <c r="K69" s="297"/>
       <c r="L69" s="151"/>
-    </row>
-    <row r="70" spans="2:12" ht="18" customHeight="1">
+      <c r="N69" s="250" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="146"/>
-      <c r="C70" s="219"/>
+      <c r="C70" s="292"/>
       <c r="D70" s="136"/>
       <c r="E70" s="182" t="s">
         <v>464</v>
@@ -8209,12 +8366,15 @@
       <c r="H70" s="151"/>
       <c r="I70" s="151"/>
       <c r="J70" s="151"/>
-      <c r="K70" s="224"/>
+      <c r="K70" s="297"/>
       <c r="L70" s="151"/>
-    </row>
-    <row r="71" spans="2:12" ht="18" customHeight="1">
+      <c r="N70" s="251" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="146"/>
-      <c r="C71" s="219"/>
+      <c r="C71" s="292"/>
       <c r="D71" s="136"/>
       <c r="E71" s="137" t="s">
         <v>455</v>
@@ -8224,12 +8384,15 @@
       <c r="H71" s="151"/>
       <c r="I71" s="151"/>
       <c r="J71" s="151"/>
-      <c r="K71" s="224"/>
+      <c r="K71" s="297"/>
       <c r="L71" s="151"/>
-    </row>
-    <row r="72" spans="2:12" ht="18" customHeight="1">
+      <c r="N71" s="244" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="146"/>
-      <c r="C72" s="219"/>
+      <c r="C72" s="292"/>
       <c r="D72" s="136"/>
       <c r="E72" s="178" t="s">
         <v>448</v>
@@ -8239,12 +8402,15 @@
       <c r="H72" s="151"/>
       <c r="I72" s="151"/>
       <c r="J72" s="151"/>
-      <c r="K72" s="224"/>
+      <c r="K72" s="297"/>
       <c r="L72" s="151"/>
-    </row>
-    <row r="73" spans="2:12" ht="18" customHeight="1">
+      <c r="N72" s="281" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="146"/>
-      <c r="C73" s="219"/>
+      <c r="C73" s="292"/>
       <c r="D73" s="136"/>
       <c r="E73" s="186" t="s">
         <v>462</v>
@@ -8254,12 +8420,15 @@
       <c r="H73" s="151"/>
       <c r="I73" s="151"/>
       <c r="J73" s="151"/>
-      <c r="K73" s="224"/>
+      <c r="K73" s="297"/>
       <c r="L73" s="151"/>
-    </row>
-    <row r="74" spans="2:12" ht="18" customHeight="1">
+      <c r="N73" s="244" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="146"/>
-      <c r="C74" s="219"/>
+      <c r="C74" s="292"/>
       <c r="D74" s="175"/>
       <c r="E74" s="179" t="s">
         <v>435</v>
@@ -8269,11 +8438,12 @@
       <c r="H74" s="151"/>
       <c r="I74" s="151"/>
       <c r="J74" s="151"/>
-      <c r="K74" s="224"/>
+      <c r="K74" s="297"/>
       <c r="L74" s="151"/>
-    </row>
-    <row r="75" spans="2:12" ht="15.75" customHeight="1">
-      <c r="C75" s="219"/>
+      <c r="N74" s="246"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="292"/>
       <c r="D75" s="175"/>
       <c r="E75" s="180" t="s">
         <v>452</v>
@@ -8283,28 +8453,34 @@
       <c r="H75" s="151"/>
       <c r="I75" s="151"/>
       <c r="J75" s="151"/>
-      <c r="K75" s="224"/>
+      <c r="K75" s="297"/>
       <c r="L75" s="151"/>
     </row>
-    <row r="76" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C76" s="220"/>
-      <c r="D76" s="199" t="s">
+    <row r="76" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="293"/>
+      <c r="D76" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="200"/>
+      <c r="E76" s="300"/>
       <c r="F76" s="151"/>
       <c r="G76" s="152"/>
       <c r="H76" s="151"/>
       <c r="I76" s="151"/>
       <c r="J76" s="151"/>
-      <c r="K76" s="225"/>
+      <c r="K76" s="298"/>
       <c r="L76" s="151"/>
-    </row>
-    <row r="77" spans="2:12" ht="15.75" customHeight="1">
+      <c r="N76" s="247" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="171"/>
       <c r="E77" s="172"/>
-    </row>
-    <row r="78" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N77" s="248" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="141"/>
       <c r="C78" s="165"/>
       <c r="D78" s="166"/>
@@ -8316,25 +8492,29 @@
       <c r="J78" s="164"/>
       <c r="K78" s="168"/>
       <c r="L78" s="164"/>
-    </row>
-    <row r="79" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N78" s="231"/>
+    </row>
+    <row r="79" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="146"/>
-      <c r="C79" s="201" t="s">
+      <c r="C79" s="330" t="s">
         <v>465</v>
       </c>
-      <c r="D79" s="204"/>
-      <c r="E79" s="205"/>
+      <c r="D79" s="333"/>
+      <c r="E79" s="334"/>
       <c r="F79" s="151"/>
       <c r="G79" s="152"/>
       <c r="H79" s="151"/>
       <c r="I79" s="151"/>
       <c r="J79" s="151"/>
-      <c r="K79" s="196"/>
+      <c r="K79" s="311"/>
       <c r="L79" s="151"/>
-    </row>
-    <row r="80" spans="2:12" ht="18" customHeight="1">
+      <c r="N79" s="249" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="146"/>
-      <c r="C80" s="202"/>
+      <c r="C80" s="331"/>
       <c r="D80" s="134"/>
       <c r="E80" s="135" t="s">
         <v>475</v>
@@ -8344,12 +8524,15 @@
       <c r="H80" s="151"/>
       <c r="I80" s="151"/>
       <c r="J80" s="151"/>
-      <c r="K80" s="197"/>
+      <c r="K80" s="312"/>
       <c r="L80" s="151"/>
-    </row>
-    <row r="81" spans="2:12" ht="18" customHeight="1">
+      <c r="N80" s="250" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="146"/>
-      <c r="C81" s="202"/>
+      <c r="C81" s="331"/>
       <c r="D81" s="136"/>
       <c r="E81" s="137" t="s">
         <v>467</v>
@@ -8359,12 +8542,15 @@
       <c r="H81" s="151"/>
       <c r="I81" s="151"/>
       <c r="J81" s="151"/>
-      <c r="K81" s="197"/>
+      <c r="K81" s="312"/>
       <c r="L81" s="151"/>
-    </row>
-    <row r="82" spans="2:12" ht="18" customHeight="1">
+      <c r="N81" s="251" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="146"/>
-      <c r="C82" s="202"/>
+      <c r="C82" s="331"/>
       <c r="D82" s="136" t="s">
         <v>466</v>
       </c>
@@ -8374,12 +8560,15 @@
       <c r="H82" s="151"/>
       <c r="I82" s="151"/>
       <c r="J82" s="151"/>
-      <c r="K82" s="197"/>
+      <c r="K82" s="312"/>
       <c r="L82" s="151"/>
-    </row>
-    <row r="83" spans="2:12" ht="18" customHeight="1">
+      <c r="N82" s="250" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="146"/>
-      <c r="C83" s="202"/>
+      <c r="C83" s="331"/>
       <c r="D83" s="136"/>
       <c r="E83" s="187" t="s">
         <v>468</v>
@@ -8389,28 +8578,37 @@
       <c r="H83" s="151"/>
       <c r="I83" s="151"/>
       <c r="J83" s="151"/>
-      <c r="K83" s="197"/>
+      <c r="K83" s="312"/>
       <c r="L83" s="151"/>
-    </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C84" s="203"/>
-      <c r="D84" s="199" t="s">
+      <c r="N83" s="251" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="332"/>
+      <c r="D84" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="200"/>
+      <c r="E84" s="300"/>
       <c r="F84" s="151"/>
       <c r="G84" s="152"/>
       <c r="H84" s="151"/>
       <c r="I84" s="151"/>
       <c r="J84" s="151"/>
-      <c r="K84" s="198"/>
+      <c r="K84" s="323"/>
       <c r="L84" s="151"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1">
+      <c r="N84" s="244" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="171"/>
       <c r="E85" s="172"/>
-    </row>
-    <row r="86" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N85" s="281" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="141"/>
       <c r="C86" s="165"/>
       <c r="D86" s="166"/>
@@ -8422,27 +8620,31 @@
       <c r="J86" s="164"/>
       <c r="K86" s="168"/>
       <c r="L86" s="164"/>
-    </row>
-    <row r="87" spans="2:12" ht="18" customHeight="1">
+      <c r="N86" s="244" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="146"/>
-      <c r="C87" s="206" t="s">
+      <c r="C87" s="335" t="s">
         <v>471</v>
       </c>
-      <c r="D87" s="244"/>
-      <c r="E87" s="245"/>
+      <c r="D87" s="338"/>
+      <c r="E87" s="339"/>
       <c r="F87" s="151"/>
       <c r="G87" s="152"/>
       <c r="H87" s="151"/>
       <c r="I87" s="151"/>
       <c r="J87" s="151"/>
-      <c r="K87" s="196"/>
+      <c r="K87" s="311"/>
       <c r="L87" s="151"/>
-    </row>
-    <row r="88" spans="2:12" ht="18" customHeight="1">
+      <c r="N87" s="246"/>
+    </row>
+    <row r="88" spans="2:14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="146"/>
-      <c r="C88" s="207"/>
-      <c r="D88" s="246"/>
-      <c r="E88" s="246" t="s">
+      <c r="C88" s="336"/>
+      <c r="D88" s="191"/>
+      <c r="E88" s="191" t="s">
         <v>478</v>
       </c>
       <c r="F88" s="151"/>
@@ -8450,14 +8652,14 @@
       <c r="H88" s="151"/>
       <c r="I88" s="151"/>
       <c r="J88" s="151"/>
-      <c r="K88" s="197"/>
+      <c r="K88" s="312"/>
       <c r="L88" s="151"/>
     </row>
-    <row r="89" spans="2:12" ht="18" customHeight="1">
+    <row r="89" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="146"/>
-      <c r="C89" s="207"/>
-      <c r="D89" s="246"/>
-      <c r="E89" s="246" t="s">
+      <c r="C89" s="336"/>
+      <c r="D89" s="191"/>
+      <c r="E89" s="191" t="s">
         <v>479</v>
       </c>
       <c r="F89" s="151"/>
@@ -8465,14 +8667,17 @@
       <c r="H89" s="151"/>
       <c r="I89" s="151"/>
       <c r="J89" s="151"/>
-      <c r="K89" s="197"/>
+      <c r="K89" s="312"/>
       <c r="L89" s="151"/>
-    </row>
-    <row r="90" spans="2:12" ht="18" customHeight="1">
+      <c r="N89" s="247" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="146"/>
-      <c r="C90" s="207"/>
-      <c r="D90" s="246"/>
-      <c r="E90" s="246" t="s">
+      <c r="C90" s="336"/>
+      <c r="D90" s="191"/>
+      <c r="E90" s="191" t="s">
         <v>480</v>
       </c>
       <c r="F90" s="151"/>
@@ -8480,14 +8685,17 @@
       <c r="H90" s="151"/>
       <c r="I90" s="151"/>
       <c r="J90" s="151"/>
-      <c r="K90" s="197"/>
+      <c r="K90" s="312"/>
       <c r="L90" s="151"/>
-    </row>
-    <row r="91" spans="2:12" ht="18" customHeight="1">
+      <c r="N90" s="248" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="146"/>
-      <c r="C91" s="207"/>
-      <c r="D91" s="246"/>
-      <c r="E91" s="246" t="s">
+      <c r="C91" s="336"/>
+      <c r="D91" s="191"/>
+      <c r="E91" s="191" t="s">
         <v>481</v>
       </c>
       <c r="F91" s="151"/>
@@ -8495,14 +8703,15 @@
       <c r="H91" s="151"/>
       <c r="I91" s="151"/>
       <c r="J91" s="151"/>
-      <c r="K91" s="197"/>
+      <c r="K91" s="312"/>
       <c r="L91" s="151"/>
-    </row>
-    <row r="92" spans="2:12" ht="18" customHeight="1">
+      <c r="N91" s="231"/>
+    </row>
+    <row r="92" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="146"/>
-      <c r="C92" s="207"/>
-      <c r="D92" s="246"/>
-      <c r="E92" s="246" t="s">
+      <c r="C92" s="336"/>
+      <c r="D92" s="191"/>
+      <c r="E92" s="191" t="s">
         <v>485</v>
       </c>
       <c r="F92" s="151"/>
@@ -8510,29 +8719,35 @@
       <c r="H92" s="151"/>
       <c r="I92" s="151"/>
       <c r="J92" s="151"/>
-      <c r="K92" s="197"/>
+      <c r="K92" s="312"/>
       <c r="L92" s="151"/>
-    </row>
-    <row r="93" spans="2:12" ht="18" customHeight="1">
+      <c r="N92" s="249" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="146"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="246" t="s">
+      <c r="C93" s="336"/>
+      <c r="D93" s="191" t="s">
         <v>482</v>
       </c>
-      <c r="E93" s="246"/>
+      <c r="E93" s="191"/>
       <c r="F93" s="151"/>
       <c r="G93" s="152"/>
       <c r="H93" s="151"/>
       <c r="I93" s="151"/>
       <c r="J93" s="151"/>
-      <c r="K93" s="197"/>
+      <c r="K93" s="312"/>
       <c r="L93" s="151"/>
-    </row>
-    <row r="94" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N93" s="282" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="147"/>
-      <c r="C94" s="207"/>
-      <c r="D94" s="246"/>
-      <c r="E94" s="247" t="s">
+      <c r="C94" s="336"/>
+      <c r="D94" s="191"/>
+      <c r="E94" s="192" t="s">
         <v>486</v>
       </c>
       <c r="F94" s="151"/>
@@ -8540,14 +8755,17 @@
       <c r="H94" s="151"/>
       <c r="I94" s="151"/>
       <c r="J94" s="151"/>
-      <c r="K94" s="197"/>
+      <c r="K94" s="312"/>
       <c r="L94" s="151"/>
-    </row>
-    <row r="95" spans="2:12" ht="18" customHeight="1">
+      <c r="N94" s="251" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="146"/>
-      <c r="C95" s="207"/>
-      <c r="D95" s="246"/>
-      <c r="E95" s="249" t="s">
+      <c r="C95" s="336"/>
+      <c r="D95" s="191"/>
+      <c r="E95" s="194" t="s">
         <v>483</v>
       </c>
       <c r="F95" s="151"/>
@@ -8555,14 +8773,17 @@
       <c r="H95" s="151"/>
       <c r="I95" s="151"/>
       <c r="J95" s="151"/>
-      <c r="K95" s="197"/>
+      <c r="K95" s="312"/>
       <c r="L95" s="151"/>
-    </row>
-    <row r="96" spans="2:12" ht="18" customHeight="1">
+      <c r="N95" s="250" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="146"/>
-      <c r="C96" s="207"/>
-      <c r="D96" s="246"/>
-      <c r="E96" s="247" t="s">
+      <c r="C96" s="336"/>
+      <c r="D96" s="191"/>
+      <c r="E96" s="192" t="s">
         <v>435</v>
       </c>
       <c r="F96" s="151"/>
@@ -8570,14 +8791,17 @@
       <c r="H96" s="151"/>
       <c r="I96" s="151"/>
       <c r="J96" s="151"/>
-      <c r="K96" s="197"/>
+      <c r="K96" s="312"/>
       <c r="L96" s="151"/>
-    </row>
-    <row r="97" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N96" s="251" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="147"/>
-      <c r="C97" s="207"/>
-      <c r="D97" s="246"/>
-      <c r="E97" s="249" t="s">
+      <c r="C97" s="336"/>
+      <c r="D97" s="191"/>
+      <c r="E97" s="194" t="s">
         <v>498</v>
       </c>
       <c r="F97" s="151"/>
@@ -8585,28 +8809,34 @@
       <c r="H97" s="151"/>
       <c r="I97" s="151"/>
       <c r="J97" s="151"/>
-      <c r="K97" s="197"/>
+      <c r="K97" s="312"/>
       <c r="L97" s="151"/>
-    </row>
-    <row r="98" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C98" s="207"/>
-      <c r="D98" s="246" t="s">
+      <c r="N97" s="244" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="336"/>
+      <c r="D98" s="191" t="s">
         <v>484</v>
       </c>
-      <c r="E98" s="246"/>
+      <c r="E98" s="191"/>
       <c r="F98" s="151"/>
       <c r="G98" s="152"/>
       <c r="H98" s="151"/>
       <c r="I98" s="151"/>
       <c r="J98" s="151"/>
-      <c r="K98" s="197"/>
+      <c r="K98" s="312"/>
       <c r="L98" s="151"/>
-    </row>
-    <row r="99" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N98" s="281" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="147"/>
-      <c r="C99" s="207"/>
-      <c r="D99" s="246"/>
-      <c r="E99" s="246" t="s">
+      <c r="C99" s="336"/>
+      <c r="D99" s="191"/>
+      <c r="E99" s="191" t="s">
         <v>487</v>
       </c>
       <c r="F99" s="151"/>
@@ -8614,13 +8844,16 @@
       <c r="H99" s="151"/>
       <c r="I99" s="151"/>
       <c r="J99" s="151"/>
-      <c r="K99" s="197"/>
+      <c r="K99" s="312"/>
       <c r="L99" s="151"/>
-    </row>
-    <row r="100" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C100" s="207"/>
-      <c r="D100" s="246"/>
-      <c r="E100" s="246" t="s">
+      <c r="N99" s="244" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="336"/>
+      <c r="D100" s="191"/>
+      <c r="E100" s="191" t="s">
         <v>488</v>
       </c>
       <c r="F100" s="151"/>
@@ -8628,14 +8861,15 @@
       <c r="H100" s="151"/>
       <c r="I100" s="151"/>
       <c r="J100" s="151"/>
-      <c r="K100" s="197"/>
+      <c r="K100" s="312"/>
       <c r="L100" s="151"/>
-    </row>
-    <row r="101" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N100" s="246"/>
+    </row>
+    <row r="101" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="147"/>
-      <c r="C101" s="207"/>
-      <c r="D101" s="246"/>
-      <c r="E101" s="246" t="s">
+      <c r="C101" s="336"/>
+      <c r="D101" s="191"/>
+      <c r="E101" s="191" t="s">
         <v>489</v>
       </c>
       <c r="F101" s="151"/>
@@ -8643,28 +8877,31 @@
       <c r="H101" s="151"/>
       <c r="I101" s="151"/>
       <c r="J101" s="151"/>
-      <c r="K101" s="197"/>
+      <c r="K101" s="312"/>
       <c r="L101" s="151"/>
     </row>
-    <row r="102" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C102" s="207"/>
-      <c r="D102" s="246" t="s">
+    <row r="102" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="336"/>
+      <c r="D102" s="191" t="s">
         <v>490</v>
       </c>
-      <c r="E102" s="246"/>
+      <c r="E102" s="191"/>
       <c r="F102" s="151"/>
       <c r="G102" s="152"/>
       <c r="H102" s="151"/>
       <c r="I102" s="151"/>
       <c r="J102" s="151"/>
-      <c r="K102" s="197"/>
+      <c r="K102" s="312"/>
       <c r="L102" s="151"/>
-    </row>
-    <row r="103" spans="2:12" ht="18" customHeight="1">
+      <c r="N102" s="247" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="146"/>
-      <c r="C103" s="207"/>
-      <c r="D103" s="246"/>
-      <c r="E103" s="246" t="s">
+      <c r="C103" s="336"/>
+      <c r="D103" s="191"/>
+      <c r="E103" s="191" t="s">
         <v>491</v>
       </c>
       <c r="F103" s="151"/>
@@ -8672,14 +8909,17 @@
       <c r="H103" s="151"/>
       <c r="I103" s="151"/>
       <c r="J103" s="151"/>
-      <c r="K103" s="197"/>
+      <c r="K103" s="312"/>
       <c r="L103" s="151"/>
-    </row>
-    <row r="104" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N103" s="248" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="147"/>
-      <c r="C104" s="207"/>
-      <c r="D104" s="246"/>
-      <c r="E104" s="247" t="s">
+      <c r="C104" s="336"/>
+      <c r="D104" s="191"/>
+      <c r="E104" s="192" t="s">
         <v>492</v>
       </c>
       <c r="F104" s="151"/>
@@ -8687,13 +8927,14 @@
       <c r="H104" s="151"/>
       <c r="I104" s="151"/>
       <c r="J104" s="151"/>
-      <c r="K104" s="197"/>
+      <c r="K104" s="312"/>
       <c r="L104" s="151"/>
-    </row>
-    <row r="105" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C105" s="207"/>
-      <c r="D105" s="246"/>
-      <c r="E105" s="247" t="s">
+      <c r="N104" s="231"/>
+    </row>
+    <row r="105" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="336"/>
+      <c r="D105" s="191"/>
+      <c r="E105" s="192" t="s">
         <v>493</v>
       </c>
       <c r="F105" s="151"/>
@@ -8701,13 +8942,16 @@
       <c r="H105" s="151"/>
       <c r="I105" s="151"/>
       <c r="J105" s="151"/>
-      <c r="K105" s="197"/>
+      <c r="K105" s="312"/>
       <c r="L105" s="151"/>
-    </row>
-    <row r="106" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C106" s="207"/>
-      <c r="D106" s="246"/>
-      <c r="E106" s="247" t="s">
+      <c r="N105" s="249" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="336"/>
+      <c r="D106" s="191"/>
+      <c r="E106" s="192" t="s">
         <v>496</v>
       </c>
       <c r="F106" s="151"/>
@@ -8715,14 +8959,17 @@
       <c r="H106" s="151"/>
       <c r="I106" s="151"/>
       <c r="J106" s="151"/>
-      <c r="K106" s="197"/>
+      <c r="K106" s="312"/>
       <c r="L106" s="151"/>
-    </row>
-    <row r="107" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N106" s="250" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="147"/>
-      <c r="C107" s="207"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="246" t="s">
+      <c r="C107" s="336"/>
+      <c r="D107" s="191"/>
+      <c r="E107" s="191" t="s">
         <v>494</v>
       </c>
       <c r="F107" s="151"/>
@@ -8730,13 +8977,16 @@
       <c r="H107" s="151"/>
       <c r="I107" s="151"/>
       <c r="J107" s="151"/>
-      <c r="K107" s="197"/>
+      <c r="K107" s="312"/>
       <c r="L107" s="151"/>
-    </row>
-    <row r="108" spans="2:12" ht="15.75" customHeight="1">
-      <c r="C108" s="207"/>
-      <c r="D108" s="246"/>
-      <c r="E108" s="247" t="s">
+      <c r="N107" s="251" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="336"/>
+      <c r="D108" s="191"/>
+      <c r="E108" s="192" t="s">
         <v>495</v>
       </c>
       <c r="F108" s="151"/>
@@ -8744,13 +8994,16 @@
       <c r="H108" s="151"/>
       <c r="I108" s="151"/>
       <c r="J108" s="151"/>
-      <c r="K108" s="197"/>
+      <c r="K108" s="312"/>
       <c r="L108" s="151"/>
-    </row>
-    <row r="109" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C109" s="207"/>
-      <c r="D109" s="246"/>
-      <c r="E109" s="248" t="s">
+      <c r="N108" s="282" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="336"/>
+      <c r="D109" s="191"/>
+      <c r="E109" s="193" t="s">
         <v>497</v>
       </c>
       <c r="F109" s="151"/>
@@ -8758,28 +9011,33 @@
       <c r="H109" s="151"/>
       <c r="I109" s="151"/>
       <c r="J109" s="151"/>
-      <c r="K109" s="197"/>
+      <c r="K109" s="312"/>
       <c r="L109" s="151"/>
-    </row>
-    <row r="110" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C110" s="208"/>
-      <c r="D110" s="199" t="s">
+      <c r="N109" s="251"/>
+    </row>
+    <row r="110" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="337"/>
+      <c r="D110" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="E110" s="200"/>
+      <c r="E110" s="300"/>
       <c r="F110" s="151"/>
       <c r="G110" s="152"/>
       <c r="H110" s="151"/>
       <c r="I110" s="151"/>
       <c r="J110" s="151"/>
-      <c r="K110" s="198"/>
+      <c r="K110" s="323"/>
       <c r="L110" s="151"/>
-    </row>
-    <row r="111" spans="2:12" ht="15.75" customHeight="1">
+      <c r="N110" s="244"/>
+    </row>
+    <row r="111" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" s="171"/>
       <c r="E111" s="172"/>
-    </row>
-    <row r="112" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N111" s="281" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="141"/>
       <c r="C112" s="165"/>
       <c r="D112" s="166"/>
@@ -8791,25 +9049,29 @@
       <c r="J112" s="164"/>
       <c r="K112" s="168"/>
       <c r="L112" s="164"/>
-    </row>
-    <row r="113" spans="2:12" ht="18" customHeight="1" thickBot="1">
+      <c r="N112" s="244" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B113" s="146"/>
-      <c r="C113" s="250" t="s">
+      <c r="C113" s="195" t="s">
         <v>499</v>
       </c>
-      <c r="D113" s="194"/>
-      <c r="E113" s="195"/>
+      <c r="D113" s="328"/>
+      <c r="E113" s="329"/>
       <c r="F113" s="151"/>
       <c r="G113" s="152"/>
       <c r="H113" s="151"/>
       <c r="I113" s="151"/>
       <c r="J113" s="151"/>
-      <c r="K113" s="196"/>
+      <c r="K113" s="311"/>
       <c r="L113" s="151"/>
-    </row>
-    <row r="114" spans="2:12" ht="18" customHeight="1">
+      <c r="N113" s="246"/>
+    </row>
+    <row r="114" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="146"/>
-      <c r="C114" s="251" t="s">
+      <c r="C114" s="196" t="s">
         <v>501</v>
       </c>
       <c r="D114" s="134"/>
@@ -8821,29 +9083,32 @@
       <c r="H114" s="151"/>
       <c r="I114" s="151"/>
       <c r="J114" s="151"/>
-      <c r="K114" s="197"/>
+      <c r="K114" s="312"/>
       <c r="L114" s="151"/>
     </row>
-    <row r="115" spans="2:12" ht="18" customHeight="1">
+    <row r="115" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="146"/>
-      <c r="C115" s="251" t="s">
+      <c r="C115" s="196" t="s">
         <v>500</v>
       </c>
       <c r="D115" s="136"/>
-      <c r="E115" s="344" t="s">
-        <v>595</v>
+      <c r="E115" s="280" t="s">
+        <v>589</v>
       </c>
       <c r="F115" s="151"/>
       <c r="G115" s="152"/>
       <c r="H115" s="151"/>
       <c r="I115" s="151"/>
       <c r="J115" s="151"/>
-      <c r="K115" s="197"/>
+      <c r="K115" s="312"/>
       <c r="L115" s="151"/>
-    </row>
-    <row r="116" spans="2:12" ht="18" customHeight="1">
+      <c r="N115" s="247" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="146"/>
-      <c r="C116" s="251" t="s">
+      <c r="C116" s="196" t="s">
         <v>502</v>
       </c>
       <c r="D116" s="136"/>
@@ -8855,12 +9120,15 @@
       <c r="H116" s="151"/>
       <c r="I116" s="151"/>
       <c r="J116" s="151"/>
-      <c r="K116" s="197"/>
+      <c r="K116" s="312"/>
       <c r="L116" s="151"/>
-    </row>
-    <row r="117" spans="2:12" ht="18" customHeight="1">
+      <c r="N116" s="248" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="146"/>
-      <c r="C117" s="251" t="s">
+      <c r="C117" s="196" t="s">
         <v>503</v>
       </c>
       <c r="D117" s="136"/>
@@ -8872,12 +9140,13 @@
       <c r="H117" s="151"/>
       <c r="I117" s="151"/>
       <c r="J117" s="151"/>
-      <c r="K117" s="197"/>
+      <c r="K117" s="312"/>
       <c r="L117" s="151"/>
-    </row>
-    <row r="118" spans="2:12" ht="18" customHeight="1">
+      <c r="N117" s="231"/>
+    </row>
+    <row r="118" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="146"/>
-      <c r="C118" s="251" t="s">
+      <c r="C118" s="196" t="s">
         <v>504</v>
       </c>
       <c r="D118" s="136"/>
@@ -8887,12 +9156,15 @@
       <c r="H118" s="151"/>
       <c r="I118" s="151"/>
       <c r="J118" s="151"/>
-      <c r="K118" s="197"/>
+      <c r="K118" s="312"/>
       <c r="L118" s="151"/>
-    </row>
-    <row r="119" spans="2:12" ht="18" customHeight="1">
+      <c r="N118" s="249" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="146"/>
-      <c r="C119" s="251" t="s">
+      <c r="C119" s="196" t="s">
         <v>505</v>
       </c>
       <c r="D119" s="136"/>
@@ -8902,12 +9174,15 @@
       <c r="H119" s="151"/>
       <c r="I119" s="151"/>
       <c r="J119" s="151"/>
-      <c r="K119" s="197"/>
+      <c r="K119" s="312"/>
       <c r="L119" s="151"/>
-    </row>
-    <row r="120" spans="2:12" ht="18" customHeight="1">
+      <c r="N119" s="282" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="146"/>
-      <c r="C120" s="251" t="s">
+      <c r="C120" s="196" t="s">
         <v>506</v>
       </c>
       <c r="D120" s="136"/>
@@ -8917,12 +9192,15 @@
       <c r="H120" s="151"/>
       <c r="I120" s="151"/>
       <c r="J120" s="151"/>
-      <c r="K120" s="197"/>
+      <c r="K120" s="312"/>
       <c r="L120" s="151"/>
-    </row>
-    <row r="121" spans="2:12" ht="18" customHeight="1">
+      <c r="N120" s="251" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="146"/>
-      <c r="C121" s="251" t="s">
+      <c r="C121" s="196" t="s">
         <v>507</v>
       </c>
       <c r="D121" s="136"/>
@@ -8932,12 +9210,15 @@
       <c r="H121" s="151"/>
       <c r="I121" s="151"/>
       <c r="J121" s="151"/>
-      <c r="K121" s="197"/>
+      <c r="K121" s="312"/>
       <c r="L121" s="151"/>
-    </row>
-    <row r="122" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N121" s="250" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="147"/>
-      <c r="C122" s="251"/>
+      <c r="C122" s="196"/>
       <c r="D122" s="136"/>
       <c r="E122" s="132"/>
       <c r="F122" s="151"/>
@@ -8945,12 +9226,15 @@
       <c r="H122" s="151"/>
       <c r="I122" s="151"/>
       <c r="J122" s="151"/>
-      <c r="K122" s="197"/>
+      <c r="K122" s="312"/>
       <c r="L122" s="151"/>
-    </row>
-    <row r="123" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N122" s="251" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="147"/>
-      <c r="C123" s="251"/>
+      <c r="C123" s="196"/>
       <c r="D123" s="136"/>
       <c r="E123" s="132"/>
       <c r="F123" s="151"/>
@@ -8958,12 +9242,15 @@
       <c r="H123" s="151"/>
       <c r="I123" s="151"/>
       <c r="J123" s="151"/>
-      <c r="K123" s="197"/>
+      <c r="K123" s="312"/>
       <c r="L123" s="151"/>
-    </row>
-    <row r="124" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
+      <c r="N123" s="244" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="147"/>
-      <c r="C124" s="251"/>
+      <c r="C124" s="196"/>
       <c r="D124" s="136"/>
       <c r="E124" s="132"/>
       <c r="F124" s="151"/>
@@ -8971,12 +9258,15 @@
       <c r="H124" s="151"/>
       <c r="I124" s="151"/>
       <c r="J124" s="151"/>
-      <c r="K124" s="197"/>
+      <c r="K124" s="312"/>
       <c r="L124" s="151"/>
-    </row>
-    <row r="125" spans="2:12" ht="18" customHeight="1">
+      <c r="N124" s="281" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="146"/>
-      <c r="C125" s="251"/>
+      <c r="C125" s="196"/>
       <c r="D125" s="136"/>
       <c r="E125" s="132"/>
       <c r="F125" s="151"/>
@@ -8984,11 +9274,14 @@
       <c r="H125" s="151"/>
       <c r="I125" s="151"/>
       <c r="J125" s="151"/>
-      <c r="K125" s="197"/>
+      <c r="K125" s="312"/>
       <c r="L125" s="151"/>
-    </row>
-    <row r="126" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C126" s="251"/>
+      <c r="N125" s="244" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="196"/>
       <c r="D126" s="138"/>
       <c r="E126" s="133"/>
       <c r="F126" s="151"/>
@@ -8996,1817 +9289,925 @@
       <c r="H126" s="151"/>
       <c r="I126" s="151"/>
       <c r="J126" s="151"/>
-      <c r="K126" s="197"/>
+      <c r="K126" s="312"/>
       <c r="L126" s="151"/>
-    </row>
-    <row r="127" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C127" s="252"/>
-      <c r="D127" s="199" t="s">
+      <c r="N126" s="246"/>
+    </row>
+    <row r="127" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="197"/>
+      <c r="D127" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="E127" s="200"/>
+      <c r="E127" s="300"/>
       <c r="F127" s="151"/>
       <c r="G127" s="152"/>
       <c r="H127" s="151"/>
       <c r="I127" s="151"/>
       <c r="J127" s="151"/>
-      <c r="K127" s="198"/>
+      <c r="K127" s="323"/>
       <c r="L127" s="151"/>
-    </row>
-    <row r="128" spans="2:12" ht="15.75" customHeight="1">
+      <c r="N127" s="144"/>
+    </row>
+    <row r="128" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="171"/>
       <c r="E128" s="172"/>
-    </row>
-    <row r="129" spans="3:9" s="131" customFormat="1" thickBot="1">
+      <c r="N128" s="247" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="129" spans="3:14" s="131" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D129" s="114"/>
-      <c r="E129" s="253"/>
+      <c r="E129" s="198"/>
       <c r="F129" s="114"/>
       <c r="G129" s="114"/>
       <c r="H129" s="114"/>
-      <c r="I129" s="254"/>
-    </row>
-    <row r="130" spans="3:9" s="131" customFormat="1" ht="19.5" thickBot="1">
-      <c r="C130" s="255" t="s">
+      <c r="I129" s="199"/>
+      <c r="N129" s="248" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14" s="131" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="200" t="s">
         <v>511</v>
       </c>
-      <c r="D130" s="256" t="s">
+      <c r="D130" s="201" t="s">
         <v>512</v>
       </c>
-      <c r="E130" s="257"/>
+      <c r="E130" s="202"/>
       <c r="F130" s="114"/>
       <c r="G130" s="114"/>
       <c r="H130" s="114"/>
-      <c r="I130" s="254"/>
-    </row>
-    <row r="131" spans="3:9" s="131" customFormat="1">
-      <c r="C131" s="258"/>
-      <c r="D131" s="259"/>
-      <c r="E131" s="260"/>
+      <c r="I130" s="199"/>
+      <c r="N130" s="231"/>
+    </row>
+    <row r="131" spans="3:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="203"/>
+      <c r="D131" s="204"/>
+      <c r="E131" s="205"/>
       <c r="F131" s="114"/>
       <c r="G131" s="114"/>
       <c r="H131" s="114"/>
-      <c r="I131" s="254"/>
-    </row>
-    <row r="132" spans="3:9" s="131" customFormat="1" ht="18.75">
-      <c r="C132" s="258"/>
-      <c r="D132" s="261"/>
-      <c r="E132" s="262" t="s">
+      <c r="I131" s="199"/>
+      <c r="N131" s="249" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="132" spans="3:14" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C132" s="203"/>
+      <c r="D132" s="206"/>
+      <c r="E132" s="207" t="s">
         <v>513</v>
       </c>
       <c r="F132" s="114"/>
       <c r="G132" s="114"/>
       <c r="H132" s="114"/>
-      <c r="I132" s="254"/>
-    </row>
-    <row r="133" spans="3:9" s="131" customFormat="1" ht="18.75">
-      <c r="C133" s="258"/>
-      <c r="D133" s="259"/>
-      <c r="E133" s="263" t="s">
+      <c r="I132" s="199"/>
+      <c r="N132" s="250" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C133" s="203"/>
+      <c r="D133" s="204"/>
+      <c r="E133" s="208" t="s">
         <v>514</v>
       </c>
       <c r="F133" s="114"/>
       <c r="G133" s="114"/>
       <c r="H133" s="114"/>
-      <c r="I133" s="254"/>
-    </row>
-    <row r="134" spans="3:9" s="131" customFormat="1">
-      <c r="C134" s="258"/>
-      <c r="D134" s="259"/>
-      <c r="E134" s="264"/>
+      <c r="I133" s="199"/>
+      <c r="N133" s="251" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="203"/>
+      <c r="D134" s="204"/>
+      <c r="E134" s="209"/>
       <c r="F134" s="114"/>
       <c r="G134" s="114"/>
       <c r="H134" s="114"/>
-      <c r="I134" s="254"/>
-    </row>
-    <row r="135" spans="3:9" s="131" customFormat="1">
-      <c r="D135" s="259"/>
-      <c r="E135" s="265" t="s">
+      <c r="I134" s="199"/>
+      <c r="N134" s="250" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="135" spans="3:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D135" s="204"/>
+      <c r="E135" s="210" t="s">
         <v>515</v>
       </c>
       <c r="F135" s="114"/>
-      <c r="G135" s="266"/>
+      <c r="G135" s="211"/>
       <c r="H135" s="114"/>
-      <c r="I135" s="254"/>
-    </row>
-    <row r="136" spans="3:9" s="131" customFormat="1" ht="15">
-      <c r="D136" s="259"/>
-      <c r="E136" s="267" t="s">
-        <v>592</v>
+      <c r="I135" s="199"/>
+      <c r="N135" s="251" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="136" spans="3:14" s="131" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D136" s="204"/>
+      <c r="E136" s="212" t="s">
+        <v>586</v>
       </c>
       <c r="F136" s="114"/>
-      <c r="G136" s="266"/>
+      <c r="G136" s="211"/>
       <c r="H136" s="114"/>
-      <c r="I136" s="254"/>
-    </row>
-    <row r="137" spans="3:9" s="131" customFormat="1" ht="15">
-      <c r="D137" s="259"/>
-      <c r="E137" s="268"/>
+      <c r="I136" s="199"/>
+      <c r="N136" s="244" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="137" spans="3:14" s="131" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D137" s="204"/>
+      <c r="E137" s="213"/>
       <c r="F137" s="114"/>
       <c r="G137" s="114"/>
       <c r="H137" s="114"/>
-      <c r="I137" s="254"/>
-    </row>
-    <row r="138" spans="3:9" s="131" customFormat="1">
-      <c r="D138" s="259"/>
-      <c r="E138" s="265" t="s">
+      <c r="I137" s="199"/>
+      <c r="N137" s="281" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="138" spans="3:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="204"/>
+      <c r="E138" s="210" t="s">
         <v>516</v>
       </c>
       <c r="F138" s="114"/>
-      <c r="G138" s="266"/>
+      <c r="G138" s="211"/>
       <c r="H138" s="114"/>
-      <c r="I138" s="254"/>
-    </row>
-    <row r="139" spans="3:9" s="131" customFormat="1" ht="15">
-      <c r="D139" s="259"/>
-      <c r="E139" s="267" t="s">
+      <c r="I138" s="199"/>
+      <c r="N138" s="244" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="139" spans="3:14" s="131" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D139" s="204"/>
+      <c r="E139" s="212" t="s">
         <v>517</v>
       </c>
       <c r="F139" s="114"/>
-      <c r="G139" s="266"/>
+      <c r="G139" s="211"/>
       <c r="H139" s="114"/>
-    </row>
-    <row r="140" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D140" s="259"/>
-      <c r="E140" s="264"/>
+      <c r="N139" s="246"/>
+    </row>
+    <row r="140" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="204"/>
+      <c r="E140" s="209"/>
       <c r="F140" s="114"/>
       <c r="G140" s="114"/>
       <c r="H140" s="114"/>
-      <c r="I140" s="254" t="s">
+      <c r="I140" s="199" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="141" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D141" s="259"/>
-      <c r="E141" s="269" t="s">
+    <row r="141" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D141" s="204"/>
+      <c r="E141" s="214" t="s">
         <v>519</v>
       </c>
       <c r="F141" s="114"/>
-      <c r="G141" s="270"/>
+      <c r="G141" s="215"/>
       <c r="H141" s="114"/>
-      <c r="I141" s="254"/>
-    </row>
-    <row r="142" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D142" s="271" t="s">
+      <c r="I141" s="199"/>
+    </row>
+    <row r="142" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="216" t="s">
         <v>520</v>
       </c>
-      <c r="E142" s="272"/>
+      <c r="E142" s="217"/>
       <c r="F142" s="114"/>
-      <c r="G142" s="270"/>
+      <c r="G142" s="215"/>
       <c r="H142" s="114"/>
-      <c r="I142" s="254"/>
-    </row>
-    <row r="143" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D143" s="259"/>
-      <c r="E143" s="273" t="s">
+      <c r="I142" s="199"/>
+    </row>
+    <row r="143" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D143" s="204"/>
+      <c r="E143" s="218" t="s">
         <v>521</v>
       </c>
       <c r="F143" s="114"/>
-      <c r="G143" s="270"/>
+      <c r="G143" s="215"/>
       <c r="H143" s="114"/>
-      <c r="I143" s="254"/>
-    </row>
-    <row r="144" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D144" s="259"/>
-      <c r="E144" s="274" t="s">
+      <c r="I143" s="199"/>
+    </row>
+    <row r="144" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="204"/>
+      <c r="E144" s="219" t="s">
         <v>522</v>
       </c>
       <c r="F144" s="114"/>
-      <c r="G144" s="270"/>
+      <c r="G144" s="215"/>
       <c r="H144" s="114"/>
-      <c r="I144" s="254"/>
-    </row>
-    <row r="145" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D145" s="275"/>
-      <c r="E145" s="276" t="s">
+      <c r="I144" s="199"/>
+    </row>
+    <row r="145" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D145" s="220"/>
+      <c r="E145" s="221" t="s">
         <v>523</v>
       </c>
       <c r="F145" s="114"/>
-      <c r="G145" s="270"/>
+      <c r="G145" s="215"/>
       <c r="H145" s="114"/>
-      <c r="I145" s="254"/>
-    </row>
-    <row r="146" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D146" s="275"/>
-      <c r="E146" s="277" t="s">
-        <v>596</v>
+      <c r="I145" s="199"/>
+    </row>
+    <row r="146" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="220"/>
+      <c r="E146" s="222" t="s">
+        <v>590</v>
       </c>
       <c r="F146" s="114"/>
-      <c r="G146" s="270"/>
+      <c r="G146" s="215"/>
       <c r="H146" s="114"/>
-      <c r="I146" s="254"/>
-    </row>
-    <row r="147" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D147" s="278"/>
-      <c r="E147" s="279"/>
+      <c r="I146" s="199"/>
+    </row>
+    <row r="147" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D147" s="223"/>
+      <c r="E147" s="224"/>
       <c r="F147" s="114"/>
       <c r="G147" s="114"/>
       <c r="H147" s="114"/>
-      <c r="I147" s="254"/>
-    </row>
-    <row r="148" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D148" s="278"/>
-      <c r="E148" s="269" t="s">
-        <v>597</v>
+      <c r="I147" s="199"/>
+    </row>
+    <row r="148" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="223"/>
+      <c r="E148" s="214" t="s">
+        <v>591</v>
       </c>
       <c r="F148" s="114"/>
-      <c r="G148" s="270"/>
+      <c r="G148" s="215"/>
       <c r="H148" s="114"/>
-      <c r="I148" s="254"/>
-    </row>
-    <row r="149" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D149" s="278"/>
-      <c r="E149" s="280" t="s">
+      <c r="I148" s="199"/>
+    </row>
+    <row r="149" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D149" s="223"/>
+      <c r="E149" s="225" t="s">
         <v>524</v>
       </c>
       <c r="F149" s="114"/>
-      <c r="G149" s="270"/>
+      <c r="G149" s="215"/>
       <c r="H149" s="114"/>
-      <c r="I149" s="254"/>
-    </row>
-    <row r="150" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D150" s="278"/>
-      <c r="E150" s="281" t="s">
+      <c r="I149" s="199"/>
+    </row>
+    <row r="150" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="223"/>
+      <c r="E150" s="226" t="s">
         <v>525</v>
       </c>
       <c r="F150" s="114"/>
-      <c r="G150" s="270"/>
+      <c r="G150" s="215"/>
       <c r="H150" s="114"/>
-      <c r="I150" s="254"/>
-    </row>
-    <row r="151" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C151" s="254"/>
-      <c r="D151" s="282" t="s">
+      <c r="I150" s="199"/>
+    </row>
+    <row r="151" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="199"/>
+      <c r="D151" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="E151" s="283"/>
+      <c r="E151" s="309"/>
       <c r="F151" s="114"/>
       <c r="G151" s="114"/>
       <c r="H151" s="114"/>
-      <c r="I151" s="254"/>
-    </row>
-    <row r="152" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D152" s="254"/>
-      <c r="I152" s="254"/>
-    </row>
-    <row r="153" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D153" s="254"/>
-      <c r="I153" s="254"/>
-    </row>
-    <row r="154" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C154" s="284" t="s">
+      <c r="I151" s="199"/>
+    </row>
+    <row r="152" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D152" s="199"/>
+      <c r="I152" s="199"/>
+    </row>
+    <row r="153" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="199"/>
+      <c r="I153" s="199"/>
+    </row>
+    <row r="154" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="227" t="s">
         <v>526</v>
       </c>
-      <c r="D154" s="285"/>
-      <c r="E154" s="286" t="s">
+      <c r="D154" s="228"/>
+      <c r="E154" s="229" t="s">
         <v>527</v>
       </c>
       <c r="F154" s="114"/>
       <c r="G154" s="114"/>
       <c r="H154" s="114"/>
     </row>
-    <row r="155" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D155" s="259"/>
-      <c r="E155" s="260" t="s">
+    <row r="155" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D155" s="204"/>
+      <c r="E155" s="205" t="s">
         <v>528</v>
       </c>
       <c r="F155" s="114"/>
       <c r="G155" s="114"/>
       <c r="H155" s="114"/>
-      <c r="I155" s="254"/>
-    </row>
-    <row r="156" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D156" s="261"/>
-      <c r="E156" s="287" t="s">
+      <c r="I155" s="199"/>
+    </row>
+    <row r="156" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D156" s="206"/>
+      <c r="E156" s="230" t="s">
         <v>529</v>
       </c>
       <c r="F156" s="114"/>
       <c r="G156" s="114"/>
       <c r="H156" s="114"/>
-      <c r="I156" s="254"/>
-    </row>
-    <row r="157" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D157" s="261"/>
-      <c r="E157" s="288" t="s">
-        <v>598</v>
+      <c r="I156" s="199"/>
+    </row>
+    <row r="157" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D157" s="206"/>
+      <c r="E157" s="231" t="s">
+        <v>592</v>
       </c>
       <c r="F157" s="114"/>
       <c r="G157" s="114"/>
       <c r="H157" s="114"/>
-      <c r="I157" s="254" t="s">
+      <c r="I157" s="199" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="158" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D158" s="289" t="s">
+    <row r="158" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="E158" s="290"/>
+      <c r="E158" s="302"/>
       <c r="F158" s="114"/>
       <c r="G158" s="114"/>
       <c r="H158" s="114"/>
-      <c r="I158" s="254"/>
-    </row>
-    <row r="159" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I158" s="199"/>
+    </row>
+    <row r="159" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D159" s="114"/>
-      <c r="E159" s="253"/>
+      <c r="E159" s="198"/>
       <c r="F159" s="114"/>
       <c r="G159" s="114"/>
       <c r="H159" s="114"/>
-      <c r="I159" s="254"/>
-    </row>
-    <row r="160" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I160" s="254"/>
-    </row>
-    <row r="161" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C161" s="291" t="s">
+      <c r="I159" s="199"/>
+    </row>
+    <row r="160" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I160" s="199"/>
+    </row>
+    <row r="161" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="232" t="s">
         <v>531</v>
       </c>
-      <c r="D161" s="285"/>
-      <c r="E161" s="292" t="s">
+      <c r="D161" s="228"/>
+      <c r="E161" s="233" t="s">
         <v>532</v>
       </c>
-      <c r="G161" s="293"/>
-      <c r="I161" s="254" t="s">
+      <c r="G161" s="234"/>
+      <c r="I161" s="199" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="162" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C162" s="294"/>
-      <c r="D162" s="295"/>
-      <c r="E162" s="296" t="s">
+    <row r="162" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="235"/>
+      <c r="D162" s="236"/>
+      <c r="E162" s="237" t="s">
         <v>534</v>
       </c>
-      <c r="G162" s="293"/>
-      <c r="I162" s="254"/>
-    </row>
-    <row r="163" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D163" s="259"/>
-      <c r="E163" s="297" t="s">
+      <c r="G162" s="234"/>
+      <c r="I162" s="199"/>
+    </row>
+    <row r="163" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="204"/>
+      <c r="E163" s="238" t="s">
         <v>535</v>
       </c>
-      <c r="G163" s="293"/>
-      <c r="I163" s="254"/>
-    </row>
-    <row r="164" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D164" s="259"/>
-      <c r="E164" s="298" t="s">
+      <c r="G163" s="234"/>
+      <c r="I163" s="199"/>
+    </row>
+    <row r="164" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D164" s="204"/>
+      <c r="E164" s="239" t="s">
         <v>536</v>
       </c>
-      <c r="G164" s="293"/>
-      <c r="I164" s="254"/>
-    </row>
-    <row r="165" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D165" s="289" t="s">
+      <c r="G164" s="234"/>
+      <c r="I164" s="199"/>
+    </row>
+    <row r="165" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="E165" s="299"/>
-      <c r="I165" s="254"/>
-    </row>
-    <row r="166" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I166" s="254"/>
-    </row>
-    <row r="167" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I167" s="254"/>
-    </row>
-    <row r="168" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C168" s="300" t="s">
+      <c r="E165" s="310"/>
+      <c r="I165" s="199"/>
+    </row>
+    <row r="166" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I166" s="199"/>
+    </row>
+    <row r="167" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I167" s="199"/>
+    </row>
+    <row r="168" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="240" t="s">
         <v>537</v>
       </c>
-      <c r="D168" s="301"/>
-      <c r="E168" s="302" t="s">
-        <v>538</v>
-      </c>
-      <c r="I168" s="254"/>
-    </row>
-    <row r="169" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C169" s="294"/>
-      <c r="D169" s="303"/>
-      <c r="E169" s="304" t="s">
-        <v>539</v>
-      </c>
-      <c r="I169" s="254"/>
-    </row>
-    <row r="170" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C170" s="294"/>
-      <c r="D170" s="303"/>
-      <c r="E170" s="305" t="s">
-        <v>540</v>
-      </c>
-      <c r="I170" s="254"/>
-    </row>
-    <row r="171" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D171" s="306"/>
-      <c r="E171" s="304" t="s">
-        <v>541</v>
-      </c>
-      <c r="I171" s="254"/>
-    </row>
-    <row r="172" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D172" s="306"/>
-      <c r="E172" s="305" t="s">
-        <v>540</v>
-      </c>
-      <c r="I172" s="254"/>
-    </row>
-    <row r="173" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D173" s="306"/>
-      <c r="E173" s="304" t="s">
-        <v>542</v>
-      </c>
-      <c r="I173" s="254"/>
-    </row>
-    <row r="174" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D174" s="306"/>
-      <c r="E174" s="305" t="s">
-        <v>540</v>
-      </c>
-      <c r="I174" s="116"/>
-    </row>
-    <row r="175" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D175" s="306"/>
-      <c r="E175" s="288"/>
-      <c r="I175" s="116"/>
-    </row>
-    <row r="176" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D176" s="307" t="s">
+      <c r="D168" s="241"/>
+      <c r="E168" s="349" t="s">
+        <v>621</v>
+      </c>
+      <c r="I168" s="199"/>
+    </row>
+    <row r="169" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="235"/>
+      <c r="D169" s="242"/>
+      <c r="E169" s="243" t="s">
+        <v>622</v>
+      </c>
+      <c r="I169" s="199"/>
+    </row>
+    <row r="170" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D170" s="303" t="s">
         <v>75</v>
       </c>
-      <c r="E176" s="308"/>
-      <c r="I176" s="116"/>
-    </row>
-    <row r="177" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I177" s="116"/>
-    </row>
-    <row r="178" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I178" s="254"/>
-    </row>
-    <row r="179" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C179" s="309" t="s">
-        <v>593</v>
-      </c>
-      <c r="D179" s="301"/>
-      <c r="E179" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I179" s="254"/>
-    </row>
-    <row r="180" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C180" s="258"/>
-      <c r="D180" s="303"/>
-      <c r="E180" s="288"/>
-      <c r="I180" s="254"/>
-    </row>
-    <row r="181" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C181" s="116"/>
-      <c r="D181" s="303"/>
-      <c r="E181" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I181" s="254"/>
-    </row>
-    <row r="182" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C182" s="116"/>
-      <c r="D182" s="306"/>
-      <c r="E182" s="312" t="s">
-        <v>545</v>
-      </c>
-      <c r="I182" s="254"/>
-    </row>
-    <row r="183" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C183" s="116"/>
-      <c r="D183" s="306"/>
-      <c r="E183" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I183" s="254"/>
-    </row>
-    <row r="184" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D184" s="306"/>
-      <c r="E184" s="312" t="s">
-        <v>547</v>
-      </c>
-      <c r="I184" s="254"/>
-    </row>
-    <row r="185" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D185" s="306"/>
-      <c r="E185" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I185" s="254"/>
-    </row>
-    <row r="186" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D186" s="306"/>
-      <c r="E186" s="312" t="s">
-        <v>549</v>
-      </c>
-      <c r="I186" s="254"/>
-    </row>
-    <row r="187" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D187" s="314"/>
-      <c r="E187" s="345" t="s">
-        <v>599</v>
-      </c>
-      <c r="I187" s="254"/>
-    </row>
-    <row r="188" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D188" s="314"/>
-      <c r="E188" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I188" s="254"/>
-    </row>
-    <row r="189" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D189" s="307" t="s">
+      <c r="E170" s="304"/>
+      <c r="I170" s="116"/>
+    </row>
+    <row r="171" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I171" s="116"/>
+    </row>
+    <row r="172" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="252" t="s">
+        <v>554</v>
+      </c>
+      <c r="D172" s="253"/>
+      <c r="E172" s="254" t="s">
+        <v>555</v>
+      </c>
+      <c r="G172" s="234"/>
+      <c r="I172" s="199"/>
+    </row>
+    <row r="173" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="235"/>
+      <c r="D173" s="255"/>
+      <c r="E173" s="256" t="s">
+        <v>556</v>
+      </c>
+      <c r="G173" s="234"/>
+      <c r="I173" s="199"/>
+    </row>
+    <row r="174" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D174" s="206"/>
+      <c r="E174" s="257" t="s">
+        <v>557</v>
+      </c>
+      <c r="F174" s="258"/>
+      <c r="G174" s="234"/>
+      <c r="I174" s="199"/>
+    </row>
+    <row r="175" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D175" s="206"/>
+      <c r="E175" s="259" t="s">
+        <v>558</v>
+      </c>
+      <c r="F175" s="258"/>
+      <c r="G175" s="234"/>
+      <c r="I175" s="199"/>
+    </row>
+    <row r="176" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D176" s="206"/>
+      <c r="E176" s="256" t="s">
+        <v>559</v>
+      </c>
+      <c r="F176" s="258"/>
+      <c r="G176" s="234"/>
+      <c r="I176" s="199"/>
+    </row>
+    <row r="177" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="199" t="s">
+        <v>560</v>
+      </c>
+      <c r="D177" s="206"/>
+      <c r="E177" s="256" t="s">
+        <v>560</v>
+      </c>
+      <c r="F177" s="258"/>
+      <c r="G177" s="234"/>
+      <c r="I177" s="199"/>
+    </row>
+    <row r="178" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D178" s="206"/>
+      <c r="E178" s="231"/>
+      <c r="G178" s="234"/>
+      <c r="I178" s="199"/>
+    </row>
+    <row r="179" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="206"/>
+      <c r="E179" s="257" t="s">
+        <v>561</v>
+      </c>
+      <c r="F179" s="258"/>
+      <c r="G179" s="234"/>
+      <c r="I179" s="199"/>
+    </row>
+    <row r="180" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D180" s="206"/>
+      <c r="E180" s="259" t="s">
+        <v>558</v>
+      </c>
+      <c r="F180" s="258"/>
+      <c r="G180" s="234"/>
+      <c r="I180" s="199"/>
+    </row>
+    <row r="181" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D181" s="260"/>
+      <c r="E181" s="256" t="s">
+        <v>562</v>
+      </c>
+      <c r="F181" s="258"/>
+      <c r="G181" s="234"/>
+      <c r="I181" s="199"/>
+    </row>
+    <row r="182" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="E189" s="308"/>
-      <c r="I189" s="254"/>
-    </row>
-    <row r="190" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D190" s="315"/>
-      <c r="E190" s="315"/>
-      <c r="I190" s="254"/>
-    </row>
-    <row r="191" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C191" s="309" t="s">
-        <v>551</v>
-      </c>
-      <c r="D191" s="301"/>
-      <c r="E191" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I191" s="254"/>
-    </row>
-    <row r="192" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C192" s="258"/>
-      <c r="D192" s="303"/>
-      <c r="E192" s="288"/>
-      <c r="I192" s="254"/>
-    </row>
-    <row r="193" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C193" s="116"/>
-      <c r="D193" s="303"/>
-      <c r="E193" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I193" s="254"/>
-    </row>
-    <row r="194" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C194" s="116"/>
-      <c r="D194" s="306"/>
-      <c r="E194" s="312" t="s">
-        <v>552</v>
-      </c>
-      <c r="I194" s="254"/>
-    </row>
-    <row r="195" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C195" s="116"/>
-      <c r="D195" s="306"/>
-      <c r="E195" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I195" s="254"/>
-    </row>
-    <row r="196" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D196" s="306"/>
-      <c r="E196" s="312" t="s">
-        <v>553</v>
-      </c>
-      <c r="I196" s="254"/>
-    </row>
-    <row r="197" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D197" s="306"/>
-      <c r="E197" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I197" s="254"/>
-    </row>
-    <row r="198" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D198" s="306"/>
-      <c r="E198" s="312" t="s">
-        <v>554</v>
-      </c>
-      <c r="I198" s="254"/>
-    </row>
-    <row r="199" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D199" s="314"/>
-      <c r="E199" s="345" t="s">
-        <v>600</v>
-      </c>
-      <c r="I199" s="254"/>
-    </row>
-    <row r="200" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D200" s="314"/>
-      <c r="E200" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I200" s="254"/>
-    </row>
-    <row r="201" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D201" s="307" t="s">
+      <c r="E182" s="302"/>
+      <c r="I182" s="199"/>
+    </row>
+    <row r="183" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I183" s="199"/>
+    </row>
+    <row r="184" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="261" t="s">
+        <v>563</v>
+      </c>
+      <c r="D184" s="228" t="s">
+        <v>564</v>
+      </c>
+      <c r="E184" s="262"/>
+      <c r="I184" s="199" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="263"/>
+      <c r="D185" s="255"/>
+      <c r="E185" s="264" t="s">
+        <v>566</v>
+      </c>
+      <c r="I185" s="199"/>
+    </row>
+    <row r="186" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="263"/>
+      <c r="D186" s="206" t="s">
+        <v>567</v>
+      </c>
+      <c r="E186" s="265"/>
+      <c r="I186" s="199"/>
+    </row>
+    <row r="187" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="263"/>
+      <c r="D187" s="255"/>
+      <c r="E187" s="264" t="s">
+        <v>568</v>
+      </c>
+      <c r="I187" s="199"/>
+    </row>
+    <row r="188" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D188" s="206" t="s">
+        <v>569</v>
+      </c>
+      <c r="E188" s="265"/>
+      <c r="I188" s="199" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D189" s="255"/>
+      <c r="E189" s="264" t="s">
+        <v>570</v>
+      </c>
+      <c r="I189" s="199"/>
+    </row>
+    <row r="190" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="E201" s="308"/>
-      <c r="I201" s="254"/>
-    </row>
-    <row r="202" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I202" s="254"/>
-    </row>
-    <row r="203" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C203" s="309" t="s">
-        <v>555</v>
-      </c>
-      <c r="D203" s="301"/>
-      <c r="E203" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I203" s="254"/>
-    </row>
-    <row r="204" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C204" s="258"/>
-      <c r="D204" s="303"/>
-      <c r="E204" s="288"/>
-      <c r="I204" s="254"/>
-    </row>
-    <row r="205" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C205" s="116"/>
-      <c r="D205" s="303"/>
-      <c r="E205" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I205" s="254"/>
-    </row>
-    <row r="206" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C206" s="116"/>
-      <c r="D206" s="306"/>
-      <c r="E206" s="312" t="s">
-        <v>556</v>
-      </c>
-      <c r="I206" s="254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="207" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C207" s="116"/>
-      <c r="D207" s="306"/>
-      <c r="E207" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I207" s="254"/>
-    </row>
-    <row r="208" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D208" s="306"/>
-      <c r="E208" s="312" t="s">
-        <v>558</v>
-      </c>
-      <c r="I208" s="254"/>
-    </row>
-    <row r="209" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D209" s="306"/>
-      <c r="E209" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I209" s="254"/>
-    </row>
-    <row r="210" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D210" s="306"/>
-      <c r="E210" s="312" t="s">
-        <v>559</v>
-      </c>
-      <c r="I210" s="254"/>
-    </row>
-    <row r="211" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D211" s="314"/>
-      <c r="E211" s="345" t="s">
-        <v>601</v>
-      </c>
-      <c r="I211" s="254"/>
-    </row>
-    <row r="212" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E212" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I212" s="254"/>
-    </row>
-    <row r="213" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D213" s="307" t="s">
+      <c r="E190" s="302"/>
+      <c r="I190" s="199"/>
+    </row>
+    <row r="191" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I191" s="199"/>
+    </row>
+    <row r="192" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I192" s="199"/>
+    </row>
+    <row r="193" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="266" t="s">
+        <v>566</v>
+      </c>
+      <c r="D193" s="228" t="s">
+        <v>571</v>
+      </c>
+      <c r="E193" s="262"/>
+      <c r="I193" s="199"/>
+    </row>
+    <row r="194" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="278"/>
+      <c r="D194" s="255"/>
+      <c r="E194" s="279" t="s">
+        <v>588</v>
+      </c>
+      <c r="I194" s="199"/>
+    </row>
+    <row r="195" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D195" s="206"/>
+      <c r="E195" s="231" t="s">
+        <v>572</v>
+      </c>
+      <c r="I195" s="199"/>
+    </row>
+    <row r="196" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D196" s="255"/>
+      <c r="E196" s="231" t="s">
+        <v>573</v>
+      </c>
+      <c r="I196" s="199"/>
+    </row>
+    <row r="197" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D197" s="206" t="s">
+        <v>574</v>
+      </c>
+      <c r="E197" s="231"/>
+      <c r="I197" s="199"/>
+    </row>
+    <row r="198" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D198" s="255"/>
+      <c r="E198" s="231" t="s">
+        <v>575</v>
+      </c>
+      <c r="I198" s="199"/>
+    </row>
+    <row r="199" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="255"/>
+      <c r="E199" s="257" t="s">
+        <v>576</v>
+      </c>
+      <c r="I199" s="199"/>
+    </row>
+    <row r="200" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D200" s="260"/>
+      <c r="E200" s="267" t="s">
+        <v>577</v>
+      </c>
+      <c r="I200" s="199"/>
+    </row>
+    <row r="201" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="260"/>
+      <c r="E201" s="251" t="s">
+        <v>578</v>
+      </c>
+      <c r="I201" s="199"/>
+    </row>
+    <row r="202" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D202" s="260"/>
+      <c r="E202" s="268" t="s">
+        <v>579</v>
+      </c>
+      <c r="I202" s="199"/>
+    </row>
+    <row r="203" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D203" s="245"/>
+      <c r="E203" s="250" t="s">
+        <v>580</v>
+      </c>
+      <c r="I203" s="199"/>
+    </row>
+    <row r="204" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="E213" s="308"/>
-      <c r="I213" s="254"/>
-    </row>
-    <row r="214" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I214" s="254"/>
-    </row>
-    <row r="215" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I215" s="254"/>
-    </row>
-    <row r="216" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I216" s="254"/>
-    </row>
-    <row r="217" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C217" s="309" t="s">
-        <v>602</v>
-      </c>
-      <c r="D217" s="301"/>
-      <c r="E217" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I217" s="254"/>
-    </row>
-    <row r="218" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C218" s="258"/>
-      <c r="D218" s="303"/>
-      <c r="E218" s="288"/>
-      <c r="I218" s="254"/>
-    </row>
-    <row r="219" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C219" s="116"/>
-      <c r="D219" s="303"/>
-      <c r="E219" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I219" s="254"/>
-    </row>
-    <row r="220" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C220" s="116"/>
-      <c r="D220" s="306"/>
-      <c r="E220" s="312" t="s">
-        <v>603</v>
-      </c>
-      <c r="I220" s="254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="221" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C221" s="116"/>
-      <c r="D221" s="306"/>
-      <c r="E221" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I221" s="254"/>
-    </row>
-    <row r="222" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D222" s="306"/>
-      <c r="E222" s="312" t="s">
-        <v>604</v>
-      </c>
-      <c r="I222" s="254"/>
-    </row>
-    <row r="223" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D223" s="306"/>
-      <c r="E223" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I223" s="254"/>
-    </row>
-    <row r="224" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D224" s="306"/>
-      <c r="E224" s="305" t="s">
-        <v>605</v>
-      </c>
-      <c r="I224" s="254"/>
-    </row>
-    <row r="225" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D225" s="314"/>
-      <c r="E225" s="345" t="s">
-        <v>606</v>
-      </c>
-      <c r="I225" s="254"/>
-    </row>
-    <row r="226" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E226" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I226" s="254"/>
-    </row>
-    <row r="227" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D227" s="307" t="s">
+      <c r="E204" s="302"/>
+      <c r="I204" s="199"/>
+    </row>
+    <row r="205" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I205" s="199"/>
+    </row>
+    <row r="206" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="266" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="269"/>
+      <c r="E206" s="270" t="s">
+        <v>581</v>
+      </c>
+      <c r="I206" s="199"/>
+    </row>
+    <row r="207" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="271"/>
+      <c r="D207" s="272"/>
+      <c r="E207" s="273" t="s">
+        <v>582</v>
+      </c>
+      <c r="I207" s="199"/>
+    </row>
+    <row r="208" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C208" s="271"/>
+      <c r="D208" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="E227" s="308"/>
-      <c r="I227" s="254"/>
-    </row>
-    <row r="228" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I228" s="254"/>
-    </row>
-    <row r="229" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C229" s="309" t="s">
-        <v>607</v>
-      </c>
-      <c r="D229" s="301"/>
-      <c r="E229" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I229" s="254"/>
-    </row>
-    <row r="230" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C230" s="258"/>
-      <c r="D230" s="303"/>
-      <c r="E230" s="288"/>
-      <c r="I230" s="254"/>
-    </row>
-    <row r="231" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C231" s="116"/>
-      <c r="D231" s="303"/>
-      <c r="E231" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I231" s="254"/>
-    </row>
-    <row r="232" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C232" s="116"/>
-      <c r="D232" s="306"/>
-      <c r="E232" s="346" t="s">
-        <v>609</v>
-      </c>
-      <c r="I232" s="254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="233" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C233" s="116"/>
-      <c r="D233" s="306"/>
-      <c r="E233" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I233" s="254"/>
-    </row>
-    <row r="234" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D234" s="306"/>
-      <c r="E234" s="312" t="s">
-        <v>610</v>
-      </c>
-      <c r="I234" s="254"/>
-    </row>
-    <row r="235" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D235" s="306"/>
-      <c r="E235" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I235" s="254"/>
-    </row>
-    <row r="236" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D236" s="306"/>
-      <c r="E236" s="305" t="s">
-        <v>611</v>
-      </c>
-      <c r="I236" s="254"/>
-    </row>
-    <row r="237" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D237" s="314"/>
-      <c r="E237" s="345" t="s">
-        <v>612</v>
-      </c>
-      <c r="I237" s="254"/>
-    </row>
-    <row r="238" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E238" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I238" s="254"/>
-    </row>
-    <row r="239" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D239" s="307" t="s">
+      <c r="E208" s="302"/>
+      <c r="I208" s="199"/>
+    </row>
+    <row r="209" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="271"/>
+      <c r="I209" s="199"/>
+    </row>
+    <row r="210" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C210" s="271"/>
+      <c r="I210" s="199"/>
+    </row>
+    <row r="211" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="266" t="s">
+        <v>570</v>
+      </c>
+      <c r="D211" s="274" t="s">
+        <v>583</v>
+      </c>
+      <c r="E211" s="270"/>
+      <c r="I211" s="199"/>
+    </row>
+    <row r="212" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D212" s="275"/>
+      <c r="E212" s="273" t="s">
+        <v>584</v>
+      </c>
+      <c r="I212" s="199"/>
+    </row>
+    <row r="213" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D213" s="275"/>
+      <c r="E213" s="273" t="s">
+        <v>585</v>
+      </c>
+      <c r="I213" s="199"/>
+    </row>
+    <row r="214" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="276" t="s">
         <v>75</v>
       </c>
-      <c r="E239" s="308"/>
-      <c r="I239" s="254"/>
-    </row>
-    <row r="240" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I240" s="254"/>
-    </row>
-    <row r="241" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C241" s="309" t="s">
-        <v>608</v>
-      </c>
-      <c r="D241" s="301"/>
-      <c r="E241" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I241" s="254"/>
-    </row>
-    <row r="242" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C242" s="258"/>
-      <c r="D242" s="303"/>
-      <c r="E242" s="288"/>
-      <c r="I242" s="254"/>
-    </row>
-    <row r="243" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C243" s="116"/>
-      <c r="D243" s="303"/>
-      <c r="E243" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I243" s="254"/>
-    </row>
-    <row r="244" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C244" s="116"/>
-      <c r="D244" s="306"/>
-      <c r="E244" s="312" t="s">
-        <v>613</v>
-      </c>
-      <c r="I244" s="254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="245" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C245" s="116"/>
-      <c r="D245" s="306"/>
-      <c r="E245" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I245" s="254"/>
-    </row>
-    <row r="246" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D246" s="306"/>
-      <c r="E246" s="312" t="s">
-        <v>614</v>
-      </c>
-      <c r="I246" s="254"/>
-    </row>
-    <row r="247" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D247" s="306"/>
-      <c r="E247" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I247" s="254"/>
-    </row>
-    <row r="248" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D248" s="306"/>
-      <c r="E248" s="305" t="s">
-        <v>615</v>
-      </c>
-      <c r="I248" s="254"/>
-    </row>
-    <row r="249" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D249" s="314"/>
-      <c r="E249" s="345" t="s">
-        <v>616</v>
-      </c>
-      <c r="I249" s="254"/>
-    </row>
-    <row r="250" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E250" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I250" s="254"/>
-    </row>
-    <row r="251" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D251" s="307" t="s">
+      <c r="E214" s="277"/>
+      <c r="I214" s="199"/>
+    </row>
+    <row r="215" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I215" s="199"/>
+    </row>
+    <row r="216" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="141"/>
+      <c r="C216" s="165"/>
+      <c r="D216" s="166"/>
+      <c r="E216" s="167"/>
+      <c r="F216" s="164"/>
+      <c r="G216" s="163"/>
+      <c r="H216" s="164"/>
+      <c r="I216" s="164"/>
+      <c r="J216" s="164"/>
+      <c r="K216" s="168"/>
+      <c r="L216" s="164"/>
+    </row>
+    <row r="217" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="146"/>
+      <c r="C217" s="291" t="s">
+        <v>439</v>
+      </c>
+      <c r="D217" s="294"/>
+      <c r="E217" s="295"/>
+      <c r="F217" s="151"/>
+      <c r="G217" s="152"/>
+      <c r="H217" s="151"/>
+      <c r="I217" s="151"/>
+      <c r="J217" s="151"/>
+      <c r="K217" s="296"/>
+      <c r="L217" s="151"/>
+    </row>
+    <row r="218" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="146"/>
+      <c r="C218" s="292"/>
+      <c r="D218" s="134"/>
+      <c r="E218" s="174" t="s">
+        <v>440</v>
+      </c>
+      <c r="F218" s="151"/>
+      <c r="G218" s="152"/>
+      <c r="H218" s="151"/>
+      <c r="I218" s="151"/>
+      <c r="J218" s="151"/>
+      <c r="K218" s="297"/>
+      <c r="L218" s="151"/>
+    </row>
+    <row r="219" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C219" s="293"/>
+      <c r="D219" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="E251" s="308"/>
-      <c r="I251" s="254"/>
-    </row>
-    <row r="252" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I252" s="254"/>
-    </row>
-    <row r="253" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I253" s="254"/>
-    </row>
-    <row r="254" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C254" s="309" t="s">
-        <v>617</v>
-      </c>
-      <c r="D254" s="301"/>
-      <c r="E254" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I254" s="254"/>
-    </row>
-    <row r="255" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C255" s="258"/>
-      <c r="D255" s="303"/>
-      <c r="E255" s="288"/>
-      <c r="I255" s="254"/>
-    </row>
-    <row r="256" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C256" s="116"/>
-      <c r="D256" s="303"/>
-      <c r="E256" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I256" s="254"/>
-    </row>
-    <row r="257" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C257" s="116"/>
-      <c r="D257" s="306"/>
-      <c r="E257" s="346" t="s">
-        <v>618</v>
-      </c>
-      <c r="I257" s="254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="258" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C258" s="116"/>
-      <c r="D258" s="306"/>
-      <c r="E258" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I258" s="254"/>
-    </row>
-    <row r="259" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D259" s="306"/>
-      <c r="E259" s="312" t="s">
+      <c r="E219" s="300"/>
+      <c r="F219" s="151"/>
+      <c r="G219" s="152"/>
+      <c r="H219" s="151"/>
+      <c r="I219" s="151"/>
+      <c r="J219" s="151"/>
+      <c r="K219" s="298"/>
+      <c r="L219" s="151"/>
+    </row>
+    <row r="220" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C220" s="139">
+        <v>3</v>
+      </c>
+      <c r="D220" s="171"/>
+      <c r="E220" s="172"/>
+    </row>
+    <row r="222" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="141"/>
+      <c r="C222" s="165"/>
+      <c r="D222" s="166"/>
+      <c r="E222" s="167"/>
+      <c r="F222" s="164"/>
+      <c r="G222" s="163"/>
+      <c r="H222" s="164"/>
+      <c r="I222" s="164"/>
+      <c r="J222" s="164"/>
+      <c r="K222" s="168"/>
+      <c r="L222" s="164"/>
+    </row>
+    <row r="223" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="147"/>
+      <c r="C223" s="291" t="s">
         <v>619</v>
       </c>
-      <c r="I259" s="254"/>
-    </row>
-    <row r="260" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D260" s="306"/>
-      <c r="E260" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I260" s="254"/>
-    </row>
-    <row r="261" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D261" s="306"/>
-      <c r="E261" s="305" t="s">
-        <v>620</v>
-      </c>
-      <c r="I261" s="254"/>
-    </row>
-    <row r="262" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D262" s="314"/>
-      <c r="E262" s="345" t="s">
-        <v>621</v>
-      </c>
-      <c r="I262" s="254"/>
-    </row>
-    <row r="263" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E263" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I263" s="254"/>
-    </row>
-    <row r="264" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D264" s="307" t="s">
+      <c r="D223" s="294"/>
+      <c r="E223" s="295"/>
+      <c r="F223" s="151"/>
+      <c r="G223" s="152"/>
+      <c r="H223" s="151"/>
+      <c r="I223" s="151"/>
+      <c r="J223" s="151"/>
+      <c r="K223" s="296"/>
+      <c r="L223" s="151"/>
+    </row>
+    <row r="224" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="147"/>
+      <c r="C224" s="292"/>
+      <c r="D224" s="283"/>
+      <c r="E224" s="284"/>
+      <c r="F224" s="151"/>
+      <c r="G224" s="152"/>
+      <c r="H224" s="151"/>
+      <c r="I224" s="151"/>
+      <c r="J224" s="151"/>
+      <c r="K224" s="297"/>
+      <c r="L224" s="151"/>
+    </row>
+    <row r="225" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="147"/>
+      <c r="C225" s="292"/>
+      <c r="D225" s="134"/>
+      <c r="E225" s="174"/>
+      <c r="F225" s="151"/>
+      <c r="G225" s="152"/>
+      <c r="H225" s="151"/>
+      <c r="I225" s="151"/>
+      <c r="J225" s="151"/>
+      <c r="K225" s="297"/>
+      <c r="L225" s="151"/>
+    </row>
+    <row r="226" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C226" s="293"/>
+      <c r="D226" s="299" t="s">
         <v>75</v>
       </c>
-      <c r="E264" s="308"/>
-      <c r="I264" s="254"/>
-    </row>
-    <row r="265" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I265" s="254"/>
-    </row>
-    <row r="266" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C266" s="309" t="s">
-        <v>622</v>
-      </c>
-      <c r="D266" s="301"/>
-      <c r="E266" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I266" s="254"/>
-    </row>
-    <row r="267" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C267" s="258"/>
-      <c r="D267" s="303"/>
-      <c r="E267" s="288"/>
-      <c r="I267" s="254"/>
-    </row>
-    <row r="268" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C268" s="116"/>
-      <c r="D268" s="303"/>
-      <c r="E268" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I268" s="254"/>
-    </row>
-    <row r="269" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C269" s="116"/>
-      <c r="D269" s="306"/>
-      <c r="E269" s="312" t="s">
-        <v>623</v>
-      </c>
-      <c r="I269" s="254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="270" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C270" s="116"/>
-      <c r="D270" s="306"/>
-      <c r="E270" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I270" s="254"/>
-    </row>
-    <row r="271" spans="3:9" s="131" customFormat="1" ht="30">
-      <c r="D271" s="306"/>
-      <c r="E271" s="346" t="s">
-        <v>624</v>
-      </c>
-      <c r="I271" s="254"/>
-    </row>
-    <row r="272" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D272" s="306"/>
-      <c r="E272" s="313"/>
-      <c r="I272" s="254"/>
-    </row>
-    <row r="273" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D273" s="306"/>
-      <c r="E273" s="305"/>
-      <c r="I273" s="254"/>
-    </row>
-    <row r="274" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D274" s="314"/>
-      <c r="E274" s="345" t="s">
-        <v>616</v>
-      </c>
-      <c r="I274" s="254"/>
-    </row>
-    <row r="275" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E275" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I275" s="254"/>
-    </row>
-    <row r="276" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D276" s="307" t="s">
-        <v>75</v>
-      </c>
-      <c r="E276" s="308"/>
-      <c r="I276" s="254"/>
-    </row>
-    <row r="277" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I277" s="254"/>
-    </row>
-    <row r="278" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I278" s="254"/>
-    </row>
-    <row r="279" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C279" s="309" t="s">
-        <v>607</v>
-      </c>
-      <c r="D279" s="301"/>
-      <c r="E279" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I279" s="254"/>
-    </row>
-    <row r="280" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C280" s="258"/>
-      <c r="D280" s="303"/>
-      <c r="E280" s="288"/>
-      <c r="I280" s="254"/>
-    </row>
-    <row r="281" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C281" s="116"/>
-      <c r="D281" s="303"/>
-      <c r="E281" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I281" s="254"/>
-    </row>
-    <row r="282" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C282" s="116"/>
-      <c r="D282" s="306"/>
-      <c r="E282" s="346" t="s">
-        <v>609</v>
-      </c>
-      <c r="I282" s="254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="283" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C283" s="116"/>
-      <c r="D283" s="306"/>
-      <c r="E283" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I283" s="254"/>
-    </row>
-    <row r="284" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D284" s="306"/>
-      <c r="E284" s="312" t="s">
-        <v>610</v>
-      </c>
-      <c r="I284" s="254"/>
-    </row>
-    <row r="285" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D285" s="306"/>
-      <c r="E285" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I285" s="254"/>
-    </row>
-    <row r="286" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D286" s="306"/>
-      <c r="E286" s="305" t="s">
-        <v>611</v>
-      </c>
-      <c r="I286" s="254"/>
-    </row>
-    <row r="287" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D287" s="314"/>
-      <c r="E287" s="345" t="s">
-        <v>612</v>
-      </c>
-      <c r="I287" s="254"/>
-    </row>
-    <row r="288" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E288" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I288" s="254"/>
-    </row>
-    <row r="289" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D289" s="307" t="s">
-        <v>75</v>
-      </c>
-      <c r="E289" s="308"/>
-      <c r="I289" s="254"/>
-    </row>
-    <row r="290" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I290" s="254"/>
-    </row>
-    <row r="291" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C291" s="309" t="s">
-        <v>608</v>
-      </c>
-      <c r="D291" s="301"/>
-      <c r="E291" s="310" t="s">
-        <v>543</v>
-      </c>
-      <c r="I291" s="254"/>
-    </row>
-    <row r="292" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C292" s="258"/>
-      <c r="D292" s="303"/>
-      <c r="E292" s="288"/>
-      <c r="I292" s="254"/>
-    </row>
-    <row r="293" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C293" s="116"/>
-      <c r="D293" s="303"/>
-      <c r="E293" s="311" t="s">
-        <v>544</v>
-      </c>
-      <c r="I293" s="254"/>
-    </row>
-    <row r="294" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C294" s="116"/>
-      <c r="D294" s="306"/>
-      <c r="E294" s="312" t="s">
-        <v>613</v>
-      </c>
-      <c r="I294" s="254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="295" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C295" s="116"/>
-      <c r="D295" s="306"/>
-      <c r="E295" s="313" t="s">
-        <v>546</v>
-      </c>
-      <c r="I295" s="254"/>
-    </row>
-    <row r="296" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D296" s="306"/>
-      <c r="E296" s="312" t="s">
-        <v>614</v>
-      </c>
-      <c r="I296" s="254"/>
-    </row>
-    <row r="297" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D297" s="306"/>
-      <c r="E297" s="313" t="s">
-        <v>548</v>
-      </c>
-      <c r="I297" s="254"/>
-    </row>
-    <row r="298" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D298" s="306"/>
-      <c r="E298" s="305" t="s">
-        <v>615</v>
-      </c>
-      <c r="I298" s="254"/>
-    </row>
-    <row r="299" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D299" s="314"/>
-      <c r="E299" s="345" t="s">
-        <v>616</v>
-      </c>
-      <c r="I299" s="254"/>
-    </row>
-    <row r="300" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E300" s="305" t="s">
-        <v>550</v>
-      </c>
-      <c r="I300" s="254"/>
-    </row>
-    <row r="301" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D301" s="307" t="s">
-        <v>75</v>
-      </c>
-      <c r="E301" s="308"/>
-      <c r="I301" s="254"/>
-    </row>
-    <row r="302" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I302" s="254"/>
-    </row>
-    <row r="303" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I303" s="254"/>
-    </row>
-    <row r="304" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C304" s="316" t="s">
-        <v>560</v>
-      </c>
-      <c r="D304" s="317"/>
-      <c r="E304" s="318" t="s">
-        <v>561</v>
-      </c>
-      <c r="G304" s="293"/>
-      <c r="I304" s="254"/>
-    </row>
-    <row r="305" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C305" s="294"/>
-      <c r="D305" s="319"/>
-      <c r="E305" s="320" t="s">
-        <v>562</v>
-      </c>
-      <c r="G305" s="293"/>
-      <c r="I305" s="254"/>
-    </row>
-    <row r="306" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D306" s="261"/>
-      <c r="E306" s="321" t="s">
-        <v>563</v>
-      </c>
-      <c r="F306" s="322"/>
-      <c r="G306" s="293"/>
-      <c r="I306" s="254"/>
-    </row>
-    <row r="307" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D307" s="261"/>
-      <c r="E307" s="323" t="s">
-        <v>564</v>
-      </c>
-      <c r="F307" s="322"/>
-      <c r="G307" s="293"/>
-      <c r="I307" s="254"/>
-    </row>
-    <row r="308" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D308" s="261"/>
-      <c r="E308" s="320" t="s">
-        <v>565</v>
-      </c>
-      <c r="F308" s="322"/>
-      <c r="G308" s="293"/>
-      <c r="I308" s="254"/>
-    </row>
-    <row r="309" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A309" s="254" t="s">
-        <v>566</v>
-      </c>
-      <c r="D309" s="261"/>
-      <c r="E309" s="320" t="s">
-        <v>566</v>
-      </c>
-      <c r="F309" s="322"/>
-      <c r="G309" s="293"/>
-      <c r="I309" s="254"/>
-    </row>
-    <row r="310" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D310" s="261"/>
-      <c r="E310" s="288"/>
-      <c r="G310" s="293"/>
-      <c r="I310" s="254"/>
-    </row>
-    <row r="311" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D311" s="261"/>
-      <c r="E311" s="321" t="s">
-        <v>567</v>
-      </c>
-      <c r="F311" s="322"/>
-      <c r="G311" s="293"/>
-      <c r="I311" s="254"/>
-    </row>
-    <row r="312" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D312" s="261"/>
-      <c r="E312" s="323" t="s">
-        <v>564</v>
-      </c>
-      <c r="F312" s="322"/>
-      <c r="G312" s="293"/>
-      <c r="I312" s="254"/>
-    </row>
-    <row r="313" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D313" s="324"/>
-      <c r="E313" s="320" t="s">
-        <v>568</v>
-      </c>
-      <c r="F313" s="322"/>
-      <c r="G313" s="293"/>
-      <c r="I313" s="254"/>
-    </row>
-    <row r="314" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D314" s="289" t="s">
-        <v>75</v>
-      </c>
-      <c r="E314" s="290"/>
-      <c r="I314" s="254"/>
-    </row>
-    <row r="315" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I315" s="254"/>
-    </row>
-    <row r="316" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C316" s="325" t="s">
-        <v>569</v>
-      </c>
-      <c r="D316" s="285" t="s">
-        <v>570</v>
-      </c>
-      <c r="E316" s="326"/>
-      <c r="I316" s="254" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C317" s="327"/>
-      <c r="D317" s="319"/>
-      <c r="E317" s="328" t="s">
-        <v>572</v>
-      </c>
-      <c r="I317" s="254"/>
-    </row>
-    <row r="318" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C318" s="327"/>
-      <c r="D318" s="261" t="s">
-        <v>573</v>
-      </c>
-      <c r="E318" s="329"/>
-      <c r="I318" s="254"/>
-    </row>
-    <row r="319" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C319" s="327"/>
-      <c r="D319" s="319"/>
-      <c r="E319" s="328" t="s">
-        <v>574</v>
-      </c>
-      <c r="I319" s="254"/>
-    </row>
-    <row r="320" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D320" s="261" t="s">
-        <v>575</v>
-      </c>
-      <c r="E320" s="329"/>
-      <c r="I320" s="254" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="321" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D321" s="319"/>
-      <c r="E321" s="328" t="s">
-        <v>576</v>
-      </c>
-      <c r="I321" s="254"/>
-    </row>
-    <row r="322" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D322" s="289" t="s">
-        <v>75</v>
-      </c>
-      <c r="E322" s="290"/>
-      <c r="I322" s="254"/>
-    </row>
-    <row r="323" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I323" s="254"/>
-    </row>
-    <row r="324" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I324" s="254"/>
-    </row>
-    <row r="325" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C325" s="330" t="s">
-        <v>572</v>
-      </c>
-      <c r="D325" s="285" t="s">
-        <v>577</v>
-      </c>
-      <c r="E325" s="326"/>
-      <c r="I325" s="254"/>
-    </row>
-    <row r="326" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C326" s="342"/>
-      <c r="D326" s="319"/>
-      <c r="E326" s="343" t="s">
-        <v>594</v>
-      </c>
-      <c r="I326" s="254"/>
-    </row>
-    <row r="327" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D327" s="261"/>
-      <c r="E327" s="288" t="s">
-        <v>578</v>
-      </c>
-      <c r="I327" s="254"/>
-    </row>
-    <row r="328" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D328" s="319"/>
-      <c r="E328" s="288" t="s">
-        <v>579</v>
-      </c>
-      <c r="I328" s="254"/>
-    </row>
-    <row r="329" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D329" s="261" t="s">
-        <v>580</v>
-      </c>
-      <c r="E329" s="288"/>
-      <c r="I329" s="254"/>
-    </row>
-    <row r="330" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D330" s="319"/>
-      <c r="E330" s="288" t="s">
-        <v>581</v>
-      </c>
-      <c r="I330" s="254"/>
-    </row>
-    <row r="331" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D331" s="319"/>
-      <c r="E331" s="321" t="s">
-        <v>582</v>
-      </c>
-      <c r="I331" s="254"/>
-    </row>
-    <row r="332" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D332" s="324"/>
-      <c r="E332" s="331" t="s">
-        <v>583</v>
-      </c>
-      <c r="I332" s="254"/>
-    </row>
-    <row r="333" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D333" s="324"/>
-      <c r="E333" s="313" t="s">
-        <v>584</v>
-      </c>
-      <c r="I333" s="254"/>
-    </row>
-    <row r="334" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D334" s="324"/>
-      <c r="E334" s="332" t="s">
-        <v>585</v>
-      </c>
-      <c r="I334" s="254"/>
-    </row>
-    <row r="335" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D335" s="306"/>
-      <c r="E335" s="312" t="s">
-        <v>586</v>
-      </c>
-      <c r="I335" s="254"/>
-    </row>
-    <row r="336" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="337" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="338" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="339" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="340" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="341" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D341" s="324"/>
-      <c r="E341" s="280"/>
-      <c r="I341" s="254"/>
-    </row>
-    <row r="342" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D342" s="289" t="s">
-        <v>75</v>
-      </c>
-      <c r="E342" s="290"/>
-      <c r="I342" s="254"/>
-    </row>
-    <row r="343" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="I343" s="254"/>
-    </row>
-    <row r="344" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C344" s="330" t="s">
-        <v>574</v>
-      </c>
-      <c r="D344" s="333"/>
-      <c r="E344" s="334" t="s">
-        <v>587</v>
-      </c>
-      <c r="I344" s="254"/>
-    </row>
-    <row r="345" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C345" s="335"/>
-      <c r="D345" s="336"/>
-      <c r="E345" s="337" t="s">
-        <v>588</v>
-      </c>
-      <c r="I345" s="254"/>
-    </row>
-    <row r="346" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C346" s="335"/>
-      <c r="D346" s="289" t="s">
-        <v>75</v>
-      </c>
-      <c r="E346" s="290"/>
-      <c r="I346" s="254"/>
-    </row>
-    <row r="347" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C347" s="335"/>
-      <c r="I347" s="254"/>
-    </row>
-    <row r="348" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C348" s="335"/>
-      <c r="I348" s="254"/>
-    </row>
-    <row r="349" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C349" s="330" t="s">
-        <v>576</v>
-      </c>
-      <c r="D349" s="338" t="s">
-        <v>589</v>
-      </c>
-      <c r="E349" s="334"/>
-      <c r="I349" s="254"/>
-    </row>
-    <row r="350" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D350" s="339"/>
-      <c r="E350" s="337" t="s">
-        <v>590</v>
-      </c>
-      <c r="I350" s="254"/>
-    </row>
-    <row r="351" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D351" s="339"/>
-      <c r="E351" s="337" t="s">
-        <v>591</v>
-      </c>
-      <c r="I351" s="254"/>
-    </row>
-    <row r="352" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D352" s="340" t="s">
-        <v>75</v>
-      </c>
-      <c r="E352" s="341"/>
-      <c r="I352" s="254"/>
-    </row>
-    <row r="353" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1">
-      <c r="I353" s="254"/>
-    </row>
-    <row r="354" spans="2:12" ht="18" customHeight="1" thickBot="1">
-      <c r="B354" s="141"/>
-      <c r="C354" s="165"/>
-      <c r="D354" s="166"/>
-      <c r="E354" s="167"/>
-      <c r="F354" s="164"/>
-      <c r="G354" s="163"/>
-      <c r="H354" s="164"/>
-      <c r="I354" s="164"/>
-      <c r="J354" s="164"/>
-      <c r="K354" s="168"/>
-      <c r="L354" s="164"/>
-    </row>
-    <row r="355" spans="2:12" ht="18" customHeight="1" thickBot="1">
-      <c r="B355" s="146"/>
-      <c r="C355" s="218" t="s">
-        <v>439</v>
-      </c>
-      <c r="D355" s="221"/>
-      <c r="E355" s="222"/>
-      <c r="F355" s="151"/>
-      <c r="G355" s="152"/>
-      <c r="H355" s="151"/>
-      <c r="I355" s="151"/>
-      <c r="J355" s="151"/>
-      <c r="K355" s="223"/>
-      <c r="L355" s="151"/>
-    </row>
-    <row r="356" spans="2:12" ht="18" customHeight="1">
-      <c r="B356" s="146"/>
-      <c r="C356" s="219"/>
-      <c r="D356" s="134"/>
-      <c r="E356" s="174" t="s">
-        <v>440</v>
-      </c>
-      <c r="F356" s="151"/>
-      <c r="G356" s="152"/>
-      <c r="H356" s="151"/>
-      <c r="I356" s="151"/>
-      <c r="J356" s="151"/>
-      <c r="K356" s="224"/>
-      <c r="L356" s="151"/>
-    </row>
-    <row r="357" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C357" s="220"/>
-      <c r="D357" s="199" t="s">
-        <v>75</v>
-      </c>
-      <c r="E357" s="200"/>
-      <c r="F357" s="151"/>
-      <c r="G357" s="152"/>
-      <c r="H357" s="151"/>
-      <c r="I357" s="151"/>
-      <c r="J357" s="151"/>
-      <c r="K357" s="225"/>
-      <c r="L357" s="151"/>
-    </row>
-    <row r="358" spans="2:12" ht="15.75" customHeight="1">
-      <c r="C358" s="139">
+      <c r="E226" s="300"/>
+      <c r="F226" s="151"/>
+      <c r="G226" s="152"/>
+      <c r="H226" s="151"/>
+      <c r="I226" s="151"/>
+      <c r="J226" s="151"/>
+      <c r="K226" s="298"/>
+      <c r="L226" s="151"/>
+    </row>
+    <row r="227" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="144">
         <v>3</v>
       </c>
-      <c r="D358" s="171"/>
-      <c r="E358" s="172"/>
-    </row>
-    <row r="360" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B360" s="141"/>
-      <c r="C360" s="165"/>
-      <c r="D360" s="166"/>
-      <c r="E360" s="167"/>
-      <c r="F360" s="164"/>
-      <c r="G360" s="163"/>
-      <c r="H360" s="164"/>
-      <c r="I360" s="164"/>
-      <c r="J360" s="164"/>
-      <c r="K360" s="168"/>
-      <c r="L360" s="164"/>
-    </row>
-    <row r="361" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B361" s="147"/>
-      <c r="C361" s="218" t="s">
-        <v>625</v>
-      </c>
-      <c r="D361" s="221"/>
-      <c r="E361" s="222"/>
-      <c r="F361" s="151"/>
-      <c r="G361" s="152"/>
-      <c r="H361" s="151"/>
-      <c r="I361" s="151"/>
-      <c r="J361" s="151"/>
-      <c r="K361" s="223"/>
-      <c r="L361" s="151"/>
-    </row>
-    <row r="362" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B362" s="147"/>
-      <c r="C362" s="219"/>
-      <c r="D362" s="347"/>
-      <c r="E362" s="348"/>
-      <c r="F362" s="151"/>
-      <c r="G362" s="152"/>
-      <c r="H362" s="151"/>
-      <c r="I362" s="151"/>
-      <c r="J362" s="151"/>
-      <c r="K362" s="224"/>
-      <c r="L362" s="151"/>
-    </row>
-    <row r="363" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1">
-      <c r="B363" s="147"/>
-      <c r="C363" s="219"/>
-      <c r="D363" s="134"/>
-      <c r="E363" s="174"/>
-      <c r="F363" s="151"/>
-      <c r="G363" s="152"/>
-      <c r="H363" s="151"/>
-      <c r="I363" s="151"/>
-      <c r="J363" s="151"/>
-      <c r="K363" s="224"/>
-      <c r="L363" s="151"/>
-    </row>
-    <row r="364" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C364" s="220"/>
-      <c r="D364" s="199" t="s">
-        <v>75</v>
-      </c>
-      <c r="E364" s="200"/>
-      <c r="F364" s="151"/>
-      <c r="G364" s="152"/>
-      <c r="H364" s="151"/>
-      <c r="I364" s="151"/>
-      <c r="J364" s="151"/>
-      <c r="K364" s="225"/>
-      <c r="L364" s="151"/>
-    </row>
-    <row r="365" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C365" s="144">
-        <v>3</v>
-      </c>
-      <c r="D365" s="171"/>
-      <c r="E365" s="172"/>
-      <c r="G365" s="145"/>
-      <c r="K365" s="173"/>
+      <c r="D227" s="171"/>
+      <c r="E227" s="172"/>
+      <c r="G227" s="145"/>
+      <c r="K227" s="173"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C361:C364"/>
-    <mergeCell ref="D361:E361"/>
-    <mergeCell ref="K361:K364"/>
-    <mergeCell ref="D364:E364"/>
-    <mergeCell ref="D346:E346"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D165:E165"/>
+  <mergeCells count="47">
+    <mergeCell ref="K113:K127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="K79:K84"/>
+    <mergeCell ref="C87:C110"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="K87:K110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D113:E113"/>
     <mergeCell ref="K13:K26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C13:C26"/>
@@ -10816,36 +10217,28 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="K60:K76"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="C355:C357"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="K355:K357"/>
-    <mergeCell ref="D357:E357"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="K46:K57"/>
-    <mergeCell ref="D57:E57"/>
     <mergeCell ref="K29:K43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="C29:C43"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="K113:K127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="K79:K84"/>
-    <mergeCell ref="C87:C110"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="K87:K110"/>
-    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:P48"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="K223:K226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="K217:K219"/>
+    <mergeCell ref="D219:E219"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10861,12 +10254,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="101" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:19" ht="21.75" customHeight="1">
+    <row r="1" spans="7:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="14" t="s">
         <v>76</v>
       </c>
@@ -10883,7 +10276,7 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="7:19" ht="15">
+    <row r="2" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G2" s="13" t="s">
         <v>77</v>
       </c>
@@ -10900,7 +10293,7 @@
       <c r="R2" s="93"/>
       <c r="S2" s="93"/>
     </row>
-    <row r="3" spans="7:19" ht="15">
+    <row r="3" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G3" s="15" t="s">
         <v>78</v>
       </c>
@@ -10917,7 +10310,7 @@
       <c r="R3" s="93"/>
       <c r="S3" s="93"/>
     </row>
-    <row r="4" spans="7:19" ht="15">
+    <row r="4" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G4" s="93"/>
       <c r="H4" s="93"/>
       <c r="I4" s="93"/>
@@ -10932,7 +10325,7 @@
       <c r="R4" s="93"/>
       <c r="S4" s="93"/>
     </row>
-    <row r="5" spans="7:19" ht="15">
+    <row r="5" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="93"/>
@@ -10947,7 +10340,7 @@
       <c r="R5" s="93"/>
       <c r="S5" s="93"/>
     </row>
-    <row r="6" spans="7:19" ht="15">
+    <row r="6" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G6" s="93" t="s">
         <v>79</v>
       </c>
@@ -10964,7 +10357,7 @@
       <c r="R6" s="93"/>
       <c r="S6" s="93"/>
     </row>
-    <row r="7" spans="7:19" ht="15">
+    <row r="7" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
       <c r="I7" s="93"/>
@@ -10979,7 +10372,7 @@
       <c r="R7" s="93"/>
       <c r="S7" s="93"/>
     </row>
-    <row r="8" spans="7:19" ht="15">
+    <row r="8" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G8" s="93" t="s">
         <v>80</v>
       </c>
@@ -10996,7 +10389,7 @@
       <c r="R8" s="93"/>
       <c r="S8" s="93"/>
     </row>
-    <row r="9" spans="7:19" ht="15">
+    <row r="9" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
       <c r="I9" s="93"/>
@@ -11011,7 +10404,7 @@
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
     </row>
-    <row r="10" spans="7:19">
+    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -11028,22 +10421,22 @@
       <c r="R10" s="17"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" spans="7:19" ht="15">
+    <row r="11" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G11" s="20"/>
       <c r="H11" s="93"/>
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
-      <c r="M11" s="235"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
+      <c r="M11" s="341"/>
+      <c r="N11" s="286"/>
+      <c r="O11" s="286"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
-      <c r="R11" s="235"/>
-      <c r="S11" s="236"/>
-    </row>
-    <row r="12" spans="7:19" ht="15">
+      <c r="R11" s="341"/>
+      <c r="S11" s="342"/>
+    </row>
+    <row r="12" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G12" s="20"/>
       <c r="H12" s="93" t="s">
         <v>82</v>
@@ -11062,7 +10455,7 @@
       <c r="R12" s="21"/>
       <c r="S12" s="23"/>
     </row>
-    <row r="13" spans="7:19" ht="15">
+    <row r="13" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G13" s="20"/>
       <c r="H13" s="93"/>
       <c r="I13" s="93"/>
@@ -11077,7 +10470,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="23"/>
     </row>
-    <row r="14" spans="7:19" ht="15">
+    <row r="14" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G14" s="20"/>
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
@@ -11092,7 +10485,7 @@
       <c r="R14" s="93"/>
       <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="7:19" ht="15">
+    <row r="15" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G15" s="20"/>
       <c r="H15" s="93" t="s">
         <v>84</v>
@@ -11111,7 +10504,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="23"/>
     </row>
-    <row r="16" spans="7:19" ht="15">
+    <row r="16" spans="7:19" ht="15" x14ac:dyDescent="0.2">
       <c r="G16" s="20"/>
       <c r="H16" s="93" t="s">
         <v>86</v>
@@ -11128,7 +10521,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="18" spans="7:23" ht="15">
+    <row r="18" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G18" s="20"/>
       <c r="H18" s="24"/>
       <c r="I18" s="31"/>
@@ -11151,7 +10544,7 @@
       <c r="V18" s="93"/>
       <c r="W18" s="93"/>
     </row>
-    <row r="19" spans="7:23" ht="15">
+    <row r="19" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G19" s="20"/>
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
@@ -11170,7 +10563,7 @@
       <c r="V19" s="93"/>
       <c r="W19" s="93"/>
     </row>
-    <row r="20" spans="7:23" ht="15">
+    <row r="20" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G20" s="26"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -11189,7 +10582,7 @@
       <c r="V20" s="93"/>
       <c r="W20" s="93"/>
     </row>
-    <row r="21" spans="7:23" ht="15">
+    <row r="21" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G21" s="93"/>
       <c r="H21" s="93"/>
       <c r="I21" s="93"/>
@@ -11208,7 +10601,7 @@
       <c r="V21" s="93"/>
       <c r="W21" s="93"/>
     </row>
-    <row r="22" spans="7:23" ht="15">
+    <row r="22" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G22" s="93"/>
       <c r="H22" s="93"/>
       <c r="I22" s="93"/>
@@ -11227,7 +10620,7 @@
       <c r="V22" s="93"/>
       <c r="W22" s="93"/>
     </row>
-    <row r="23" spans="7:23" ht="15">
+    <row r="23" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G23" s="93"/>
       <c r="H23" s="93"/>
       <c r="I23" s="93"/>
@@ -11246,10 +10639,10 @@
       <c r="V23" s="93"/>
       <c r="W23" s="93"/>
     </row>
-    <row r="24" spans="7:23" ht="15">
-      <c r="G24" s="234"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
+    <row r="24" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G24" s="340"/>
+      <c r="H24" s="286"/>
+      <c r="I24" s="286"/>
       <c r="J24" s="93"/>
       <c r="K24" s="93"/>
       <c r="L24" s="93"/>
@@ -11265,7 +10658,7 @@
       <c r="V24" s="93"/>
       <c r="W24" s="93"/>
     </row>
-    <row r="25" spans="7:23" ht="15">
+    <row r="25" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G25" s="93"/>
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
@@ -11284,10 +10677,10 @@
       <c r="V25" s="93"/>
       <c r="W25" s="93"/>
     </row>
-    <row r="26" spans="7:23" ht="15">
-      <c r="G26" s="234"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="189"/>
+    <row r="26" spans="7:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="G26" s="340"/>
+      <c r="H26" s="286"/>
+      <c r="I26" s="286"/>
       <c r="J26" s="93"/>
       <c r="K26" s="93"/>
       <c r="L26" s="93"/>
@@ -11303,7 +10696,7 @@
       <c r="V26" s="93"/>
       <c r="W26" s="93"/>
     </row>
-    <row r="27" spans="7:23" ht="15">
+    <row r="27" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G27" s="93"/>
       <c r="H27" s="93"/>
       <c r="I27" s="93"/>
@@ -11322,7 +10715,7 @@
       <c r="V27" s="93"/>
       <c r="W27" s="93"/>
     </row>
-    <row r="28" spans="7:23" ht="15">
+    <row r="28" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
       <c r="I28" s="93"/>
@@ -11332,14 +10725,14 @@
       <c r="M28" s="93"/>
       <c r="N28" s="93"/>
       <c r="O28" s="93"/>
-      <c r="P28" s="234"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="189"/>
+      <c r="P28" s="340"/>
+      <c r="Q28" s="286"/>
+      <c r="R28" s="286"/>
       <c r="S28" s="93"/>
-      <c r="T28" s="234"/>
-      <c r="U28" s="189"/>
-      <c r="V28" s="189"/>
-      <c r="W28" s="189"/>
+      <c r="T28" s="340"/>
+      <c r="U28" s="286"/>
+      <c r="V28" s="286"/>
+      <c r="W28" s="286"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11363,7 +10756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -11379,18 +10772,18 @@
     <col min="12" max="30" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="87" customHeight="1">
+    <row r="1" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="91"/>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1">
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+    </row>
+    <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
       <c r="D2" s="93"/>
@@ -11399,7 +10792,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1">
+    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
@@ -11410,7 +10803,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1">
+    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="93"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -11419,7 +10812,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1">
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="93"/>
       <c r="C5" s="29" t="s">
         <v>91</v>
@@ -11430,7 +10823,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="93"/>
     </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="91"/>
       <c r="C6" s="91"/>
       <c r="D6" s="91"/>
@@ -11439,7 +10832,7 @@
       <c r="G6" s="93"/>
       <c r="H6" s="91"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="91"/>
       <c r="C7" s="91"/>
       <c r="D7" s="30" t="s">
@@ -11452,7 +10845,7 @@
       </c>
       <c r="H7" s="91"/>
     </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1">
+    <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
       <c r="D8" s="33" t="s">
@@ -11463,7 +10856,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="91"/>
     </row>
-    <row r="9" spans="2:8" ht="12.75" customHeight="1">
+    <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="91"/>
       <c r="C9" s="91"/>
       <c r="D9" s="35"/>
@@ -11472,7 +10865,7 @@
       <c r="G9" s="34"/>
       <c r="H9" s="91"/>
     </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
+    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
       <c r="D10" s="37" t="s">
@@ -11502,7 +10895,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="5" width="17" customWidth="1"/>
@@ -11510,39 +10903,39 @@
     <col min="7" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="64.5" customHeight="1">
-      <c r="C1" s="238" t="s">
+    <row r="1" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="344" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-    </row>
-    <row r="2" spans="2:11" ht="12.75"/>
-    <row r="3" spans="2:11" ht="12.75">
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+    </row>
+    <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="12.75">
+    <row r="4" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="39"/>
     </row>
-    <row r="5" spans="2:11" ht="12.75">
+    <row r="5" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
     </row>
-    <row r="6" spans="2:11" ht="12.75">
+    <row r="6" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
     </row>
-    <row r="7" spans="2:11" ht="25.5">
-      <c r="B7" s="239" t="s">
+    <row r="7" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="345" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="189"/>
+      <c r="C7" s="286"/>
       <c r="G7" s="94" t="s">
         <v>100</v>
       </c>
@@ -11550,7 +10943,7 @@
       <c r="I7" s="94"/>
       <c r="J7" s="94"/>
     </row>
-    <row r="8" spans="2:11" ht="12.75">
+    <row r="8" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="94"/>
       <c r="G8" s="94" t="s">
         <v>101</v>
@@ -11558,7 +10951,7 @@
       <c r="H8" s="94"/>
       <c r="I8" s="94"/>
     </row>
-    <row r="9" spans="2:11" ht="12.75">
+    <row r="9" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>102</v>
       </c>
@@ -11582,7 +10975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="12.75">
+    <row r="10" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="90"/>
       <c r="D10" s="49"/>
       <c r="G10" s="50" t="s">
@@ -11591,7 +10984,7 @@
       <c r="J10" s="94"/>
       <c r="K10" s="92"/>
     </row>
-    <row r="11" spans="2:11" ht="25.5">
+    <row r="11" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="46"/>
       <c r="C11" s="47"/>
       <c r="D11" s="48"/>
@@ -11603,7 +10996,7 @@
       </c>
       <c r="K11" s="92"/>
     </row>
-    <row r="12" spans="2:11" ht="12.75">
+    <row r="12" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="90"/>
       <c r="D12" s="49"/>
       <c r="G12" s="50" t="s">
@@ -11611,7 +11004,7 @@
       </c>
       <c r="K12" s="92"/>
     </row>
-    <row r="13" spans="2:11" ht="12.75">
+    <row r="13" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="90"/>
       <c r="D13" s="49"/>
       <c r="G13" s="50" t="s">
@@ -11637,7 +11030,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
@@ -11648,18 +11041,18 @@
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="57" customHeight="1">
+    <row r="1" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="96"/>
       <c r="C1" s="97"/>
-      <c r="D1" s="238" t="s">
+      <c r="D1" s="344" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.75" customHeight="1">
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+    </row>
+    <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="96"/>
       <c r="C2" s="97"/>
       <c r="D2" s="96"/>
@@ -11667,7 +11060,7 @@
       <c r="F2" s="96"/>
       <c r="H2" s="96"/>
     </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1">
+    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="96"/>
       <c r="C3" s="97"/>
       <c r="D3" s="96"/>
@@ -11675,7 +11068,7 @@
       <c r="F3" s="96"/>
       <c r="H3" s="96"/>
     </row>
-    <row r="4" spans="2:8" ht="12.75" customHeight="1">
+    <row r="4" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>114</v>
       </c>
@@ -11687,7 +11080,7 @@
       <c r="F4" s="96"/>
       <c r="H4" s="96"/>
     </row>
-    <row r="5" spans="2:8" ht="12.75">
+    <row r="5" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="96"/>
       <c r="C5" s="97"/>
       <c r="D5" s="98"/>
@@ -11696,7 +11089,7 @@
       <c r="G5" s="98"/>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1">
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="96"/>
       <c r="C6" s="97"/>
       <c r="D6" s="96"/>
@@ -11704,7 +11097,7 @@
       <c r="F6" s="96"/>
       <c r="H6" s="96"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="94" t="s">
         <v>116</v>
       </c>
@@ -11725,7 +11118,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1">
+    <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="97"/>
       <c r="D8" s="102" t="s">
         <v>122</v>
@@ -11735,7 +11128,7 @@
       <c r="G8" s="103"/>
       <c r="H8" s="104"/>
     </row>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1">
+    <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="96"/>
       <c r="C9" s="105"/>
       <c r="D9" s="106"/>
@@ -11744,7 +11137,7 @@
       <c r="G9" s="107"/>
       <c r="H9" s="108"/>
     </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1">
+    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="94" t="s">
         <v>123</v>
       </c>
@@ -11755,7 +11148,7 @@
       <c r="G10" s="110"/>
       <c r="H10" s="111"/>
     </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1">
+    <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>124</v>
       </c>
@@ -11783,7 +11176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -11799,7 +11192,7 @@
     <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21.75" customHeight="1">
+    <row r="2" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="52"/>
       <c r="C2" s="53" t="s">
         <v>125</v>
@@ -11815,20 +11208,20 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="2:13" ht="21.75" customHeight="1">
+    <row r="3" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52"/>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
       <c r="G3" s="53"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-    </row>
-    <row r="4" spans="2:13" ht="21.75" customHeight="1">
+      <c r="H3" s="346"/>
+      <c r="I3" s="286"/>
+      <c r="J3" s="286"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+    </row>
+    <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="84"/>
       <c r="H4" s="84"/>
       <c r="I4" s="84"/>
@@ -11837,7 +11230,7 @@
       <c r="L4" s="84"/>
       <c r="M4" s="84"/>
     </row>
-    <row r="5" spans="2:13" ht="21.75" customHeight="1">
+    <row r="5" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
         <v>10</v>
       </c>
@@ -11855,7 +11248,7 @@
       <c r="L5" s="55"/>
       <c r="M5" s="56"/>
     </row>
-    <row r="6" spans="2:13" ht="21.75" customHeight="1">
+    <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -11869,7 +11262,7 @@
       <c r="L6" s="84"/>
       <c r="M6" s="84"/>
     </row>
-    <row r="7" spans="2:13" ht="21.75" customHeight="1">
+    <row r="7" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>127</v>
       </c>
@@ -11884,7 +11277,7 @@
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
     </row>
-    <row r="8" spans="2:13" ht="21.75" customHeight="1">
+    <row r="8" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="59" t="s">
         <v>128</v>
       </c>
@@ -11910,7 +11303,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="64"/>
     </row>
-    <row r="9" spans="2:13" ht="9.75" customHeight="1">
+    <row r="9" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="66" t="s">
         <v>132</v>
       </c>
@@ -11930,7 +11323,7 @@
       <c r="L9" s="69"/>
       <c r="M9" s="70"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="66" t="s">
         <v>135</v>
       </c>
@@ -11950,7 +11343,7 @@
       <c r="L10" s="69"/>
       <c r="M10" s="70"/>
     </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1">
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="51"/>
@@ -11982,7 +11375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="20.25" customHeight="1">
+    <row r="12" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="77"/>
       <c r="C12" s="78"/>
       <c r="D12" s="79"/>
@@ -11996,7 +11389,7 @@
       <c r="L12" s="84"/>
       <c r="M12" s="81"/>
     </row>
-    <row r="13" spans="2:13" ht="20.25" customHeight="1">
+    <row r="13" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="87" t="s">
         <v>122</v>
       </c>
@@ -12012,7 +11405,7 @@
       <c r="L13" s="84"/>
       <c r="M13" s="81"/>
     </row>
-    <row r="14" spans="2:13" ht="20.25" customHeight="1">
+    <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="83" t="s">
         <v>112</v>
       </c>
@@ -12034,7 +11427,7 @@
       <c r="L14" s="84"/>
       <c r="M14" s="81"/>
     </row>
-    <row r="15" spans="2:13" ht="20.25" customHeight="1">
+    <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="87"/>
       <c r="C15" s="84" t="s">
         <v>142</v>
@@ -12054,7 +11447,7 @@
       <c r="L15" s="84"/>
       <c r="M15" s="81"/>
     </row>
-    <row r="16" spans="2:13" ht="20.25" customHeight="1">
+    <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="87"/>
       <c r="C16" s="84" t="s">
         <v>144</v>
@@ -12072,17 +11465,17 @@
       <c r="L16" s="84"/>
       <c r="M16" s="81"/>
     </row>
-    <row r="20" spans="3:3" ht="20.25" customHeight="1">
+    <row r="20" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="89" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="20.25" customHeight="1">
+    <row r="21" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="89" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="20.25" customHeight="1">
+    <row r="22" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="89" t="s">
         <v>147</v>
       </c>

--- a/document/projet_td_v2.xlsx
+++ b/document/projet_td_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\Tower-Defense-2.0\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1963411\Documents\Tower-Defense-2.0\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D979DB8-97FB-4CF3-A1E3-AF0E81FA61A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0215F9F-572A-4801-8424-52BCB1E6F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BC00F753-7B3B-42D4-93FD-62A5313F9C45}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="639">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -1746,18 +1746,9 @@
     <t xml:space="preserve">(4) Jouer une partie </t>
   </si>
   <si>
-    <t>Placer une tour</t>
-  </si>
-  <si>
     <t>Initialiser la partie</t>
   </si>
   <si>
-    <t xml:space="preserve">Améliorer une tour </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer la priorisation d'une tour </t>
-  </si>
-  <si>
     <t>Vendre une tour</t>
   </si>
   <si>
@@ -1771,12 +1762,6 @@
   </si>
   <si>
     <t>Affiche le aire_de_jeu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initialiser qte_argent, vague, château avec 20 chatelains, </t>
-  </si>
-  <si>
-    <t>Affiche les creeps</t>
   </si>
   <si>
     <t>Game Loop</t>
@@ -1865,9 +1850,6 @@
     <t>Chatelain -1</t>
   </si>
   <si>
-    <t>Incrémente le niveau, et initialise le prochain niveau</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2430,9 +2412,6 @@
   </si>
   <si>
     <t>Amélioration ultime (coûteuse) donne des crédits et/ou des vies supplémentaires pendant la partie</t>
-  </si>
-  <si>
-    <t>resize jeu</t>
   </si>
   <si>
     <t>BOOST</t>
@@ -2470,6 +2449,94 @@
   <si>
     <t>()tour.attaquer()</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Support</t>
+    </r>
+  </si>
+  <si>
+    <t>Tour Repousssante</t>
+  </si>
+  <si>
+    <t>Fait recalculer un certain nombre de creeps</t>
+  </si>
+  <si>
+    <t>Pousse plus fort en supprimant les premierss</t>
+  </si>
+  <si>
+    <t>Tour Boost</t>
+  </si>
+  <si>
+    <t>Permet d'accroitre la zone de visibilité</t>
+  </si>
+  <si>
+    <t>Initialiser qte_argent, vague, château avec 20 chatelains</t>
+  </si>
+  <si>
+    <t>Genere des creeps en suivant l'algorithme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithme:FOR 
+   IF random() &lt; 0.05 THEN
+	creep.resistance_poison  = 5
+		</t>
+  </si>
+  <si>
+    <t>click sur changer tour</t>
+  </si>
+  <si>
+    <t>affiche le menu de tour</t>
+  </si>
+  <si>
+    <t>changer la priorisation de cible</t>
+  </si>
+  <si>
+    <t>Changer la priorisation de cible</t>
+  </si>
+  <si>
+    <t>redimensionner jeu</t>
+  </si>
+  <si>
+    <t>redimensionne fenêtre de jeu</t>
+  </si>
+  <si>
+    <t>resize_jeu()</t>
+  </si>
+  <si>
+    <t>resize jeu():</t>
+  </si>
+  <si>
+    <t>Ouvre menu type de creep/upgrade tour</t>
+  </si>
+  <si>
+    <t>tour enregistre instance of creep et les choisi lors de boucle attaquer</t>
+  </si>
+  <si>
+    <t>retour au tableau</t>
+  </si>
+  <si>
+    <t>click sur:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clique sur une tour </t>
+  </si>
+  <si>
+    <t>Clique sur un creep (Choisi creep a attaquer)</t>
+  </si>
 </sst>
 </file>
 
@@ -2480,7 +2547,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2650,8 +2717,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2802,8 +2882,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="88">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -3860,12 +3958,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4355,7 +4468,6 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4365,7 +4477,6 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4410,9 +4521,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4539,11 +4647,14 @@
     <xf numFmtId="0" fontId="16" fillId="18" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4563,6 +4674,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4587,16 +4785,34 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4605,110 +4821,11 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4729,14 +4846,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5438,22 +5598,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="285"/>
-      <c r="G36" s="286"/>
-      <c r="H36" s="286"/>
-      <c r="I36" s="286"/>
+      <c r="F36" s="283"/>
+      <c r="G36" s="284"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="284"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="286"/>
-      <c r="G37" s="286"/>
-      <c r="H37" s="286"/>
-      <c r="I37" s="286"/>
+      <c r="F37" s="284"/>
+      <c r="G37" s="284"/>
+      <c r="H37" s="284"/>
+      <c r="I37" s="284"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="286"/>
-      <c r="G38" s="286"/>
-      <c r="H38" s="286"/>
-      <c r="I38" s="286"/>
+      <c r="F38" s="284"/>
+      <c r="G38" s="284"/>
+      <c r="H38" s="284"/>
+      <c r="I38" s="284"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="93"/>
@@ -5462,22 +5622,22 @@
       <c r="I39" s="93"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="285"/>
-      <c r="G40" s="286"/>
-      <c r="H40" s="286"/>
-      <c r="I40" s="286"/>
+      <c r="F40" s="283"/>
+      <c r="G40" s="284"/>
+      <c r="H40" s="284"/>
+      <c r="I40" s="284"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="286"/>
-      <c r="G41" s="286"/>
-      <c r="H41" s="286"/>
-      <c r="I41" s="286"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="284"/>
+      <c r="H41" s="284"/>
+      <c r="I41" s="284"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="286"/>
-      <c r="G42" s="286"/>
-      <c r="H42" s="286"/>
-      <c r="I42" s="286"/>
+      <c r="F42" s="284"/>
+      <c r="G42" s="284"/>
+      <c r="H42" s="284"/>
+      <c r="I42" s="284"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="93"/>
@@ -5492,34 +5652,34 @@
       <c r="I44" s="93"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="285"/>
-      <c r="G45" s="286"/>
-      <c r="H45" s="286"/>
-      <c r="I45" s="286"/>
+      <c r="F45" s="283"/>
+      <c r="G45" s="284"/>
+      <c r="H45" s="284"/>
+      <c r="I45" s="284"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="286"/>
-      <c r="G46" s="286"/>
-      <c r="H46" s="286"/>
-      <c r="I46" s="286"/>
+      <c r="F46" s="284"/>
+      <c r="G46" s="284"/>
+      <c r="H46" s="284"/>
+      <c r="I46" s="284"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="286"/>
-      <c r="G47" s="286"/>
-      <c r="H47" s="286"/>
-      <c r="I47" s="286"/>
+      <c r="F47" s="284"/>
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="286"/>
-      <c r="G48" s="286"/>
-      <c r="H48" s="286"/>
-      <c r="I48" s="286"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="284"/>
+      <c r="H48" s="284"/>
+      <c r="I48" s="284"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="286"/>
-      <c r="G49" s="286"/>
-      <c r="H49" s="286"/>
-      <c r="I49" s="286"/>
+      <c r="F49" s="284"/>
+      <c r="G49" s="284"/>
+      <c r="H49" s="284"/>
+      <c r="I49" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5639,7 +5799,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="287" t="s">
+      <c r="B13" s="285" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="120" t="s">
@@ -5653,7 +5813,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="288"/>
+      <c r="B14" s="286"/>
       <c r="C14" s="114" t="s">
         <v>237</v>
       </c>
@@ -5665,7 +5825,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="288"/>
+      <c r="B15" s="286"/>
       <c r="C15" s="116" t="s">
         <v>385</v>
       </c>
@@ -5677,7 +5837,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="288"/>
+      <c r="B16" s="286"/>
       <c r="C16" s="114" t="s">
         <v>149</v>
       </c>
@@ -5689,7 +5849,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="288"/>
+      <c r="B17" s="286"/>
       <c r="C17" s="116" t="s">
         <v>387</v>
       </c>
@@ -5701,7 +5861,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="288"/>
+      <c r="B18" s="286"/>
       <c r="C18" s="114" t="s">
         <v>179</v>
       </c>
@@ -5713,7 +5873,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="288"/>
+      <c r="B19" s="286"/>
       <c r="C19" s="114" t="s">
         <v>202</v>
       </c>
@@ -5725,7 +5885,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="288"/>
+      <c r="B20" s="286"/>
       <c r="C20" s="116" t="s">
         <v>422</v>
       </c>
@@ -5737,7 +5897,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="288"/>
+      <c r="B21" s="286"/>
       <c r="C21" s="116" t="s">
         <v>367</v>
       </c>
@@ -5749,7 +5909,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="288"/>
+      <c r="B22" s="286"/>
       <c r="C22" s="116" t="s">
         <v>359</v>
       </c>
@@ -5761,7 +5921,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="288"/>
+      <c r="B23" s="286"/>
       <c r="C23" s="116" t="s">
         <v>349</v>
       </c>
@@ -5773,7 +5933,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="288"/>
+      <c r="B24" s="286"/>
       <c r="C24" s="114" t="s">
         <v>253</v>
       </c>
@@ -5785,7 +5945,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="288"/>
+      <c r="B25" s="286"/>
       <c r="C25" s="114" t="s">
         <v>176</v>
       </c>
@@ -5797,7 +5957,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="288"/>
+      <c r="B26" s="286"/>
       <c r="C26" s="116" t="s">
         <v>302</v>
       </c>
@@ -5809,7 +5969,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="288"/>
+      <c r="B27" s="286"/>
       <c r="C27" s="116" t="s">
         <v>370</v>
       </c>
@@ -5821,7 +5981,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="288"/>
+      <c r="B28" s="286"/>
       <c r="C28" s="114" t="s">
         <v>194</v>
       </c>
@@ -5833,7 +5993,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="288"/>
+      <c r="B29" s="286"/>
       <c r="C29" s="114" t="s">
         <v>265</v>
       </c>
@@ -5845,7 +6005,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="288"/>
+      <c r="B30" s="286"/>
       <c r="C30" s="114" t="s">
         <v>232</v>
       </c>
@@ -5857,7 +6017,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="288"/>
+      <c r="B31" s="286"/>
       <c r="C31" s="114" t="s">
         <v>156</v>
       </c>
@@ -5869,7 +6029,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="288"/>
+      <c r="B32" s="286"/>
       <c r="C32" s="114" t="s">
         <v>255</v>
       </c>
@@ -5881,7 +6041,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="288"/>
+      <c r="B33" s="286"/>
       <c r="C33" s="116" t="s">
         <v>255</v>
       </c>
@@ -5893,7 +6053,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="288"/>
+      <c r="B34" s="286"/>
       <c r="C34" s="114" t="s">
         <v>220</v>
       </c>
@@ -5905,7 +6065,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="288"/>
+      <c r="B35" s="286"/>
       <c r="C35" s="116" t="s">
         <v>381</v>
       </c>
@@ -5917,7 +6077,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="288"/>
+      <c r="B36" s="286"/>
       <c r="C36" s="114" t="s">
         <v>247</v>
       </c>
@@ -5929,7 +6089,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="288"/>
+      <c r="B37" s="286"/>
       <c r="C37" s="116" t="s">
         <v>304</v>
       </c>
@@ -5941,7 +6101,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="288"/>
+      <c r="B38" s="286"/>
       <c r="C38" s="116" t="s">
         <v>411</v>
       </c>
@@ -5953,7 +6113,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="288"/>
+      <c r="B39" s="286"/>
       <c r="C39" s="116" t="s">
         <v>366</v>
       </c>
@@ -5965,7 +6125,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="288"/>
+      <c r="B40" s="286"/>
       <c r="C40" s="116" t="s">
         <v>373</v>
       </c>
@@ -5977,7 +6137,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="288"/>
+      <c r="B41" s="286"/>
       <c r="C41" s="116" t="s">
         <v>417</v>
       </c>
@@ -5989,7 +6149,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="288"/>
+      <c r="B42" s="286"/>
       <c r="C42" s="116" t="s">
         <v>269</v>
       </c>
@@ -6001,7 +6161,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="288"/>
+      <c r="B43" s="286"/>
       <c r="C43" s="114" t="s">
         <v>153</v>
       </c>
@@ -6013,7 +6173,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="288"/>
+      <c r="B44" s="286"/>
       <c r="C44" s="114" t="s">
         <v>267</v>
       </c>
@@ -6025,7 +6185,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="288"/>
+      <c r="B45" s="286"/>
       <c r="C45" s="116" t="s">
         <v>301</v>
       </c>
@@ -6037,7 +6197,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="288"/>
+      <c r="B46" s="286"/>
       <c r="C46" s="114" t="s">
         <v>249</v>
       </c>
@@ -6049,7 +6209,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="288"/>
+      <c r="B47" s="286"/>
       <c r="C47" s="116" t="s">
         <v>308</v>
       </c>
@@ -6061,7 +6221,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="288"/>
+      <c r="B48" s="286"/>
       <c r="C48" s="116" t="s">
         <v>426</v>
       </c>
@@ -6073,7 +6233,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="288"/>
+      <c r="B49" s="286"/>
       <c r="C49" s="116" t="s">
         <v>347</v>
       </c>
@@ -6085,7 +6245,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="288"/>
+      <c r="B50" s="286"/>
       <c r="C50" s="114" t="s">
         <v>217</v>
       </c>
@@ -6097,7 +6257,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="288"/>
+      <c r="B51" s="286"/>
       <c r="C51" s="116" t="s">
         <v>380</v>
       </c>
@@ -6109,7 +6269,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="288"/>
+      <c r="B52" s="286"/>
       <c r="C52" s="116" t="s">
         <v>375</v>
       </c>
@@ -6121,7 +6281,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="288"/>
+      <c r="B53" s="286"/>
       <c r="C53" s="114" t="s">
         <v>185</v>
       </c>
@@ -6133,7 +6293,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="288"/>
+      <c r="B54" s="286"/>
       <c r="C54" s="116" t="s">
         <v>290</v>
       </c>
@@ -6145,7 +6305,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="288"/>
+      <c r="B55" s="286"/>
       <c r="C55" s="116" t="s">
         <v>348</v>
       </c>
@@ -6157,7 +6317,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="288"/>
+      <c r="B56" s="286"/>
       <c r="C56" s="116" t="s">
         <v>374</v>
       </c>
@@ -6169,7 +6329,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="288"/>
+      <c r="B57" s="286"/>
       <c r="C57" s="116" t="s">
         <v>397</v>
       </c>
@@ -6181,7 +6341,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="288"/>
+      <c r="B58" s="286"/>
       <c r="C58" s="116" t="s">
         <v>289</v>
       </c>
@@ -6193,7 +6353,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="288"/>
+      <c r="B59" s="286"/>
       <c r="C59" s="116" t="s">
         <v>372</v>
       </c>
@@ -6205,7 +6365,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="288"/>
+      <c r="B60" s="286"/>
       <c r="C60" s="114" t="s">
         <v>173</v>
       </c>
@@ -6217,7 +6377,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="288"/>
+      <c r="B61" s="286"/>
       <c r="C61" s="114" t="s">
         <v>259</v>
       </c>
@@ -6229,7 +6389,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="288"/>
+      <c r="B62" s="286"/>
       <c r="C62" s="116" t="s">
         <v>193</v>
       </c>
@@ -6241,7 +6401,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="288"/>
+      <c r="B63" s="286"/>
       <c r="C63" s="116" t="s">
         <v>282</v>
       </c>
@@ -6253,7 +6413,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="288"/>
+      <c r="B64" s="286"/>
       <c r="C64" s="116" t="s">
         <v>350</v>
       </c>
@@ -6265,7 +6425,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="288"/>
+      <c r="B65" s="286"/>
       <c r="C65" s="116" t="s">
         <v>294</v>
       </c>
@@ -6277,7 +6437,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="288"/>
+      <c r="B66" s="286"/>
       <c r="C66" s="116" t="s">
         <v>292</v>
       </c>
@@ -6289,7 +6449,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="288"/>
+      <c r="B67" s="286"/>
       <c r="C67" s="116" t="s">
         <v>286</v>
       </c>
@@ -6301,7 +6461,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="288"/>
+      <c r="B68" s="286"/>
       <c r="C68" s="114" t="s">
         <v>258</v>
       </c>
@@ -6313,7 +6473,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="288"/>
+      <c r="B69" s="286"/>
       <c r="C69" s="116" t="s">
         <v>423</v>
       </c>
@@ -6325,7 +6485,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="288"/>
+      <c r="B70" s="286"/>
       <c r="C70" s="114" t="s">
         <v>191</v>
       </c>
@@ -6337,7 +6497,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="288"/>
+      <c r="B71" s="286"/>
       <c r="C71" s="114" t="s">
         <v>162</v>
       </c>
@@ -6349,7 +6509,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="288"/>
+      <c r="B72" s="286"/>
       <c r="C72" s="114" t="s">
         <v>252</v>
       </c>
@@ -6361,7 +6521,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="288"/>
+      <c r="B73" s="286"/>
       <c r="C73" s="116" t="s">
         <v>312</v>
       </c>
@@ -6373,7 +6533,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="288"/>
+      <c r="B74" s="286"/>
       <c r="C74" s="114" t="s">
         <v>257</v>
       </c>
@@ -6385,7 +6545,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="288"/>
+      <c r="B75" s="286"/>
       <c r="C75" s="114" t="s">
         <v>211</v>
       </c>
@@ -6397,7 +6557,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="288"/>
+      <c r="B76" s="286"/>
       <c r="C76" s="114" t="s">
         <v>223</v>
       </c>
@@ -6409,7 +6569,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="288"/>
+      <c r="B77" s="286"/>
       <c r="C77" s="116" t="s">
         <v>344</v>
       </c>
@@ -6421,7 +6581,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="288"/>
+      <c r="B78" s="286"/>
       <c r="C78" s="114" t="s">
         <v>262</v>
       </c>
@@ -6433,7 +6593,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="288"/>
+      <c r="B79" s="286"/>
       <c r="C79" s="116" t="s">
         <v>322</v>
       </c>
@@ -6445,7 +6605,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="288"/>
+      <c r="B80" s="286"/>
       <c r="C80" s="116" t="s">
         <v>293</v>
       </c>
@@ -6457,7 +6617,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="288"/>
+      <c r="B81" s="286"/>
       <c r="C81" s="116" t="s">
         <v>74</v>
       </c>
@@ -6469,7 +6629,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="289"/>
+      <c r="B82" s="287"/>
       <c r="C82" s="114" t="s">
         <v>266</v>
       </c>
@@ -6481,7 +6641,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="289"/>
+      <c r="B83" s="287"/>
       <c r="C83" s="116" t="s">
         <v>391</v>
       </c>
@@ -6493,7 +6653,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="289"/>
+      <c r="B84" s="287"/>
       <c r="C84" s="116" t="s">
         <v>377</v>
       </c>
@@ -6505,7 +6665,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="289"/>
+      <c r="B85" s="287"/>
       <c r="C85" s="114" t="s">
         <v>205</v>
       </c>
@@ -6517,7 +6677,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="289"/>
+      <c r="B86" s="287"/>
       <c r="C86" s="114" t="s">
         <v>273</v>
       </c>
@@ -6529,7 +6689,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="289"/>
+      <c r="B87" s="287"/>
       <c r="C87" s="114" t="s">
         <v>170</v>
       </c>
@@ -6541,7 +6701,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="289"/>
+      <c r="B88" s="287"/>
       <c r="C88" s="114" t="s">
         <v>245</v>
       </c>
@@ -6553,7 +6713,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="289"/>
+      <c r="B89" s="287"/>
       <c r="C89" s="116" t="s">
         <v>320</v>
       </c>
@@ -6565,7 +6725,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="289"/>
+      <c r="B90" s="287"/>
       <c r="C90" s="114" t="s">
         <v>229</v>
       </c>
@@ -6575,7 +6735,7 @@
       <c r="E90" s="118"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="289"/>
+      <c r="B91" s="287"/>
       <c r="C91" s="116" t="s">
         <v>229</v>
       </c>
@@ -6585,7 +6745,7 @@
       <c r="E91" s="118"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="289"/>
+      <c r="B92" s="287"/>
       <c r="C92" s="114" t="s">
         <v>243</v>
       </c>
@@ -6595,7 +6755,7 @@
       <c r="E92" s="118"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="289"/>
+      <c r="B93" s="287"/>
       <c r="C93" s="116" t="s">
         <v>371</v>
       </c>
@@ -6605,7 +6765,7 @@
       <c r="E93" s="118"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="289"/>
+      <c r="B94" s="287"/>
       <c r="C94" s="114" t="s">
         <v>261</v>
       </c>
@@ -6615,14 +6775,14 @@
       <c r="E94" s="118"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="289"/>
+      <c r="B95" s="287"/>
       <c r="C95" s="115" t="s">
         <v>409</v>
       </c>
       <c r="E95" s="113"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="289"/>
+      <c r="B96" s="287"/>
       <c r="C96" s="116" t="s">
         <v>279</v>
       </c>
@@ -6630,7 +6790,7 @@
       <c r="E96" s="118"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="289"/>
+      <c r="B97" s="287"/>
       <c r="C97" s="116" t="s">
         <v>331</v>
       </c>
@@ -6638,7 +6798,7 @@
       <c r="E97" s="118"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="289"/>
+      <c r="B98" s="287"/>
       <c r="C98" s="116" t="s">
         <v>337</v>
       </c>
@@ -6646,7 +6806,7 @@
       <c r="E98" s="118"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="289"/>
+      <c r="B99" s="287"/>
       <c r="C99" s="116" t="s">
         <v>356</v>
       </c>
@@ -6654,7 +6814,7 @@
       <c r="E99" s="118"/>
     </row>
     <row r="100" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="289"/>
+      <c r="B100" s="287"/>
       <c r="C100" s="116" t="s">
         <v>364</v>
       </c>
@@ -6662,7 +6822,7 @@
       <c r="E100" s="118"/>
     </row>
     <row r="101" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="289"/>
+      <c r="B101" s="287"/>
       <c r="C101" s="116" t="s">
         <v>315</v>
       </c>
@@ -6670,7 +6830,7 @@
       <c r="E101" s="118"/>
     </row>
     <row r="102" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="289"/>
+      <c r="B102" s="287"/>
       <c r="C102" s="114" t="s">
         <v>208</v>
       </c>
@@ -6678,7 +6838,7 @@
       <c r="E102" s="118"/>
     </row>
     <row r="103" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="289"/>
+      <c r="B103" s="287"/>
       <c r="C103" s="116" t="s">
         <v>351</v>
       </c>
@@ -6686,7 +6846,7 @@
       <c r="E103" s="118"/>
     </row>
     <row r="104" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="289"/>
+      <c r="B104" s="287"/>
       <c r="C104" s="114" t="s">
         <v>197</v>
       </c>
@@ -6694,7 +6854,7 @@
       <c r="E104" s="118"/>
     </row>
     <row r="105" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="289"/>
+      <c r="B105" s="287"/>
       <c r="C105" s="114" t="s">
         <v>240</v>
       </c>
@@ -6702,7 +6862,7 @@
       <c r="E105" s="118"/>
     </row>
     <row r="106" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="289"/>
+      <c r="B106" s="287"/>
       <c r="C106" s="116" t="s">
         <v>384</v>
       </c>
@@ -6710,7 +6870,7 @@
       <c r="E106" s="118"/>
     </row>
     <row r="107" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="289"/>
+      <c r="B107" s="287"/>
       <c r="C107" s="114" t="s">
         <v>254</v>
       </c>
@@ -6718,7 +6878,7 @@
       <c r="E107" s="118"/>
     </row>
     <row r="108" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="289"/>
+      <c r="B108" s="287"/>
       <c r="C108" s="114" t="s">
         <v>251</v>
       </c>
@@ -6726,7 +6886,7 @@
       <c r="E108" s="118"/>
     </row>
     <row r="109" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="289"/>
+      <c r="B109" s="287"/>
       <c r="C109" s="114" t="s">
         <v>263</v>
       </c>
@@ -6734,7 +6894,7 @@
       <c r="E109" s="118"/>
     </row>
     <row r="110" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="289"/>
+      <c r="B110" s="287"/>
       <c r="C110" s="116" t="s">
         <v>342</v>
       </c>
@@ -6742,7 +6902,7 @@
       <c r="E110" s="118"/>
     </row>
     <row r="111" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="289"/>
+      <c r="B111" s="287"/>
       <c r="C111" s="116" t="s">
         <v>148</v>
       </c>
@@ -6750,7 +6910,7 @@
       <c r="E111" s="118"/>
     </row>
     <row r="112" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="289"/>
+      <c r="B112" s="287"/>
       <c r="C112" s="114" t="s">
         <v>264</v>
       </c>
@@ -6758,7 +6918,7 @@
       <c r="E112" s="118"/>
     </row>
     <row r="113" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="289"/>
+      <c r="B113" s="287"/>
       <c r="C113" s="116" t="s">
         <v>354</v>
       </c>
@@ -6766,7 +6926,7 @@
       <c r="E113" s="118"/>
     </row>
     <row r="114" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="289"/>
+      <c r="B114" s="287"/>
       <c r="C114" s="116" t="s">
         <v>336</v>
       </c>
@@ -6774,7 +6934,7 @@
       <c r="E114" s="118"/>
     </row>
     <row r="115" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="289"/>
+      <c r="B115" s="287"/>
       <c r="C115" s="114" t="s">
         <v>260</v>
       </c>
@@ -6782,7 +6942,7 @@
       <c r="E115" s="118"/>
     </row>
     <row r="116" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="289"/>
+      <c r="B116" s="287"/>
       <c r="C116" s="114" t="s">
         <v>159</v>
       </c>
@@ -6790,7 +6950,7 @@
       <c r="E116" s="118"/>
     </row>
     <row r="117" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="289"/>
+      <c r="B117" s="287"/>
       <c r="C117" s="116" t="s">
         <v>346</v>
       </c>
@@ -6798,7 +6958,7 @@
       <c r="E117" s="118"/>
     </row>
     <row r="118" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="289"/>
+      <c r="B118" s="287"/>
       <c r="C118" s="116" t="s">
         <v>321</v>
       </c>
@@ -6806,7 +6966,7 @@
       <c r="E118" s="118"/>
     </row>
     <row r="119" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="289"/>
+      <c r="B119" s="287"/>
       <c r="C119" s="116" t="s">
         <v>329</v>
       </c>
@@ -6814,7 +6974,7 @@
       <c r="E119" s="118"/>
     </row>
     <row r="120" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="289"/>
+      <c r="B120" s="287"/>
       <c r="C120" s="114" t="s">
         <v>182</v>
       </c>
@@ -6822,7 +6982,7 @@
       <c r="E120" s="118"/>
     </row>
     <row r="121" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="289"/>
+      <c r="B121" s="287"/>
       <c r="C121" s="116" t="s">
         <v>306</v>
       </c>
@@ -6830,7 +6990,7 @@
       <c r="E121" s="118"/>
     </row>
     <row r="122" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="289"/>
+      <c r="B122" s="287"/>
       <c r="C122" s="114" t="s">
         <v>188</v>
       </c>
@@ -6838,7 +6998,7 @@
       <c r="E122" s="118"/>
     </row>
     <row r="123" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="289"/>
+      <c r="B123" s="287"/>
       <c r="C123" s="116" t="s">
         <v>188</v>
       </c>
@@ -6846,7 +7006,7 @@
       <c r="E123" s="118"/>
     </row>
     <row r="124" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="289"/>
+      <c r="B124" s="287"/>
       <c r="C124" s="116" t="s">
         <v>291</v>
       </c>
@@ -6854,7 +7014,7 @@
       <c r="E124" s="118"/>
     </row>
     <row r="125" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="289"/>
+      <c r="B125" s="287"/>
       <c r="C125" s="114" t="s">
         <v>226</v>
       </c>
@@ -6862,7 +7022,7 @@
       <c r="E125" s="118"/>
     </row>
     <row r="126" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="289"/>
+      <c r="B126" s="287"/>
       <c r="C126" s="114" t="s">
         <v>214</v>
       </c>
@@ -6870,7 +7030,7 @@
       <c r="E126" s="118"/>
     </row>
     <row r="127" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="289"/>
+      <c r="B127" s="287"/>
       <c r="C127" s="114" t="s">
         <v>234</v>
       </c>
@@ -6878,7 +7038,7 @@
       <c r="E127" s="118"/>
     </row>
     <row r="128" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="289"/>
+      <c r="B128" s="287"/>
       <c r="C128" s="114" t="s">
         <v>165</v>
       </c>
@@ -6886,7 +7046,7 @@
       <c r="E128" s="118"/>
     </row>
     <row r="129" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="289"/>
+      <c r="B129" s="287"/>
       <c r="C129" s="114" t="s">
         <v>268</v>
       </c>
@@ -6894,7 +7054,7 @@
       <c r="E129" s="118"/>
     </row>
     <row r="130" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="289"/>
+      <c r="B130" s="287"/>
       <c r="C130" s="116" t="s">
         <v>378</v>
       </c>
@@ -6902,7 +7062,7 @@
       <c r="E130" s="118"/>
     </row>
     <row r="131" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="289"/>
+      <c r="B131" s="287"/>
       <c r="C131" s="116" t="s">
         <v>283</v>
       </c>
@@ -6910,7 +7070,7 @@
       <c r="E131" s="118"/>
     </row>
     <row r="132" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="289"/>
+      <c r="B132" s="287"/>
       <c r="C132" s="116" t="s">
         <v>389</v>
       </c>
@@ -6918,7 +7078,7 @@
       <c r="E132" s="118"/>
     </row>
     <row r="133" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="289"/>
+      <c r="B133" s="287"/>
       <c r="C133" s="116" t="s">
         <v>324</v>
       </c>
@@ -6926,7 +7086,7 @@
       <c r="E133" s="118"/>
     </row>
     <row r="134" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="289"/>
+      <c r="B134" s="287"/>
       <c r="C134" s="116" t="s">
         <v>280</v>
       </c>
@@ -6934,7 +7094,7 @@
       <c r="E134" s="118"/>
     </row>
     <row r="135" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="289"/>
+      <c r="B135" s="287"/>
       <c r="C135" s="114" t="s">
         <v>256</v>
       </c>
@@ -6942,7 +7102,7 @@
       <c r="E135" s="118"/>
     </row>
     <row r="136" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="289"/>
+      <c r="B136" s="287"/>
       <c r="C136" s="116" t="s">
         <v>196</v>
       </c>
@@ -6950,7 +7110,7 @@
       <c r="E136" s="118"/>
     </row>
     <row r="137" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="289"/>
+      <c r="B137" s="287"/>
       <c r="C137" s="116" t="s">
         <v>369</v>
       </c>
@@ -6958,7 +7118,7 @@
       <c r="E137" s="118"/>
     </row>
     <row r="138" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="289"/>
+      <c r="B138" s="287"/>
       <c r="C138" s="116" t="s">
         <v>395</v>
       </c>
@@ -6966,79 +7126,79 @@
       <c r="E138" s="118"/>
     </row>
     <row r="139" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="289"/>
+      <c r="B139" s="287"/>
       <c r="C139" s="116"/>
       <c r="D139" s="113"/>
       <c r="E139" s="118"/>
     </row>
     <row r="140" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="289"/>
+      <c r="B140" s="287"/>
       <c r="C140" s="116"/>
       <c r="D140" s="113"/>
       <c r="E140" s="118"/>
     </row>
     <row r="141" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="289"/>
+      <c r="B141" s="287"/>
       <c r="C141" s="116"/>
       <c r="D141" s="113"/>
       <c r="E141" s="118"/>
     </row>
     <row r="142" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="289"/>
+      <c r="B142" s="287"/>
       <c r="C142" s="116"/>
       <c r="D142" s="113"/>
       <c r="E142" s="118"/>
     </row>
     <row r="143" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="289"/>
+      <c r="B143" s="287"/>
       <c r="C143" s="116"/>
       <c r="D143" s="113"/>
       <c r="E143" s="118"/>
     </row>
     <row r="144" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="289"/>
+      <c r="B144" s="287"/>
       <c r="C144" s="116"/>
       <c r="D144" s="113"/>
       <c r="E144" s="118"/>
     </row>
     <row r="145" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="289"/>
+      <c r="B145" s="287"/>
       <c r="C145" s="116"/>
       <c r="D145" s="113"/>
       <c r="E145" s="118"/>
     </row>
     <row r="146" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="289"/>
+      <c r="B146" s="287"/>
       <c r="C146" s="116"/>
       <c r="D146" s="113"/>
       <c r="E146" s="118"/>
     </row>
     <row r="147" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="289"/>
+      <c r="B147" s="287"/>
       <c r="C147" s="116"/>
       <c r="D147" s="113"/>
       <c r="E147" s="118"/>
     </row>
     <row r="148" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="289"/>
+      <c r="B148" s="287"/>
       <c r="C148" s="116"/>
       <c r="D148" s="113"/>
       <c r="E148" s="118"/>
     </row>
     <row r="149" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="289"/>
+      <c r="B149" s="287"/>
       <c r="C149" s="116"/>
       <c r="D149" s="113"/>
       <c r="E149" s="118"/>
     </row>
     <row r="150" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="289"/>
+      <c r="B150" s="287"/>
       <c r="C150" s="116"/>
       <c r="D150" s="113"/>
       <c r="E150" s="118"/>
     </row>
     <row r="151" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="287" t="s">
+      <c r="B151" s="285" t="s">
         <v>60</v>
       </c>
       <c r="C151" s="120" t="s">
@@ -7048,7 +7208,7 @@
       <c r="E151" s="121"/>
     </row>
     <row r="152" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="289"/>
+      <c r="B152" s="287"/>
       <c r="C152" s="116" t="s">
         <v>398</v>
       </c>
@@ -7056,49 +7216,49 @@
       <c r="E152" s="118"/>
     </row>
     <row r="153" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="289"/>
+      <c r="B153" s="287"/>
       <c r="C153" s="116"/>
       <c r="D153" s="113"/>
       <c r="E153" s="118"/>
     </row>
     <row r="154" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="289"/>
+      <c r="B154" s="287"/>
       <c r="C154" s="116"/>
       <c r="D154" s="113"/>
       <c r="E154" s="118"/>
     </row>
     <row r="155" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="289"/>
+      <c r="B155" s="287"/>
       <c r="C155" s="116"/>
       <c r="D155" s="113"/>
       <c r="E155" s="118"/>
     </row>
     <row r="156" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="289"/>
+      <c r="B156" s="287"/>
       <c r="C156" s="116"/>
       <c r="D156" s="113"/>
       <c r="E156" s="118"/>
     </row>
     <row r="157" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="289"/>
+      <c r="B157" s="287"/>
       <c r="C157" s="116"/>
       <c r="D157" s="113"/>
       <c r="E157" s="118"/>
     </row>
     <row r="158" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="289"/>
+      <c r="B158" s="287"/>
       <c r="C158" s="116"/>
       <c r="D158" s="113"/>
       <c r="E158" s="118"/>
     </row>
     <row r="159" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="290"/>
+      <c r="B159" s="288"/>
       <c r="C159" s="122"/>
       <c r="D159" s="127"/>
       <c r="E159" s="119"/>
     </row>
     <row r="160" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="287" t="s">
+      <c r="B160" s="285" t="s">
         <v>61</v>
       </c>
       <c r="C160" s="120"/>
@@ -7106,55 +7266,55 @@
       <c r="E160" s="121"/>
     </row>
     <row r="161" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="289"/>
+      <c r="B161" s="287"/>
       <c r="C161" s="116"/>
       <c r="D161" s="113"/>
       <c r="E161" s="118"/>
     </row>
     <row r="162" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="289"/>
+      <c r="B162" s="287"/>
       <c r="C162" s="116"/>
       <c r="D162" s="113"/>
       <c r="E162" s="118"/>
     </row>
     <row r="163" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="289"/>
+      <c r="B163" s="287"/>
       <c r="C163" s="116"/>
       <c r="D163" s="113"/>
       <c r="E163" s="118"/>
     </row>
     <row r="164" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="289"/>
+      <c r="B164" s="287"/>
       <c r="C164" s="116"/>
       <c r="D164" s="113"/>
       <c r="E164" s="118"/>
     </row>
     <row r="165" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="289"/>
+      <c r="B165" s="287"/>
       <c r="C165" s="116"/>
       <c r="D165" s="113"/>
       <c r="E165" s="118"/>
     </row>
     <row r="166" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="289"/>
+      <c r="B166" s="287"/>
       <c r="C166" s="116"/>
       <c r="D166" s="113"/>
       <c r="E166" s="118"/>
     </row>
     <row r="167" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="289"/>
+      <c r="B167" s="287"/>
       <c r="C167" s="116"/>
       <c r="D167" s="113"/>
       <c r="E167" s="118"/>
     </row>
     <row r="168" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="289"/>
+      <c r="B168" s="287"/>
       <c r="C168" s="114"/>
       <c r="D168" s="113"/>
       <c r="E168" s="118"/>
     </row>
     <row r="169" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="290"/>
+      <c r="B169" s="288"/>
       <c r="C169" s="123"/>
       <c r="D169" s="127"/>
       <c r="E169" s="119"/>
@@ -7178,10 +7338,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Q227"/>
+  <dimension ref="A2:Q259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M216" sqref="M216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7222,22 +7382,22 @@
     </row>
     <row r="3" spans="2:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="140"/>
-      <c r="C3" s="305" t="s">
+      <c r="C3" s="330" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
       <c r="K3" s="139" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="146"/>
-      <c r="C4" s="307" t="s">
+      <c r="C4" s="332" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
       <c r="K4" s="148"/>
     </row>
     <row r="5" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -7351,13 +7511,13 @@
         <v>432</v>
       </c>
       <c r="L11" s="162"/>
-      <c r="N11" s="247" t="s">
-        <v>587</v>
-      </c>
-      <c r="P11" s="348" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q11" s="348"/>
+      <c r="N11" s="244" t="s">
+        <v>581</v>
+      </c>
+      <c r="P11" s="338" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q11" s="338"/>
     </row>
     <row r="12" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="141"/>
@@ -7371,12 +7531,12 @@
       <c r="J12" s="164"/>
       <c r="K12" s="168"/>
       <c r="L12" s="164"/>
-      <c r="N12" s="248" t="s">
-        <v>538</v>
-      </c>
-      <c r="P12" s="347"/>
-      <c r="Q12" s="247" t="s">
-        <v>587</v>
+      <c r="N12" s="245" t="s">
+        <v>532</v>
+      </c>
+      <c r="P12" s="339"/>
+      <c r="Q12" s="244" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7391,12 +7551,12 @@
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
-      <c r="K13" s="311" t="s">
+      <c r="K13" s="289" t="s">
         <v>477</v>
       </c>
       <c r="L13" s="151"/>
-      <c r="N13" s="231"/>
-      <c r="P13" s="347"/>
+      <c r="N13" s="229"/>
+      <c r="P13" s="339"/>
     </row>
     <row r="14" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="146"/>
@@ -7410,12 +7570,12 @@
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
-      <c r="K14" s="312"/>
+      <c r="K14" s="290"/>
       <c r="L14" s="151"/>
-      <c r="N14" s="249" t="s">
-        <v>539</v>
-      </c>
-      <c r="P14" s="347"/>
+      <c r="N14" s="246" t="s">
+        <v>533</v>
+      </c>
+      <c r="P14" s="339"/>
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="146"/>
@@ -7429,14 +7589,14 @@
       <c r="H15" s="151"/>
       <c r="I15" s="169"/>
       <c r="J15" s="151"/>
-      <c r="K15" s="312"/>
+      <c r="K15" s="290"/>
       <c r="L15" s="151"/>
-      <c r="N15" s="250" t="s">
+      <c r="N15" s="247" t="s">
+        <v>534</v>
+      </c>
+      <c r="P15" s="339"/>
+      <c r="Q15" s="244" t="s">
         <v>540</v>
-      </c>
-      <c r="P15" s="347"/>
-      <c r="Q15" s="247" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7451,12 +7611,12 @@
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
       <c r="J16" s="151"/>
-      <c r="K16" s="312"/>
+      <c r="K16" s="290"/>
       <c r="L16" s="151"/>
-      <c r="N16" s="251" t="s">
-        <v>541</v>
-      </c>
-      <c r="P16" s="347"/>
+      <c r="N16" s="248" t="s">
+        <v>535</v>
+      </c>
+      <c r="P16" s="339"/>
     </row>
     <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="146"/>
@@ -7470,12 +7630,12 @@
       <c r="H17" s="151"/>
       <c r="I17" s="151"/>
       <c r="J17" s="151"/>
-      <c r="K17" s="312"/>
+      <c r="K17" s="290"/>
       <c r="L17" s="151"/>
-      <c r="N17" s="250" t="s">
-        <v>542</v>
-      </c>
-      <c r="P17" s="347"/>
+      <c r="N17" s="247" t="s">
+        <v>536</v>
+      </c>
+      <c r="P17" s="339"/>
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="146"/>
@@ -7489,12 +7649,12 @@
       <c r="H18" s="151"/>
       <c r="I18" s="151"/>
       <c r="J18" s="151"/>
-      <c r="K18" s="312"/>
+      <c r="K18" s="290"/>
       <c r="L18" s="151"/>
-      <c r="N18" s="251" t="s">
-        <v>543</v>
-      </c>
-      <c r="P18" s="347"/>
+      <c r="N18" s="248" t="s">
+        <v>537</v>
+      </c>
+      <c r="P18" s="339"/>
     </row>
     <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="146"/>
@@ -7508,12 +7668,12 @@
       <c r="H19" s="151"/>
       <c r="I19" s="151"/>
       <c r="J19" s="151"/>
-      <c r="K19" s="312"/>
+      <c r="K19" s="290"/>
       <c r="L19" s="151"/>
-      <c r="N19" s="250" t="s">
-        <v>544</v>
-      </c>
-      <c r="P19" s="347"/>
+      <c r="N19" s="247" t="s">
+        <v>538</v>
+      </c>
+      <c r="P19" s="339"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="146"/>
@@ -7527,12 +7687,12 @@
       <c r="H20" s="151"/>
       <c r="I20" s="151"/>
       <c r="J20" s="151"/>
-      <c r="K20" s="312"/>
+      <c r="K20" s="290"/>
       <c r="L20" s="151"/>
-      <c r="N20" s="281" t="s">
-        <v>593</v>
-      </c>
-      <c r="P20" s="347"/>
+      <c r="N20" s="278" t="s">
+        <v>587</v>
+      </c>
+      <c r="P20" s="339"/>
     </row>
     <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
@@ -7546,12 +7706,12 @@
       <c r="H21" s="151"/>
       <c r="I21" s="151"/>
       <c r="J21" s="151"/>
-      <c r="K21" s="312"/>
+      <c r="K21" s="290"/>
       <c r="L21" s="151"/>
-      <c r="N21" s="244" t="s">
-        <v>545</v>
-      </c>
-      <c r="P21" s="347"/>
+      <c r="N21" s="241" t="s">
+        <v>539</v>
+      </c>
+      <c r="P21" s="339"/>
     </row>
     <row r="22" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="146"/>
@@ -7565,10 +7725,10 @@
       <c r="H22" s="151"/>
       <c r="I22" s="151"/>
       <c r="J22" s="151"/>
-      <c r="K22" s="312"/>
+      <c r="K22" s="290"/>
       <c r="L22" s="151"/>
-      <c r="N22" s="246"/>
-      <c r="P22" s="347"/>
+      <c r="N22" s="243"/>
+      <c r="P22" s="339"/>
     </row>
     <row r="23" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
@@ -7582,9 +7742,9 @@
       <c r="H23" s="151"/>
       <c r="I23" s="151"/>
       <c r="J23" s="151"/>
-      <c r="K23" s="312"/>
+      <c r="K23" s="290"/>
       <c r="L23" s="151"/>
-      <c r="P23" s="347"/>
+      <c r="P23" s="339"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="314"/>
@@ -7597,12 +7757,12 @@
       <c r="H24" s="151"/>
       <c r="I24" s="151"/>
       <c r="J24" s="151"/>
-      <c r="K24" s="312"/>
+      <c r="K24" s="290"/>
       <c r="L24" s="151"/>
-      <c r="N24" s="247" t="s">
-        <v>546</v>
-      </c>
-      <c r="P24" s="347"/>
+      <c r="N24" s="244" t="s">
+        <v>540</v>
+      </c>
+      <c r="P24" s="339"/>
     </row>
     <row r="25" spans="2:16" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="314"/>
@@ -7615,37 +7775,37 @@
       <c r="H25" s="151"/>
       <c r="I25" s="151"/>
       <c r="J25" s="151"/>
-      <c r="K25" s="312"/>
+      <c r="K25" s="290"/>
       <c r="L25" s="151"/>
-      <c r="N25" s="248" t="s">
-        <v>538</v>
-      </c>
-      <c r="P25" s="347"/>
+      <c r="N25" s="245" t="s">
+        <v>532</v>
+      </c>
+      <c r="P25" s="339"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="315"/>
-      <c r="D26" s="299" t="s">
+      <c r="D26" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="300"/>
+      <c r="E26" s="293"/>
       <c r="F26" s="151"/>
       <c r="G26" s="152"/>
       <c r="H26" s="151"/>
       <c r="I26" s="151"/>
       <c r="J26" s="151"/>
-      <c r="K26" s="312"/>
+      <c r="K26" s="290"/>
       <c r="L26" s="151"/>
-      <c r="N26" s="231"/>
-      <c r="P26" s="347"/>
+      <c r="N26" s="229"/>
+      <c r="P26" s="339"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="170"/>
       <c r="D27" s="171"/>
       <c r="E27" s="172"/>
-      <c r="N27" s="249" t="s">
-        <v>539</v>
-      </c>
-      <c r="P27" s="347"/>
+      <c r="N27" s="246" t="s">
+        <v>533</v>
+      </c>
+      <c r="P27" s="339"/>
     </row>
     <row r="28" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="141"/>
@@ -7659,33 +7819,33 @@
       <c r="J28" s="164"/>
       <c r="K28" s="168"/>
       <c r="L28" s="164"/>
-      <c r="N28" s="250" t="s">
-        <v>547</v>
-      </c>
-      <c r="P28" s="347"/>
+      <c r="N28" s="247" t="s">
+        <v>541</v>
+      </c>
+      <c r="P28" s="339"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="146"/>
-      <c r="C29" s="291" t="s">
+      <c r="C29" s="318" t="s">
         <v>472</v>
       </c>
-      <c r="D29" s="294"/>
-      <c r="E29" s="295"/>
+      <c r="D29" s="321"/>
+      <c r="E29" s="322"/>
       <c r="F29" s="151"/>
       <c r="G29" s="152"/>
       <c r="H29" s="151"/>
       <c r="I29" s="151"/>
       <c r="J29" s="151"/>
-      <c r="K29" s="324"/>
+      <c r="K29" s="326"/>
       <c r="L29" s="151"/>
-      <c r="N29" s="251" t="s">
-        <v>541</v>
-      </c>
-      <c r="P29" s="347"/>
+      <c r="N29" s="248" t="s">
+        <v>535</v>
+      </c>
+      <c r="P29" s="339"/>
     </row>
     <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="146"/>
-      <c r="C30" s="292"/>
+      <c r="C30" s="319"/>
       <c r="D30" s="134"/>
       <c r="E30" s="135" t="s">
         <v>441</v>
@@ -7695,16 +7855,16 @@
       <c r="H30" s="151"/>
       <c r="I30" s="151"/>
       <c r="J30" s="151"/>
-      <c r="K30" s="325"/>
+      <c r="K30" s="327"/>
       <c r="L30" s="151"/>
-      <c r="N30" s="250" t="s">
-        <v>548</v>
-      </c>
-      <c r="P30" s="347"/>
+      <c r="N30" s="247" t="s">
+        <v>542</v>
+      </c>
+      <c r="P30" s="339"/>
     </row>
     <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="146"/>
-      <c r="C31" s="292"/>
+      <c r="C31" s="319"/>
       <c r="D31" s="136"/>
       <c r="E31" s="188" t="s">
         <v>442</v>
@@ -7714,16 +7874,16 @@
       <c r="H31" s="151"/>
       <c r="I31" s="151"/>
       <c r="J31" s="151"/>
-      <c r="K31" s="325"/>
+      <c r="K31" s="327"/>
       <c r="L31" s="151"/>
-      <c r="N31" s="251" t="s">
-        <v>543</v>
-      </c>
-      <c r="P31" s="347"/>
+      <c r="N31" s="248" t="s">
+        <v>537</v>
+      </c>
+      <c r="P31" s="339"/>
     </row>
     <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="146"/>
-      <c r="C32" s="292"/>
+      <c r="C32" s="319"/>
       <c r="D32" s="136" t="s">
         <v>443</v>
       </c>
@@ -7733,16 +7893,16 @@
       <c r="H32" s="151"/>
       <c r="I32" s="151"/>
       <c r="J32" s="151"/>
-      <c r="K32" s="325"/>
+      <c r="K32" s="327"/>
       <c r="L32" s="151"/>
-      <c r="N32" s="250" t="s">
-        <v>549</v>
-      </c>
-      <c r="P32" s="347"/>
+      <c r="N32" s="247" t="s">
+        <v>543</v>
+      </c>
+      <c r="P32" s="339"/>
     </row>
     <row r="33" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="146"/>
-      <c r="C33" s="292"/>
+      <c r="C33" s="319"/>
       <c r="D33" s="136"/>
       <c r="E33" s="137" t="s">
         <v>470</v>
@@ -7752,16 +7912,16 @@
       <c r="H33" s="151"/>
       <c r="I33" s="151"/>
       <c r="J33" s="151"/>
-      <c r="K33" s="325"/>
+      <c r="K33" s="327"/>
       <c r="L33" s="151"/>
-      <c r="N33" s="281" t="s">
-        <v>594</v>
-      </c>
-      <c r="P33" s="347"/>
+      <c r="N33" s="278" t="s">
+        <v>588</v>
+      </c>
+      <c r="P33" s="339"/>
     </row>
     <row r="34" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="146"/>
-      <c r="C34" s="292"/>
+      <c r="C34" s="319"/>
       <c r="D34" s="136"/>
       <c r="E34" s="137" t="s">
         <v>444</v>
@@ -7771,16 +7931,16 @@
       <c r="H34" s="151"/>
       <c r="I34" s="151"/>
       <c r="J34" s="151"/>
-      <c r="K34" s="325"/>
+      <c r="K34" s="327"/>
       <c r="L34" s="151"/>
-      <c r="N34" s="244" t="s">
-        <v>545</v>
-      </c>
-      <c r="P34" s="347"/>
+      <c r="N34" s="241" t="s">
+        <v>539</v>
+      </c>
+      <c r="P34" s="339"/>
     </row>
     <row r="35" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="146"/>
-      <c r="C35" s="292"/>
+      <c r="C35" s="319"/>
       <c r="D35" s="136"/>
       <c r="E35" s="137" t="s">
         <v>445</v>
@@ -7790,14 +7950,14 @@
       <c r="H35" s="151"/>
       <c r="I35" s="151"/>
       <c r="J35" s="151"/>
-      <c r="K35" s="325"/>
+      <c r="K35" s="327"/>
       <c r="L35" s="151"/>
-      <c r="N35" s="246"/>
-      <c r="P35" s="347"/>
+      <c r="N35" s="243"/>
+      <c r="P35" s="339"/>
     </row>
     <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="146"/>
-      <c r="C36" s="292"/>
+      <c r="C36" s="319"/>
       <c r="D36" s="136"/>
       <c r="E36" s="137" t="s">
         <v>446</v>
@@ -7807,13 +7967,13 @@
       <c r="H36" s="151"/>
       <c r="I36" s="151"/>
       <c r="J36" s="151"/>
-      <c r="K36" s="325"/>
+      <c r="K36" s="327"/>
       <c r="L36" s="151"/>
-      <c r="P36" s="347"/>
+      <c r="P36" s="339"/>
     </row>
     <row r="37" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="146"/>
-      <c r="C37" s="292"/>
+      <c r="C37" s="319"/>
       <c r="D37" s="136" t="s">
         <v>447</v>
       </c>
@@ -7823,16 +7983,16 @@
       <c r="H37" s="151"/>
       <c r="I37" s="151"/>
       <c r="J37" s="151"/>
-      <c r="K37" s="325"/>
+      <c r="K37" s="327"/>
       <c r="L37" s="151"/>
-      <c r="N37" s="247" t="s">
-        <v>550</v>
-      </c>
-      <c r="P37" s="347"/>
+      <c r="N37" s="244" t="s">
+        <v>544</v>
+      </c>
+      <c r="P37" s="339"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="146"/>
-      <c r="C38" s="292"/>
+      <c r="C38" s="319"/>
       <c r="D38" s="136" t="s">
         <v>451</v>
       </c>
@@ -7842,16 +8002,16 @@
       <c r="H38" s="151"/>
       <c r="I38" s="151"/>
       <c r="J38" s="151"/>
-      <c r="K38" s="325"/>
+      <c r="K38" s="327"/>
       <c r="L38" s="151"/>
-      <c r="N38" s="248" t="s">
-        <v>538</v>
-      </c>
-      <c r="P38" s="347"/>
+      <c r="N38" s="245" t="s">
+        <v>532</v>
+      </c>
+      <c r="P38" s="339"/>
     </row>
     <row r="39" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="146"/>
-      <c r="C39" s="292"/>
+      <c r="C39" s="319"/>
       <c r="D39" s="136"/>
       <c r="E39" s="176" t="s">
         <v>448</v>
@@ -7861,14 +8021,14 @@
       <c r="H39" s="151"/>
       <c r="I39" s="151"/>
       <c r="J39" s="151"/>
-      <c r="K39" s="325"/>
+      <c r="K39" s="327"/>
       <c r="L39" s="151"/>
-      <c r="N39" s="231"/>
-      <c r="P39" s="347"/>
+      <c r="N39" s="229"/>
+      <c r="P39" s="339"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="146"/>
-      <c r="C40" s="292"/>
+      <c r="C40" s="319"/>
       <c r="D40" s="136"/>
       <c r="E40" s="181" t="s">
         <v>449</v>
@@ -7878,16 +8038,16 @@
       <c r="H40" s="151"/>
       <c r="I40" s="151"/>
       <c r="J40" s="151"/>
-      <c r="K40" s="325"/>
+      <c r="K40" s="327"/>
       <c r="L40" s="151"/>
-      <c r="N40" s="249" t="s">
-        <v>539</v>
-      </c>
-      <c r="P40" s="347"/>
+      <c r="N40" s="246" t="s">
+        <v>533</v>
+      </c>
+      <c r="P40" s="339"/>
     </row>
     <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="146"/>
-      <c r="C41" s="292"/>
+      <c r="C41" s="319"/>
       <c r="D41" s="175"/>
       <c r="E41" s="177" t="s">
         <v>435</v>
@@ -7897,16 +8057,16 @@
       <c r="H41" s="151"/>
       <c r="I41" s="151"/>
       <c r="J41" s="151"/>
-      <c r="K41" s="325"/>
+      <c r="K41" s="327"/>
       <c r="L41" s="151"/>
-      <c r="N41" s="250" t="s">
-        <v>551</v>
-      </c>
-      <c r="P41" s="347"/>
+      <c r="N41" s="247" t="s">
+        <v>545</v>
+      </c>
+      <c r="P41" s="339"/>
     </row>
     <row r="42" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="146"/>
-      <c r="C42" s="292"/>
+      <c r="C42" s="319"/>
       <c r="D42" s="175"/>
       <c r="E42" s="179" t="s">
         <v>452</v>
@@ -7916,38 +8076,38 @@
       <c r="H42" s="151"/>
       <c r="I42" s="151"/>
       <c r="J42" s="151"/>
-      <c r="K42" s="325"/>
+      <c r="K42" s="327"/>
       <c r="L42" s="151"/>
-      <c r="N42" s="251" t="s">
-        <v>541</v>
-      </c>
-      <c r="P42" s="347"/>
+      <c r="N42" s="248" t="s">
+        <v>535</v>
+      </c>
+      <c r="P42" s="339"/>
     </row>
     <row r="43" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="293"/>
-      <c r="D43" s="326" t="s">
+      <c r="C43" s="320"/>
+      <c r="D43" s="328" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="327"/>
+      <c r="E43" s="329"/>
       <c r="F43" s="151"/>
       <c r="G43" s="152"/>
       <c r="H43" s="151"/>
       <c r="I43" s="151"/>
       <c r="J43" s="151"/>
-      <c r="K43" s="325"/>
+      <c r="K43" s="327"/>
       <c r="L43" s="151"/>
-      <c r="N43" s="250" t="s">
-        <v>552</v>
-      </c>
-      <c r="P43" s="347"/>
+      <c r="N43" s="247" t="s">
+        <v>546</v>
+      </c>
+      <c r="P43" s="339"/>
     </row>
     <row r="44" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="171"/>
       <c r="E44" s="172"/>
-      <c r="N44" s="251" t="s">
-        <v>543</v>
-      </c>
-      <c r="P44" s="347"/>
+      <c r="N44" s="248" t="s">
+        <v>537</v>
+      </c>
+      <c r="P44" s="339"/>
     </row>
     <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="141"/>
@@ -7961,35 +8121,35 @@
       <c r="J45" s="164"/>
       <c r="K45" s="168"/>
       <c r="L45" s="164"/>
-      <c r="N45" s="250" t="s">
-        <v>553</v>
-      </c>
-      <c r="P45" s="347"/>
+      <c r="N45" s="247" t="s">
+        <v>547</v>
+      </c>
+      <c r="P45" s="339"/>
     </row>
     <row r="46" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="146"/>
-      <c r="C46" s="318" t="s">
+      <c r="C46" s="306" t="s">
         <v>473</v>
       </c>
-      <c r="D46" s="321"/>
-      <c r="E46" s="322"/>
+      <c r="D46" s="309"/>
+      <c r="E46" s="310"/>
       <c r="F46" s="151"/>
       <c r="G46" s="152"/>
       <c r="H46" s="151"/>
       <c r="I46" s="151"/>
       <c r="J46" s="151"/>
-      <c r="K46" s="311" t="s">
+      <c r="K46" s="289" t="s">
         <v>450</v>
       </c>
       <c r="L46" s="151"/>
-      <c r="N46" s="281" t="s">
-        <v>595</v>
-      </c>
-      <c r="P46" s="347"/>
+      <c r="N46" s="278" t="s">
+        <v>589</v>
+      </c>
+      <c r="P46" s="339"/>
     </row>
     <row r="47" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="146"/>
-      <c r="C47" s="319"/>
+      <c r="C47" s="307"/>
       <c r="D47" s="134"/>
       <c r="E47" s="135"/>
       <c r="F47" s="151"/>
@@ -7997,16 +8157,16 @@
       <c r="H47" s="151"/>
       <c r="I47" s="151"/>
       <c r="J47" s="151"/>
-      <c r="K47" s="312"/>
+      <c r="K47" s="290"/>
       <c r="L47" s="151"/>
-      <c r="N47" s="244" t="s">
-        <v>545</v>
-      </c>
-      <c r="P47" s="347"/>
+      <c r="N47" s="241" t="s">
+        <v>539</v>
+      </c>
+      <c r="P47" s="339"/>
     </row>
     <row r="48" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="146"/>
-      <c r="C48" s="319"/>
+      <c r="C48" s="307"/>
       <c r="D48" s="136"/>
       <c r="E48" s="137"/>
       <c r="F48" s="151"/>
@@ -8014,14 +8174,14 @@
       <c r="H48" s="151"/>
       <c r="I48" s="151"/>
       <c r="J48" s="151"/>
-      <c r="K48" s="312"/>
+      <c r="K48" s="290"/>
       <c r="L48" s="151"/>
-      <c r="N48" s="246"/>
-      <c r="P48" s="347"/>
+      <c r="N48" s="243"/>
+      <c r="P48" s="339"/>
     </row>
     <row r="49" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="146"/>
-      <c r="C49" s="319"/>
+      <c r="C49" s="307"/>
       <c r="D49" s="136"/>
       <c r="E49" s="137"/>
       <c r="F49" s="151"/>
@@ -8029,12 +8189,12 @@
       <c r="H49" s="151"/>
       <c r="I49" s="151"/>
       <c r="J49" s="151"/>
-      <c r="K49" s="312"/>
+      <c r="K49" s="290"/>
       <c r="L49" s="151"/>
     </row>
     <row r="50" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="146"/>
-      <c r="C50" s="319"/>
+      <c r="C50" s="307"/>
       <c r="D50" s="136"/>
       <c r="E50" s="137"/>
       <c r="F50" s="151"/>
@@ -8042,15 +8202,15 @@
       <c r="H50" s="151"/>
       <c r="I50" s="151"/>
       <c r="J50" s="151"/>
-      <c r="K50" s="312"/>
+      <c r="K50" s="290"/>
       <c r="L50" s="151"/>
-      <c r="N50" s="247" t="s">
-        <v>596</v>
+      <c r="N50" s="244" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="146"/>
-      <c r="C51" s="319"/>
+      <c r="C51" s="307"/>
       <c r="D51" s="136"/>
       <c r="E51" s="137"/>
       <c r="F51" s="151"/>
@@ -8058,15 +8218,15 @@
       <c r="H51" s="151"/>
       <c r="I51" s="151"/>
       <c r="J51" s="151"/>
-      <c r="K51" s="312"/>
+      <c r="K51" s="290"/>
       <c r="L51" s="151"/>
-      <c r="N51" s="248" t="s">
-        <v>538</v>
+      <c r="N51" s="245" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="146"/>
-      <c r="C52" s="319"/>
+      <c r="C52" s="307"/>
       <c r="D52" s="136"/>
       <c r="E52" s="137"/>
       <c r="F52" s="151"/>
@@ -8074,13 +8234,13 @@
       <c r="H52" s="151"/>
       <c r="I52" s="151"/>
       <c r="J52" s="151"/>
-      <c r="K52" s="312"/>
+      <c r="K52" s="290"/>
       <c r="L52" s="151"/>
-      <c r="N52" s="231"/>
+      <c r="N52" s="229"/>
     </row>
     <row r="53" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="146"/>
-      <c r="C53" s="319"/>
+      <c r="C53" s="307"/>
       <c r="D53" s="136"/>
       <c r="E53" s="137"/>
       <c r="F53" s="151"/>
@@ -8088,15 +8248,15 @@
       <c r="H53" s="151"/>
       <c r="I53" s="151"/>
       <c r="J53" s="151"/>
-      <c r="K53" s="312"/>
+      <c r="K53" s="290"/>
       <c r="L53" s="151"/>
-      <c r="N53" s="249" t="s">
-        <v>539</v>
+      <c r="N53" s="246" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="146"/>
-      <c r="C54" s="319"/>
+      <c r="C54" s="307"/>
       <c r="D54" s="136"/>
       <c r="E54" s="132"/>
       <c r="F54" s="151"/>
@@ -8104,15 +8264,15 @@
       <c r="H54" s="151"/>
       <c r="I54" s="151"/>
       <c r="J54" s="151"/>
-      <c r="K54" s="312"/>
+      <c r="K54" s="290"/>
       <c r="L54" s="151"/>
-      <c r="N54" s="250" t="s">
-        <v>597</v>
+      <c r="N54" s="247" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="146"/>
-      <c r="C55" s="319"/>
+      <c r="C55" s="307"/>
       <c r="D55" s="136"/>
       <c r="E55" s="132"/>
       <c r="F55" s="151"/>
@@ -8120,14 +8280,14 @@
       <c r="H55" s="151"/>
       <c r="I55" s="151"/>
       <c r="J55" s="151"/>
-      <c r="K55" s="312"/>
+      <c r="K55" s="290"/>
       <c r="L55" s="151"/>
-      <c r="N55" s="251" t="s">
-        <v>541</v>
+      <c r="N55" s="248" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="319"/>
+      <c r="C56" s="307"/>
       <c r="D56" s="138"/>
       <c r="E56" s="133"/>
       <c r="F56" s="151"/>
@@ -8135,34 +8295,34 @@
       <c r="H56" s="151"/>
       <c r="I56" s="151"/>
       <c r="J56" s="151"/>
-      <c r="K56" s="312"/>
+      <c r="K56" s="290"/>
       <c r="L56" s="151"/>
-      <c r="N56" s="250" t="s">
-        <v>598</v>
+      <c r="N56" s="247" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="320"/>
-      <c r="D57" s="299" t="s">
+      <c r="C57" s="308"/>
+      <c r="D57" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="300"/>
+      <c r="E57" s="293"/>
       <c r="F57" s="151"/>
       <c r="G57" s="152"/>
       <c r="H57" s="151"/>
       <c r="I57" s="151"/>
       <c r="J57" s="151"/>
-      <c r="K57" s="323"/>
+      <c r="K57" s="291"/>
       <c r="L57" s="151"/>
-      <c r="N57" s="251" t="s">
-        <v>543</v>
+      <c r="N57" s="248" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D58" s="171"/>
       <c r="E58" s="172"/>
-      <c r="N58" s="244" t="s">
-        <v>599</v>
+      <c r="N58" s="241" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8177,31 +8337,31 @@
       <c r="J59" s="164"/>
       <c r="K59" s="168"/>
       <c r="L59" s="164"/>
-      <c r="N59" s="281" t="s">
-        <v>600</v>
+      <c r="N59" s="278" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="146"/>
-      <c r="C60" s="291" t="s">
+      <c r="C60" s="318" t="s">
         <v>474</v>
       </c>
-      <c r="D60" s="294"/>
-      <c r="E60" s="295"/>
+      <c r="D60" s="321"/>
+      <c r="E60" s="322"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
       <c r="H60" s="151"/>
       <c r="I60" s="151"/>
       <c r="J60" s="151"/>
-      <c r="K60" s="296"/>
+      <c r="K60" s="323"/>
       <c r="L60" s="151"/>
-      <c r="N60" s="244" t="s">
-        <v>545</v>
+      <c r="N60" s="241" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="146"/>
-      <c r="C61" s="292"/>
+      <c r="C61" s="319"/>
       <c r="D61" s="134"/>
       <c r="E61" s="135" t="s">
         <v>469</v>
@@ -8211,13 +8371,13 @@
       <c r="H61" s="151"/>
       <c r="I61" s="151"/>
       <c r="J61" s="151"/>
-      <c r="K61" s="297"/>
+      <c r="K61" s="324"/>
       <c r="L61" s="151"/>
-      <c r="N61" s="246"/>
+      <c r="N61" s="243"/>
     </row>
     <row r="62" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="146"/>
-      <c r="C62" s="292"/>
+      <c r="C62" s="319"/>
       <c r="D62" s="136"/>
       <c r="E62" s="137" t="s">
         <v>444</v>
@@ -8227,12 +8387,12 @@
       <c r="H62" s="151"/>
       <c r="I62" s="151"/>
       <c r="J62" s="151"/>
-      <c r="K62" s="297"/>
+      <c r="K62" s="324"/>
       <c r="L62" s="151"/>
     </row>
     <row r="63" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="146"/>
-      <c r="C63" s="292"/>
+      <c r="C63" s="319"/>
       <c r="D63" s="136"/>
       <c r="E63" s="137" t="s">
         <v>445</v>
@@ -8242,15 +8402,15 @@
       <c r="H63" s="151"/>
       <c r="I63" s="151"/>
       <c r="J63" s="151"/>
-      <c r="K63" s="297"/>
+      <c r="K63" s="324"/>
       <c r="L63" s="151"/>
-      <c r="N63" s="247" t="s">
-        <v>601</v>
+      <c r="N63" s="244" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146"/>
-      <c r="C64" s="292"/>
+      <c r="C64" s="319"/>
       <c r="D64" s="136"/>
       <c r="E64" s="137" t="s">
         <v>453</v>
@@ -8260,15 +8420,15 @@
       <c r="H64" s="151"/>
       <c r="I64" s="151"/>
       <c r="J64" s="151"/>
-      <c r="K64" s="297"/>
+      <c r="K64" s="324"/>
       <c r="L64" s="151"/>
-      <c r="N64" s="248" t="s">
-        <v>538</v>
+      <c r="N64" s="245" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="146"/>
-      <c r="C65" s="292"/>
+      <c r="C65" s="319"/>
       <c r="D65" s="136" t="s">
         <v>447</v>
       </c>
@@ -8278,13 +8438,13 @@
       <c r="H65" s="151"/>
       <c r="I65" s="151"/>
       <c r="J65" s="151"/>
-      <c r="K65" s="297"/>
+      <c r="K65" s="324"/>
       <c r="L65" s="151"/>
-      <c r="N65" s="231"/>
+      <c r="N65" s="229"/>
     </row>
     <row r="66" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="146"/>
-      <c r="C66" s="292"/>
+      <c r="C66" s="319"/>
       <c r="D66" s="136" t="s">
         <v>454</v>
       </c>
@@ -8294,15 +8454,15 @@
       <c r="H66" s="151"/>
       <c r="I66" s="151"/>
       <c r="J66" s="151"/>
-      <c r="K66" s="297"/>
+      <c r="K66" s="324"/>
       <c r="L66" s="151"/>
-      <c r="N66" s="249" t="s">
-        <v>539</v>
+      <c r="N66" s="246" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="67" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="146"/>
-      <c r="C67" s="292"/>
+      <c r="C67" s="319"/>
       <c r="D67" s="136"/>
       <c r="E67" s="137" t="s">
         <v>461</v>
@@ -8312,15 +8472,15 @@
       <c r="H67" s="151"/>
       <c r="I67" s="151"/>
       <c r="J67" s="151"/>
-      <c r="K67" s="297"/>
+      <c r="K67" s="324"/>
       <c r="L67" s="151"/>
-      <c r="N67" s="282" t="s">
-        <v>603</v>
+      <c r="N67" s="279" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="146"/>
-      <c r="C68" s="292"/>
+      <c r="C68" s="319"/>
       <c r="D68" s="136"/>
       <c r="E68" s="185" t="s">
         <v>463</v>
@@ -8330,15 +8490,15 @@
       <c r="H68" s="151"/>
       <c r="I68" s="151"/>
       <c r="J68" s="151"/>
-      <c r="K68" s="297"/>
+      <c r="K68" s="324"/>
       <c r="L68" s="151"/>
-      <c r="N68" s="251" t="s">
-        <v>541</v>
+      <c r="N68" s="248" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="69" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146"/>
-      <c r="C69" s="292"/>
+      <c r="C69" s="319"/>
       <c r="D69" s="136"/>
       <c r="E69" s="137" t="s">
         <v>455</v>
@@ -8348,15 +8508,15 @@
       <c r="H69" s="151"/>
       <c r="I69" s="151"/>
       <c r="J69" s="151"/>
-      <c r="K69" s="297"/>
+      <c r="K69" s="324"/>
       <c r="L69" s="151"/>
-      <c r="N69" s="250" t="s">
-        <v>604</v>
+      <c r="N69" s="247" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="146"/>
-      <c r="C70" s="292"/>
+      <c r="C70" s="319"/>
       <c r="D70" s="136"/>
       <c r="E70" s="182" t="s">
         <v>464</v>
@@ -8366,15 +8526,15 @@
       <c r="H70" s="151"/>
       <c r="I70" s="151"/>
       <c r="J70" s="151"/>
-      <c r="K70" s="297"/>
+      <c r="K70" s="324"/>
       <c r="L70" s="151"/>
-      <c r="N70" s="251" t="s">
-        <v>543</v>
+      <c r="N70" s="248" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="146"/>
-      <c r="C71" s="292"/>
+      <c r="C71" s="319"/>
       <c r="D71" s="136"/>
       <c r="E71" s="137" t="s">
         <v>455</v>
@@ -8384,15 +8544,15 @@
       <c r="H71" s="151"/>
       <c r="I71" s="151"/>
       <c r="J71" s="151"/>
-      <c r="K71" s="297"/>
+      <c r="K71" s="324"/>
       <c r="L71" s="151"/>
-      <c r="N71" s="244" t="s">
-        <v>605</v>
+      <c r="N71" s="241" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="72" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="146"/>
-      <c r="C72" s="292"/>
+      <c r="C72" s="319"/>
       <c r="D72" s="136"/>
       <c r="E72" s="178" t="s">
         <v>448</v>
@@ -8402,15 +8562,15 @@
       <c r="H72" s="151"/>
       <c r="I72" s="151"/>
       <c r="J72" s="151"/>
-      <c r="K72" s="297"/>
+      <c r="K72" s="324"/>
       <c r="L72" s="151"/>
-      <c r="N72" s="281" t="s">
-        <v>606</v>
+      <c r="N72" s="278" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="73" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="146"/>
-      <c r="C73" s="292"/>
+      <c r="C73" s="319"/>
       <c r="D73" s="136"/>
       <c r="E73" s="186" t="s">
         <v>462</v>
@@ -8420,15 +8580,15 @@
       <c r="H73" s="151"/>
       <c r="I73" s="151"/>
       <c r="J73" s="151"/>
-      <c r="K73" s="297"/>
+      <c r="K73" s="324"/>
       <c r="L73" s="151"/>
-      <c r="N73" s="244" t="s">
-        <v>545</v>
+      <c r="N73" s="241" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="146"/>
-      <c r="C74" s="292"/>
+      <c r="C74" s="319"/>
       <c r="D74" s="175"/>
       <c r="E74" s="179" t="s">
         <v>435</v>
@@ -8438,12 +8598,12 @@
       <c r="H74" s="151"/>
       <c r="I74" s="151"/>
       <c r="J74" s="151"/>
-      <c r="K74" s="297"/>
+      <c r="K74" s="324"/>
       <c r="L74" s="151"/>
-      <c r="N74" s="246"/>
+      <c r="N74" s="243"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="292"/>
+      <c r="C75" s="319"/>
       <c r="D75" s="175"/>
       <c r="E75" s="180" t="s">
         <v>452</v>
@@ -8453,31 +8613,31 @@
       <c r="H75" s="151"/>
       <c r="I75" s="151"/>
       <c r="J75" s="151"/>
-      <c r="K75" s="297"/>
+      <c r="K75" s="324"/>
       <c r="L75" s="151"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="293"/>
-      <c r="D76" s="299" t="s">
+      <c r="C76" s="320"/>
+      <c r="D76" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="300"/>
+      <c r="E76" s="293"/>
       <c r="F76" s="151"/>
       <c r="G76" s="152"/>
       <c r="H76" s="151"/>
       <c r="I76" s="151"/>
       <c r="J76" s="151"/>
-      <c r="K76" s="298"/>
+      <c r="K76" s="325"/>
       <c r="L76" s="151"/>
-      <c r="N76" s="247" t="s">
-        <v>602</v>
+      <c r="N76" s="244" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="77" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="171"/>
       <c r="E77" s="172"/>
-      <c r="N77" s="248" t="s">
-        <v>538</v>
+      <c r="N77" s="245" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8492,29 +8652,29 @@
       <c r="J78" s="164"/>
       <c r="K78" s="168"/>
       <c r="L78" s="164"/>
-      <c r="N78" s="231"/>
+      <c r="N78" s="229"/>
     </row>
     <row r="79" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="146"/>
-      <c r="C79" s="330" t="s">
+      <c r="C79" s="294" t="s">
         <v>465</v>
       </c>
-      <c r="D79" s="333"/>
-      <c r="E79" s="334"/>
+      <c r="D79" s="297"/>
+      <c r="E79" s="298"/>
       <c r="F79" s="151"/>
       <c r="G79" s="152"/>
       <c r="H79" s="151"/>
       <c r="I79" s="151"/>
       <c r="J79" s="151"/>
-      <c r="K79" s="311"/>
+      <c r="K79" s="289"/>
       <c r="L79" s="151"/>
-      <c r="N79" s="249" t="s">
-        <v>539</v>
+      <c r="N79" s="246" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="80" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="146"/>
-      <c r="C80" s="331"/>
+      <c r="C80" s="295"/>
       <c r="D80" s="134"/>
       <c r="E80" s="135" t="s">
         <v>475</v>
@@ -8524,15 +8684,15 @@
       <c r="H80" s="151"/>
       <c r="I80" s="151"/>
       <c r="J80" s="151"/>
-      <c r="K80" s="312"/>
+      <c r="K80" s="290"/>
       <c r="L80" s="151"/>
-      <c r="N80" s="250" t="s">
-        <v>607</v>
+      <c r="N80" s="247" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="81" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="146"/>
-      <c r="C81" s="331"/>
+      <c r="C81" s="295"/>
       <c r="D81" s="136"/>
       <c r="E81" s="137" t="s">
         <v>467</v>
@@ -8542,15 +8702,15 @@
       <c r="H81" s="151"/>
       <c r="I81" s="151"/>
       <c r="J81" s="151"/>
-      <c r="K81" s="312"/>
+      <c r="K81" s="290"/>
       <c r="L81" s="151"/>
-      <c r="N81" s="251" t="s">
-        <v>541</v>
+      <c r="N81" s="248" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="146"/>
-      <c r="C82" s="331"/>
+      <c r="C82" s="295"/>
       <c r="D82" s="136" t="s">
         <v>466</v>
       </c>
@@ -8560,15 +8720,15 @@
       <c r="H82" s="151"/>
       <c r="I82" s="151"/>
       <c r="J82" s="151"/>
-      <c r="K82" s="312"/>
+      <c r="K82" s="290"/>
       <c r="L82" s="151"/>
-      <c r="N82" s="250" t="s">
-        <v>608</v>
+      <c r="N82" s="247" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="146"/>
-      <c r="C83" s="331"/>
+      <c r="C83" s="295"/>
       <c r="D83" s="136"/>
       <c r="E83" s="187" t="s">
         <v>468</v>
@@ -8578,34 +8738,34 @@
       <c r="H83" s="151"/>
       <c r="I83" s="151"/>
       <c r="J83" s="151"/>
-      <c r="K83" s="312"/>
+      <c r="K83" s="290"/>
       <c r="L83" s="151"/>
-      <c r="N83" s="251" t="s">
-        <v>543</v>
+      <c r="N83" s="248" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="332"/>
-      <c r="D84" s="299" t="s">
+      <c r="C84" s="296"/>
+      <c r="D84" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="300"/>
+      <c r="E84" s="293"/>
       <c r="F84" s="151"/>
       <c r="G84" s="152"/>
       <c r="H84" s="151"/>
       <c r="I84" s="151"/>
       <c r="J84" s="151"/>
-      <c r="K84" s="323"/>
+      <c r="K84" s="291"/>
       <c r="L84" s="151"/>
-      <c r="N84" s="244" t="s">
-        <v>609</v>
+      <c r="N84" s="241" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="171"/>
       <c r="E85" s="172"/>
-      <c r="N85" s="281" t="s">
-        <v>610</v>
+      <c r="N85" s="278" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="86" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8620,29 +8780,29 @@
       <c r="J86" s="164"/>
       <c r="K86" s="168"/>
       <c r="L86" s="164"/>
-      <c r="N86" s="244" t="s">
-        <v>545</v>
+      <c r="N86" s="241" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="146"/>
-      <c r="C87" s="335" t="s">
+      <c r="C87" s="299" t="s">
         <v>471</v>
       </c>
-      <c r="D87" s="338"/>
-      <c r="E87" s="339"/>
+      <c r="D87" s="302"/>
+      <c r="E87" s="303"/>
       <c r="F87" s="151"/>
       <c r="G87" s="152"/>
       <c r="H87" s="151"/>
       <c r="I87" s="151"/>
       <c r="J87" s="151"/>
-      <c r="K87" s="311"/>
+      <c r="K87" s="289"/>
       <c r="L87" s="151"/>
-      <c r="N87" s="246"/>
+      <c r="N87" s="243"/>
     </row>
     <row r="88" spans="2:14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="146"/>
-      <c r="C88" s="336"/>
+      <c r="C88" s="300"/>
       <c r="D88" s="191"/>
       <c r="E88" s="191" t="s">
         <v>478</v>
@@ -8652,12 +8812,12 @@
       <c r="H88" s="151"/>
       <c r="I88" s="151"/>
       <c r="J88" s="151"/>
-      <c r="K88" s="312"/>
+      <c r="K88" s="290"/>
       <c r="L88" s="151"/>
     </row>
     <row r="89" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="146"/>
-      <c r="C89" s="336"/>
+      <c r="C89" s="300"/>
       <c r="D89" s="191"/>
       <c r="E89" s="191" t="s">
         <v>479</v>
@@ -8667,15 +8827,15 @@
       <c r="H89" s="151"/>
       <c r="I89" s="151"/>
       <c r="J89" s="151"/>
-      <c r="K89" s="312"/>
+      <c r="K89" s="290"/>
       <c r="L89" s="151"/>
-      <c r="N89" s="247" t="s">
-        <v>611</v>
+      <c r="N89" s="244" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="146"/>
-      <c r="C90" s="336"/>
+      <c r="C90" s="300"/>
       <c r="D90" s="191"/>
       <c r="E90" s="191" t="s">
         <v>480</v>
@@ -8685,15 +8845,15 @@
       <c r="H90" s="151"/>
       <c r="I90" s="151"/>
       <c r="J90" s="151"/>
-      <c r="K90" s="312"/>
+      <c r="K90" s="290"/>
       <c r="L90" s="151"/>
-      <c r="N90" s="248" t="s">
-        <v>538</v>
+      <c r="N90" s="245" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="146"/>
-      <c r="C91" s="336"/>
+      <c r="C91" s="300"/>
       <c r="D91" s="191"/>
       <c r="E91" s="191" t="s">
         <v>481</v>
@@ -8703,13 +8863,13 @@
       <c r="H91" s="151"/>
       <c r="I91" s="151"/>
       <c r="J91" s="151"/>
-      <c r="K91" s="312"/>
+      <c r="K91" s="290"/>
       <c r="L91" s="151"/>
-      <c r="N91" s="231"/>
+      <c r="N91" s="229"/>
     </row>
     <row r="92" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="146"/>
-      <c r="C92" s="336"/>
+      <c r="C92" s="300"/>
       <c r="D92" s="191"/>
       <c r="E92" s="191" t="s">
         <v>485</v>
@@ -8719,15 +8879,15 @@
       <c r="H92" s="151"/>
       <c r="I92" s="151"/>
       <c r="J92" s="151"/>
-      <c r="K92" s="312"/>
+      <c r="K92" s="290"/>
       <c r="L92" s="151"/>
-      <c r="N92" s="249" t="s">
-        <v>539</v>
+      <c r="N92" s="246" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="93" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="146"/>
-      <c r="C93" s="336"/>
+      <c r="C93" s="300"/>
       <c r="D93" s="191" t="s">
         <v>482</v>
       </c>
@@ -8737,15 +8897,15 @@
       <c r="H93" s="151"/>
       <c r="I93" s="151"/>
       <c r="J93" s="151"/>
-      <c r="K93" s="312"/>
+      <c r="K93" s="290"/>
       <c r="L93" s="151"/>
-      <c r="N93" s="282" t="s">
-        <v>612</v>
+      <c r="N93" s="279" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="147"/>
-      <c r="C94" s="336"/>
+      <c r="C94" s="300"/>
       <c r="D94" s="191"/>
       <c r="E94" s="192" t="s">
         <v>486</v>
@@ -8755,15 +8915,15 @@
       <c r="H94" s="151"/>
       <c r="I94" s="151"/>
       <c r="J94" s="151"/>
-      <c r="K94" s="312"/>
+      <c r="K94" s="290"/>
       <c r="L94" s="151"/>
-      <c r="N94" s="251" t="s">
-        <v>541</v>
+      <c r="N94" s="248" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="146"/>
-      <c r="C95" s="336"/>
+      <c r="C95" s="300"/>
       <c r="D95" s="191"/>
       <c r="E95" s="194" t="s">
         <v>483</v>
@@ -8773,15 +8933,15 @@
       <c r="H95" s="151"/>
       <c r="I95" s="151"/>
       <c r="J95" s="151"/>
-      <c r="K95" s="312"/>
+      <c r="K95" s="290"/>
       <c r="L95" s="151"/>
-      <c r="N95" s="250" t="s">
-        <v>613</v>
+      <c r="N95" s="247" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="96" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="146"/>
-      <c r="C96" s="336"/>
+      <c r="C96" s="300"/>
       <c r="D96" s="191"/>
       <c r="E96" s="192" t="s">
         <v>435</v>
@@ -8791,15 +8951,15 @@
       <c r="H96" s="151"/>
       <c r="I96" s="151"/>
       <c r="J96" s="151"/>
-      <c r="K96" s="312"/>
+      <c r="K96" s="290"/>
       <c r="L96" s="151"/>
-      <c r="N96" s="251" t="s">
-        <v>543</v>
+      <c r="N96" s="248" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="97" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="147"/>
-      <c r="C97" s="336"/>
+      <c r="C97" s="300"/>
       <c r="D97" s="191"/>
       <c r="E97" s="194" t="s">
         <v>498</v>
@@ -8809,14 +8969,14 @@
       <c r="H97" s="151"/>
       <c r="I97" s="151"/>
       <c r="J97" s="151"/>
-      <c r="K97" s="312"/>
+      <c r="K97" s="290"/>
       <c r="L97" s="151"/>
-      <c r="N97" s="244" t="s">
-        <v>614</v>
+      <c r="N97" s="241" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="98" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="336"/>
+      <c r="C98" s="300"/>
       <c r="D98" s="191" t="s">
         <v>484</v>
       </c>
@@ -8826,15 +8986,15 @@
       <c r="H98" s="151"/>
       <c r="I98" s="151"/>
       <c r="J98" s="151"/>
-      <c r="K98" s="312"/>
+      <c r="K98" s="290"/>
       <c r="L98" s="151"/>
-      <c r="N98" s="281" t="s">
-        <v>615</v>
+      <c r="N98" s="278" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="99" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="147"/>
-      <c r="C99" s="336"/>
+      <c r="C99" s="300"/>
       <c r="D99" s="191"/>
       <c r="E99" s="191" t="s">
         <v>487</v>
@@ -8844,14 +9004,14 @@
       <c r="H99" s="151"/>
       <c r="I99" s="151"/>
       <c r="J99" s="151"/>
-      <c r="K99" s="312"/>
+      <c r="K99" s="290"/>
       <c r="L99" s="151"/>
-      <c r="N99" s="244" t="s">
-        <v>545</v>
+      <c r="N99" s="241" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="100" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="336"/>
+      <c r="C100" s="300"/>
       <c r="D100" s="191"/>
       <c r="E100" s="191" t="s">
         <v>488</v>
@@ -8861,13 +9021,13 @@
       <c r="H100" s="151"/>
       <c r="I100" s="151"/>
       <c r="J100" s="151"/>
-      <c r="K100" s="312"/>
+      <c r="K100" s="290"/>
       <c r="L100" s="151"/>
-      <c r="N100" s="246"/>
+      <c r="N100" s="243"/>
     </row>
     <row r="101" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="147"/>
-      <c r="C101" s="336"/>
+      <c r="C101" s="300"/>
       <c r="D101" s="191"/>
       <c r="E101" s="191" t="s">
         <v>489</v>
@@ -8877,11 +9037,11 @@
       <c r="H101" s="151"/>
       <c r="I101" s="151"/>
       <c r="J101" s="151"/>
-      <c r="K101" s="312"/>
+      <c r="K101" s="290"/>
       <c r="L101" s="151"/>
     </row>
     <row r="102" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="336"/>
+      <c r="C102" s="300"/>
       <c r="D102" s="191" t="s">
         <v>490</v>
       </c>
@@ -8891,15 +9051,15 @@
       <c r="H102" s="151"/>
       <c r="I102" s="151"/>
       <c r="J102" s="151"/>
-      <c r="K102" s="312"/>
+      <c r="K102" s="290"/>
       <c r="L102" s="151"/>
-      <c r="N102" s="247" t="s">
-        <v>616</v>
+      <c r="N102" s="244" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="146"/>
-      <c r="C103" s="336"/>
+      <c r="C103" s="300"/>
       <c r="D103" s="191"/>
       <c r="E103" s="191" t="s">
         <v>491</v>
@@ -8909,15 +9069,15 @@
       <c r="H103" s="151"/>
       <c r="I103" s="151"/>
       <c r="J103" s="151"/>
-      <c r="K103" s="312"/>
+      <c r="K103" s="290"/>
       <c r="L103" s="151"/>
-      <c r="N103" s="248" t="s">
-        <v>538</v>
+      <c r="N103" s="245" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="104" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="147"/>
-      <c r="C104" s="336"/>
+      <c r="C104" s="300"/>
       <c r="D104" s="191"/>
       <c r="E104" s="192" t="s">
         <v>492</v>
@@ -8927,12 +9087,12 @@
       <c r="H104" s="151"/>
       <c r="I104" s="151"/>
       <c r="J104" s="151"/>
-      <c r="K104" s="312"/>
+      <c r="K104" s="290"/>
       <c r="L104" s="151"/>
-      <c r="N104" s="231"/>
+      <c r="N104" s="229"/>
     </row>
     <row r="105" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="336"/>
+      <c r="C105" s="300"/>
       <c r="D105" s="191"/>
       <c r="E105" s="192" t="s">
         <v>493</v>
@@ -8942,14 +9102,14 @@
       <c r="H105" s="151"/>
       <c r="I105" s="151"/>
       <c r="J105" s="151"/>
-      <c r="K105" s="312"/>
+      <c r="K105" s="290"/>
       <c r="L105" s="151"/>
-      <c r="N105" s="249" t="s">
-        <v>539</v>
+      <c r="N105" s="246" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="106" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="336"/>
+      <c r="C106" s="300"/>
       <c r="D106" s="191"/>
       <c r="E106" s="192" t="s">
         <v>496</v>
@@ -8959,15 +9119,15 @@
       <c r="H106" s="151"/>
       <c r="I106" s="151"/>
       <c r="J106" s="151"/>
-      <c r="K106" s="312"/>
+      <c r="K106" s="290"/>
       <c r="L106" s="151"/>
-      <c r="N106" s="250" t="s">
-        <v>617</v>
+      <c r="N106" s="247" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="147"/>
-      <c r="C107" s="336"/>
+      <c r="C107" s="300"/>
       <c r="D107" s="191"/>
       <c r="E107" s="191" t="s">
         <v>494</v>
@@ -8977,14 +9137,14 @@
       <c r="H107" s="151"/>
       <c r="I107" s="151"/>
       <c r="J107" s="151"/>
-      <c r="K107" s="312"/>
+      <c r="K107" s="290"/>
       <c r="L107" s="151"/>
-      <c r="N107" s="251" t="s">
-        <v>541</v>
+      <c r="N107" s="248" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="108" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="336"/>
+      <c r="C108" s="300"/>
       <c r="D108" s="191"/>
       <c r="E108" s="192" t="s">
         <v>495</v>
@@ -8994,14 +9154,14 @@
       <c r="H108" s="151"/>
       <c r="I108" s="151"/>
       <c r="J108" s="151"/>
-      <c r="K108" s="312"/>
+      <c r="K108" s="290"/>
       <c r="L108" s="151"/>
-      <c r="N108" s="282" t="s">
-        <v>618</v>
+      <c r="N108" s="279" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="2:14" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="336"/>
+      <c r="C109" s="300"/>
       <c r="D109" s="191"/>
       <c r="E109" s="193" t="s">
         <v>497</v>
@@ -9011,30 +9171,30 @@
       <c r="H109" s="151"/>
       <c r="I109" s="151"/>
       <c r="J109" s="151"/>
-      <c r="K109" s="312"/>
+      <c r="K109" s="290"/>
       <c r="L109" s="151"/>
-      <c r="N109" s="251"/>
+      <c r="N109" s="248"/>
     </row>
     <row r="110" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="337"/>
-      <c r="D110" s="299" t="s">
+      <c r="C110" s="301"/>
+      <c r="D110" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="E110" s="300"/>
+      <c r="E110" s="293"/>
       <c r="F110" s="151"/>
       <c r="G110" s="152"/>
       <c r="H110" s="151"/>
       <c r="I110" s="151"/>
       <c r="J110" s="151"/>
-      <c r="K110" s="323"/>
+      <c r="K110" s="291"/>
       <c r="L110" s="151"/>
-      <c r="N110" s="244"/>
+      <c r="N110" s="241"/>
     </row>
     <row r="111" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" s="171"/>
       <c r="E111" s="172"/>
-      <c r="N111" s="281" t="s">
-        <v>610</v>
+      <c r="N111" s="278" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9049,8 +9209,8 @@
       <c r="J112" s="164"/>
       <c r="K112" s="168"/>
       <c r="L112" s="164"/>
-      <c r="N112" s="244" t="s">
-        <v>545</v>
+      <c r="N112" s="241" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9058,183 +9218,185 @@
       <c r="C113" s="195" t="s">
         <v>499</v>
       </c>
-      <c r="D113" s="328"/>
-      <c r="E113" s="329"/>
+      <c r="D113" s="311"/>
+      <c r="E113" s="312"/>
       <c r="F113" s="151"/>
       <c r="G113" s="152"/>
       <c r="H113" s="151"/>
       <c r="I113" s="151"/>
       <c r="J113" s="151"/>
-      <c r="K113" s="311"/>
+      <c r="K113" s="350" t="s">
+        <v>624</v>
+      </c>
       <c r="L113" s="151"/>
-      <c r="N113" s="246"/>
+      <c r="N113" s="243"/>
     </row>
     <row r="114" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="146"/>
       <c r="C114" s="196" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D114" s="134"/>
       <c r="E114" s="135" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F114" s="151"/>
       <c r="G114" s="152"/>
       <c r="H114" s="151"/>
       <c r="I114" s="151"/>
       <c r="J114" s="151"/>
-      <c r="K114" s="312"/>
+      <c r="K114" s="351"/>
       <c r="L114" s="151"/>
     </row>
     <row r="115" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="146"/>
-      <c r="C115" s="196" t="s">
-        <v>500</v>
-      </c>
+      <c r="C115" s="196"/>
       <c r="D115" s="136"/>
-      <c r="E115" s="280" t="s">
-        <v>589</v>
+      <c r="E115" s="277" t="s">
+        <v>583</v>
       </c>
       <c r="F115" s="151"/>
       <c r="G115" s="152"/>
       <c r="H115" s="151"/>
       <c r="I115" s="151"/>
       <c r="J115" s="151"/>
-      <c r="K115" s="312"/>
+      <c r="K115" s="351"/>
       <c r="L115" s="151"/>
-      <c r="N115" s="247" t="s">
-        <v>601</v>
+      <c r="N115" s="244" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="116" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="146"/>
-      <c r="C116" s="196" t="s">
-        <v>502</v>
-      </c>
+      <c r="C116" s="196"/>
       <c r="D116" s="136"/>
       <c r="E116" s="137" t="s">
-        <v>509</v>
+        <v>622</v>
       </c>
       <c r="F116" s="151"/>
       <c r="G116" s="152"/>
       <c r="H116" s="151"/>
       <c r="I116" s="151"/>
       <c r="J116" s="151"/>
-      <c r="K116" s="312"/>
+      <c r="K116" s="351"/>
       <c r="L116" s="151"/>
-      <c r="N116" s="248" t="s">
-        <v>538</v>
+      <c r="N116" s="245" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="117" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="146"/>
-      <c r="C117" s="196" t="s">
-        <v>503</v>
-      </c>
+      <c r="C117" s="196"/>
       <c r="D117" s="136"/>
-      <c r="E117" s="137" t="s">
-        <v>510</v>
+      <c r="E117" s="349" t="s">
+        <v>623</v>
       </c>
       <c r="F117" s="151"/>
       <c r="G117" s="152"/>
       <c r="H117" s="151"/>
       <c r="I117" s="151"/>
       <c r="J117" s="151"/>
-      <c r="K117" s="312"/>
+      <c r="K117" s="351"/>
       <c r="L117" s="151"/>
-      <c r="N117" s="231"/>
+      <c r="N117" s="229"/>
     </row>
     <row r="118" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="146"/>
-      <c r="C118" s="196" t="s">
-        <v>504</v>
-      </c>
-      <c r="D118" s="136"/>
+      <c r="C118" s="196"/>
+      <c r="D118" s="353" t="s">
+        <v>625</v>
+      </c>
       <c r="E118" s="137"/>
       <c r="F118" s="151"/>
       <c r="G118" s="152"/>
       <c r="H118" s="151"/>
       <c r="I118" s="151"/>
       <c r="J118" s="151"/>
-      <c r="K118" s="312"/>
+      <c r="K118" s="351"/>
       <c r="L118" s="151"/>
-      <c r="N118" s="249" t="s">
-        <v>539</v>
+      <c r="N118" s="246" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="119" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="146"/>
-      <c r="C119" s="196" t="s">
-        <v>505</v>
-      </c>
+      <c r="C119" s="196"/>
       <c r="D119" s="136"/>
-      <c r="E119" s="137"/>
+      <c r="E119" s="137" t="s">
+        <v>626</v>
+      </c>
       <c r="F119" s="151"/>
       <c r="G119" s="152"/>
       <c r="H119" s="151"/>
       <c r="I119" s="151"/>
       <c r="J119" s="151"/>
-      <c r="K119" s="312"/>
+      <c r="K119" s="351"/>
       <c r="L119" s="151"/>
-      <c r="N119" s="282" t="s">
-        <v>603</v>
+      <c r="N119" s="279" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="120" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="146"/>
-      <c r="C120" s="196" t="s">
-        <v>506</v>
-      </c>
-      <c r="D120" s="136"/>
+      <c r="C120" s="196"/>
+      <c r="D120" s="136" t="s">
+        <v>636</v>
+      </c>
       <c r="E120" s="137"/>
       <c r="F120" s="151"/>
       <c r="G120" s="152"/>
       <c r="H120" s="151"/>
       <c r="I120" s="151"/>
       <c r="J120" s="151"/>
-      <c r="K120" s="312"/>
+      <c r="K120" s="351"/>
       <c r="L120" s="151"/>
-      <c r="N120" s="251" t="s">
-        <v>541</v>
+      <c r="N120" s="248" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="146"/>
       <c r="C121" s="196" t="s">
-        <v>507</v>
-      </c>
-      <c r="D121" s="136"/>
+        <v>501</v>
+      </c>
+      <c r="D121" s="361" t="s">
+        <v>627</v>
+      </c>
       <c r="E121" s="132"/>
       <c r="F121" s="151"/>
       <c r="G121" s="152"/>
       <c r="H121" s="151"/>
       <c r="I121" s="151"/>
       <c r="J121" s="151"/>
-      <c r="K121" s="312"/>
+      <c r="K121" s="351"/>
       <c r="L121" s="151"/>
-      <c r="N121" s="250" t="s">
-        <v>604</v>
+      <c r="N121" s="247" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="147"/>
-      <c r="C122" s="196"/>
-      <c r="D122" s="136"/>
+      <c r="C122" s="196" t="s">
+        <v>502</v>
+      </c>
+      <c r="D122" s="362" t="s">
+        <v>501</v>
+      </c>
       <c r="E122" s="132"/>
       <c r="F122" s="151"/>
       <c r="G122" s="152"/>
       <c r="H122" s="151"/>
       <c r="I122" s="151"/>
       <c r="J122" s="151"/>
-      <c r="K122" s="312"/>
+      <c r="K122" s="351"/>
       <c r="L122" s="151"/>
-      <c r="N122" s="251" t="s">
-        <v>543</v>
-      </c>
+      <c r="N122" s="248"/>
     </row>
     <row r="123" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="147"/>
-      <c r="C123" s="196"/>
+      <c r="C123" s="196" t="s">
+        <v>503</v>
+      </c>
       <c r="D123" s="136"/>
       <c r="E123" s="132"/>
       <c r="F123" s="151"/>
@@ -9242,15 +9404,15 @@
       <c r="H123" s="151"/>
       <c r="I123" s="151"/>
       <c r="J123" s="151"/>
-      <c r="K123" s="312"/>
+      <c r="K123" s="351"/>
       <c r="L123" s="151"/>
-      <c r="N123" s="244" t="s">
-        <v>605</v>
-      </c>
+      <c r="N123" s="241"/>
     </row>
     <row r="124" spans="2:14" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="147"/>
-      <c r="C124" s="196"/>
+      <c r="C124" s="196" t="s">
+        <v>504</v>
+      </c>
       <c r="D124" s="136"/>
       <c r="E124" s="132"/>
       <c r="F124" s="151"/>
@@ -9258,10 +9420,10 @@
       <c r="H124" s="151"/>
       <c r="I124" s="151"/>
       <c r="J124" s="151"/>
-      <c r="K124" s="312"/>
+      <c r="K124" s="351"/>
       <c r="L124" s="151"/>
-      <c r="N124" s="281" t="s">
-        <v>606</v>
+      <c r="N124" s="278" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="125" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9274,10 +9436,10 @@
       <c r="H125" s="151"/>
       <c r="I125" s="151"/>
       <c r="J125" s="151"/>
-      <c r="K125" s="312"/>
+      <c r="K125" s="351"/>
       <c r="L125" s="151"/>
-      <c r="N125" s="244" t="s">
-        <v>545</v>
+      <c r="N125" s="241" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9289,95 +9451,95 @@
       <c r="H126" s="151"/>
       <c r="I126" s="151"/>
       <c r="J126" s="151"/>
-      <c r="K126" s="312"/>
+      <c r="K126" s="351"/>
       <c r="L126" s="151"/>
-      <c r="N126" s="246"/>
+      <c r="N126" s="243"/>
     </row>
     <row r="127" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C127" s="197"/>
-      <c r="D127" s="299" t="s">
+      <c r="D127" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="E127" s="300"/>
+      <c r="E127" s="293"/>
       <c r="F127" s="151"/>
       <c r="G127" s="152"/>
       <c r="H127" s="151"/>
       <c r="I127" s="151"/>
       <c r="J127" s="151"/>
-      <c r="K127" s="323"/>
+      <c r="K127" s="352"/>
       <c r="L127" s="151"/>
       <c r="N127" s="144"/>
     </row>
     <row r="128" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="171"/>
       <c r="E128" s="172"/>
-      <c r="N128" s="247" t="s">
-        <v>602</v>
+      <c r="N128" s="244" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="129" spans="3:14" s="131" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D129" s="114"/>
       <c r="E129" s="198"/>
       <c r="F129" s="114"/>
-      <c r="G129" s="114"/>
+      <c r="G129" s="347"/>
       <c r="H129" s="114"/>
       <c r="I129" s="199"/>
-      <c r="N129" s="248" t="s">
-        <v>538</v>
+      <c r="N129" s="245" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="3:14" s="131" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C130" s="200" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D130" s="201" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E130" s="202"/>
       <c r="F130" s="114"/>
-      <c r="G130" s="114"/>
+      <c r="G130" s="347"/>
       <c r="H130" s="114"/>
       <c r="I130" s="199"/>
-      <c r="N130" s="231"/>
+      <c r="N130" s="229"/>
     </row>
     <row r="131" spans="3:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C131" s="203"/>
       <c r="D131" s="204"/>
       <c r="E131" s="205"/>
       <c r="F131" s="114"/>
-      <c r="G131" s="114"/>
+      <c r="G131" s="347"/>
       <c r="H131" s="114"/>
       <c r="I131" s="199"/>
-      <c r="N131" s="249" t="s">
-        <v>539</v>
+      <c r="N131" s="246" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="132" spans="3:14" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C132" s="203"/>
       <c r="D132" s="206"/>
       <c r="E132" s="207" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F132" s="114"/>
-      <c r="G132" s="114"/>
+      <c r="G132" s="347"/>
       <c r="H132" s="114"/>
       <c r="I132" s="199"/>
-      <c r="N132" s="250" t="s">
-        <v>607</v>
+      <c r="N132" s="247" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="133" spans="3:14" s="131" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C133" s="203"/>
       <c r="D133" s="204"/>
       <c r="E133" s="208" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F133" s="114"/>
-      <c r="G133" s="114"/>
+      <c r="G133" s="347"/>
       <c r="H133" s="114"/>
       <c r="I133" s="199"/>
-      <c r="N133" s="251" t="s">
-        <v>541</v>
+      <c r="N133" s="248" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="3:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
@@ -9385,251 +9547,247 @@
       <c r="D134" s="204"/>
       <c r="E134" s="209"/>
       <c r="F134" s="114"/>
-      <c r="G134" s="114"/>
+      <c r="G134" s="347"/>
       <c r="H134" s="114"/>
       <c r="I134" s="199"/>
-      <c r="N134" s="250" t="s">
-        <v>608</v>
+      <c r="N134" s="247" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="135" spans="3:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D135" s="204"/>
       <c r="E135" s="210" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F135" s="114"/>
-      <c r="G135" s="211"/>
+      <c r="G135" s="347"/>
       <c r="H135" s="114"/>
       <c r="I135" s="199"/>
-      <c r="N135" s="251" t="s">
-        <v>543</v>
-      </c>
+      <c r="N135" s="248"/>
     </row>
     <row r="136" spans="3:14" s="131" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="D136" s="204"/>
-      <c r="E136" s="212" t="s">
-        <v>586</v>
+      <c r="E136" s="211" t="s">
+        <v>580</v>
       </c>
       <c r="F136" s="114"/>
-      <c r="G136" s="211"/>
+      <c r="G136" s="347"/>
       <c r="H136" s="114"/>
       <c r="I136" s="199"/>
-      <c r="N136" s="244" t="s">
-        <v>609</v>
-      </c>
+      <c r="N136" s="241"/>
     </row>
     <row r="137" spans="3:14" s="131" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="D137" s="204"/>
-      <c r="E137" s="213"/>
+      <c r="E137" s="212"/>
       <c r="F137" s="114"/>
-      <c r="G137" s="114"/>
+      <c r="G137" s="347"/>
       <c r="H137" s="114"/>
       <c r="I137" s="199"/>
-      <c r="N137" s="281" t="s">
-        <v>610</v>
+      <c r="N137" s="278" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="3:14" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D138" s="204"/>
       <c r="E138" s="210" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F138" s="114"/>
-      <c r="G138" s="211"/>
+      <c r="G138" s="347"/>
       <c r="H138" s="114"/>
       <c r="I138" s="199"/>
-      <c r="N138" s="244" t="s">
-        <v>545</v>
+      <c r="N138" s="241" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="3:14" s="131" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D139" s="204"/>
-      <c r="E139" s="212" t="s">
-        <v>517</v>
+      <c r="E139" s="211" t="s">
+        <v>512</v>
       </c>
       <c r="F139" s="114"/>
-      <c r="G139" s="211"/>
+      <c r="G139" s="347"/>
       <c r="H139" s="114"/>
-      <c r="N139" s="246"/>
+      <c r="N139" s="243"/>
     </row>
     <row r="140" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" s="204"/>
       <c r="E140" s="209"/>
       <c r="F140" s="114"/>
-      <c r="G140" s="114"/>
+      <c r="G140" s="347"/>
       <c r="H140" s="114"/>
-      <c r="I140" s="199" t="s">
-        <v>518</v>
-      </c>
+      <c r="I140" s="199"/>
     </row>
     <row r="141" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D141" s="204"/>
-      <c r="E141" s="214" t="s">
-        <v>519</v>
+      <c r="E141" s="213" t="s">
+        <v>513</v>
       </c>
       <c r="F141" s="114"/>
-      <c r="G141" s="215"/>
+      <c r="G141" s="347"/>
       <c r="H141" s="114"/>
       <c r="I141" s="199"/>
     </row>
     <row r="142" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D142" s="216" t="s">
-        <v>520</v>
-      </c>
-      <c r="E142" s="217"/>
+      <c r="D142" s="214" t="s">
+        <v>514</v>
+      </c>
+      <c r="E142" s="215"/>
       <c r="F142" s="114"/>
-      <c r="G142" s="215"/>
+      <c r="G142" s="347"/>
       <c r="H142" s="114"/>
       <c r="I142" s="199"/>
     </row>
     <row r="143" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D143" s="204"/>
-      <c r="E143" s="218" t="s">
-        <v>521</v>
+      <c r="E143" s="216" t="s">
+        <v>515</v>
       </c>
       <c r="F143" s="114"/>
-      <c r="G143" s="215"/>
+      <c r="G143" s="347"/>
       <c r="H143" s="114"/>
       <c r="I143" s="199"/>
     </row>
     <row r="144" spans="3:14" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" s="204"/>
-      <c r="E144" s="219" t="s">
-        <v>522</v>
+      <c r="E144" s="217" t="s">
+        <v>516</v>
       </c>
       <c r="F144" s="114"/>
-      <c r="G144" s="215"/>
+      <c r="G144" s="347"/>
       <c r="H144" s="114"/>
       <c r="I144" s="199"/>
     </row>
     <row r="145" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D145" s="220"/>
-      <c r="E145" s="221" t="s">
-        <v>523</v>
+      <c r="D145" s="218"/>
+      <c r="E145" s="219" t="s">
+        <v>517</v>
       </c>
       <c r="F145" s="114"/>
-      <c r="G145" s="215"/>
+      <c r="G145" s="347"/>
       <c r="H145" s="114"/>
       <c r="I145" s="199"/>
     </row>
     <row r="146" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D146" s="220"/>
-      <c r="E146" s="222" t="s">
-        <v>590</v>
+      <c r="D146" s="218"/>
+      <c r="E146" s="220" t="s">
+        <v>584</v>
       </c>
       <c r="F146" s="114"/>
-      <c r="G146" s="215"/>
+      <c r="G146" s="347"/>
       <c r="H146" s="114"/>
       <c r="I146" s="199"/>
     </row>
     <row r="147" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D147" s="223"/>
-      <c r="E147" s="224"/>
+      <c r="D147" s="221"/>
+      <c r="E147" s="222"/>
       <c r="F147" s="114"/>
-      <c r="G147" s="114"/>
+      <c r="G147" s="347"/>
       <c r="H147" s="114"/>
       <c r="I147" s="199"/>
     </row>
     <row r="148" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D148" s="223"/>
-      <c r="E148" s="214" t="s">
-        <v>591</v>
+      <c r="D148" s="221"/>
+      <c r="E148" s="213" t="s">
+        <v>585</v>
       </c>
       <c r="F148" s="114"/>
-      <c r="G148" s="215"/>
+      <c r="G148" s="347"/>
       <c r="H148" s="114"/>
       <c r="I148" s="199"/>
     </row>
     <row r="149" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D149" s="223"/>
-      <c r="E149" s="225" t="s">
-        <v>524</v>
+      <c r="D149" s="221"/>
+      <c r="E149" s="223" t="s">
+        <v>518</v>
       </c>
       <c r="F149" s="114"/>
-      <c r="G149" s="215"/>
+      <c r="G149" s="347"/>
       <c r="H149" s="114"/>
       <c r="I149" s="199"/>
     </row>
     <row r="150" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D150" s="223"/>
-      <c r="E150" s="226" t="s">
-        <v>525</v>
+      <c r="D150" s="221"/>
+      <c r="E150" s="224" t="s">
+        <v>519</v>
       </c>
       <c r="F150" s="114"/>
-      <c r="G150" s="215"/>
+      <c r="G150" s="347"/>
       <c r="H150" s="114"/>
       <c r="I150" s="199"/>
     </row>
     <row r="151" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C151" s="199"/>
-      <c r="D151" s="308" t="s">
+      <c r="D151" s="333" t="s">
         <v>75</v>
       </c>
-      <c r="E151" s="309"/>
+      <c r="E151" s="334"/>
       <c r="F151" s="114"/>
-      <c r="G151" s="114"/>
+      <c r="G151" s="347"/>
       <c r="H151" s="114"/>
       <c r="I151" s="199"/>
     </row>
     <row r="152" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" s="199"/>
+      <c r="G152" s="348"/>
       <c r="I152" s="199"/>
     </row>
     <row r="153" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D153" s="199"/>
+      <c r="G153" s="348"/>
       <c r="I153" s="199"/>
     </row>
     <row r="154" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="227" t="s">
-        <v>526</v>
-      </c>
-      <c r="D154" s="228"/>
-      <c r="E154" s="229" t="s">
-        <v>527</v>
+      <c r="C154" s="225" t="s">
+        <v>520</v>
+      </c>
+      <c r="D154" s="226"/>
+      <c r="E154" s="227" t="s">
+        <v>521</v>
       </c>
       <c r="F154" s="114"/>
-      <c r="G154" s="114"/>
+      <c r="G154" s="347"/>
       <c r="H154" s="114"/>
     </row>
     <row r="155" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D155" s="204"/>
       <c r="E155" s="205" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F155" s="114"/>
-      <c r="G155" s="114"/>
+      <c r="G155" s="347"/>
       <c r="H155" s="114"/>
       <c r="I155" s="199"/>
     </row>
     <row r="156" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D156" s="206"/>
-      <c r="E156" s="230" t="s">
-        <v>529</v>
+      <c r="E156" s="228" t="s">
+        <v>523</v>
       </c>
       <c r="F156" s="114"/>
-      <c r="G156" s="114"/>
+      <c r="G156" s="347"/>
       <c r="H156" s="114"/>
       <c r="I156" s="199"/>
     </row>
     <row r="157" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D157" s="206"/>
-      <c r="E157" s="231" t="s">
-        <v>592</v>
+      <c r="E157" s="229" t="s">
+        <v>586</v>
       </c>
       <c r="F157" s="114"/>
-      <c r="G157" s="114"/>
+      <c r="G157" s="347"/>
       <c r="H157" s="114"/>
       <c r="I157" s="199" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D158" s="301" t="s">
+      <c r="D158" s="304" t="s">
         <v>75</v>
       </c>
-      <c r="E158" s="302"/>
+      <c r="E158" s="305"/>
       <c r="F158" s="114"/>
-      <c r="G158" s="114"/>
+      <c r="G158" s="347"/>
       <c r="H158" s="114"/>
       <c r="I158" s="199"/>
     </row>
@@ -9637,416 +9795,458 @@
       <c r="D159" s="114"/>
       <c r="E159" s="198"/>
       <c r="F159" s="114"/>
-      <c r="G159" s="114"/>
+      <c r="G159" s="347"/>
       <c r="H159" s="114"/>
       <c r="I159" s="199"/>
     </row>
     <row r="160" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="348"/>
       <c r="I160" s="199"/>
     </row>
     <row r="161" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="232" t="s">
-        <v>531</v>
-      </c>
-      <c r="D161" s="228"/>
-      <c r="E161" s="233" t="s">
-        <v>532</v>
-      </c>
-      <c r="G161" s="234"/>
+      <c r="C161" s="230" t="s">
+        <v>525</v>
+      </c>
+      <c r="D161" s="226"/>
+      <c r="E161" s="231" t="s">
+        <v>526</v>
+      </c>
+      <c r="G161" s="348"/>
       <c r="I161" s="199" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="235"/>
-      <c r="D162" s="236"/>
-      <c r="E162" s="237" t="s">
-        <v>534</v>
-      </c>
-      <c r="G162" s="234"/>
+      <c r="C162" s="232"/>
+      <c r="D162" s="233"/>
+      <c r="E162" s="234" t="s">
+        <v>528</v>
+      </c>
+      <c r="G162" s="348"/>
       <c r="I162" s="199"/>
     </row>
     <row r="163" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D163" s="204"/>
-      <c r="E163" s="238" t="s">
-        <v>535</v>
-      </c>
-      <c r="G163" s="234"/>
+      <c r="E163" s="235" t="s">
+        <v>529</v>
+      </c>
+      <c r="G163" s="348"/>
       <c r="I163" s="199"/>
     </row>
     <row r="164" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D164" s="204"/>
-      <c r="E164" s="239" t="s">
-        <v>536</v>
-      </c>
-      <c r="G164" s="234"/>
+      <c r="E164" s="236" t="s">
+        <v>530</v>
+      </c>
+      <c r="G164" s="348"/>
       <c r="I164" s="199"/>
     </row>
     <row r="165" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D165" s="301" t="s">
+      <c r="D165" s="304" t="s">
         <v>75</v>
       </c>
-      <c r="E165" s="310"/>
+      <c r="E165" s="335"/>
+      <c r="G165" s="348"/>
       <c r="I165" s="199"/>
     </row>
     <row r="166" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G166" s="348"/>
       <c r="I166" s="199"/>
     </row>
     <row r="167" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G167" s="348"/>
       <c r="I167" s="199"/>
     </row>
     <row r="168" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="240" t="s">
-        <v>537</v>
-      </c>
-      <c r="D168" s="241"/>
-      <c r="E168" s="349" t="s">
-        <v>621</v>
-      </c>
+      <c r="C168" s="237" t="s">
+        <v>531</v>
+      </c>
+      <c r="D168" s="238"/>
+      <c r="E168" s="282" t="s">
+        <v>614</v>
+      </c>
+      <c r="G168" s="348"/>
       <c r="I168" s="199"/>
     </row>
     <row r="169" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="235"/>
-      <c r="D169" s="242"/>
-      <c r="E169" s="243" t="s">
-        <v>622</v>
-      </c>
+      <c r="C169" s="232"/>
+      <c r="D169" s="239"/>
+      <c r="E169" s="240" t="s">
+        <v>615</v>
+      </c>
+      <c r="G169" s="348"/>
       <c r="I169" s="199"/>
     </row>
     <row r="170" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D170" s="303" t="s">
+      <c r="D170" s="336" t="s">
         <v>75</v>
       </c>
-      <c r="E170" s="304"/>
+      <c r="E170" s="337"/>
+      <c r="G170" s="348"/>
       <c r="I170" s="116"/>
     </row>
     <row r="171" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="348"/>
       <c r="I171" s="116"/>
     </row>
     <row r="172" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="252" t="s">
-        <v>554</v>
-      </c>
-      <c r="D172" s="253"/>
-      <c r="E172" s="254" t="s">
-        <v>555</v>
-      </c>
-      <c r="G172" s="234"/>
+      <c r="C172" s="249" t="s">
+        <v>548</v>
+      </c>
+      <c r="D172" s="250"/>
+      <c r="E172" s="251" t="s">
+        <v>549</v>
+      </c>
+      <c r="G172" s="348"/>
       <c r="I172" s="199"/>
     </row>
     <row r="173" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="235"/>
-      <c r="D173" s="255"/>
-      <c r="E173" s="256" t="s">
-        <v>556</v>
-      </c>
-      <c r="G173" s="234"/>
+      <c r="C173" s="232"/>
+      <c r="D173" s="252"/>
+      <c r="E173" s="253" t="s">
+        <v>550</v>
+      </c>
+      <c r="G173" s="348"/>
       <c r="I173" s="199"/>
     </row>
     <row r="174" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D174" s="206"/>
-      <c r="E174" s="257" t="s">
-        <v>557</v>
-      </c>
-      <c r="F174" s="258"/>
-      <c r="G174" s="234"/>
+      <c r="E174" s="254" t="s">
+        <v>551</v>
+      </c>
+      <c r="F174" s="255"/>
+      <c r="G174" s="348"/>
       <c r="I174" s="199"/>
     </row>
     <row r="175" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D175" s="206"/>
-      <c r="E175" s="259" t="s">
-        <v>558</v>
-      </c>
-      <c r="F175" s="258"/>
-      <c r="G175" s="234"/>
+      <c r="E175" s="256" t="s">
+        <v>552</v>
+      </c>
+      <c r="F175" s="255"/>
+      <c r="G175" s="348"/>
       <c r="I175" s="199"/>
     </row>
     <row r="176" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D176" s="206"/>
-      <c r="E176" s="256" t="s">
-        <v>559</v>
-      </c>
-      <c r="F176" s="258"/>
-      <c r="G176" s="234"/>
+      <c r="E176" s="253" t="s">
+        <v>553</v>
+      </c>
+      <c r="F176" s="255"/>
+      <c r="G176" s="348"/>
       <c r="I176" s="199"/>
     </row>
     <row r="177" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="199" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D177" s="206"/>
-      <c r="E177" s="256" t="s">
-        <v>560</v>
-      </c>
-      <c r="F177" s="258"/>
-      <c r="G177" s="234"/>
+      <c r="E177" s="253" t="s">
+        <v>554</v>
+      </c>
+      <c r="F177" s="255"/>
+      <c r="G177" s="348"/>
       <c r="I177" s="199"/>
     </row>
     <row r="178" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D178" s="206"/>
-      <c r="E178" s="231"/>
-      <c r="G178" s="234"/>
+      <c r="E178" s="229"/>
+      <c r="G178" s="348"/>
       <c r="I178" s="199"/>
     </row>
     <row r="179" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D179" s="206"/>
-      <c r="E179" s="257" t="s">
-        <v>561</v>
-      </c>
-      <c r="F179" s="258"/>
-      <c r="G179" s="234"/>
+      <c r="E179" s="254" t="s">
+        <v>555</v>
+      </c>
+      <c r="F179" s="255"/>
+      <c r="G179" s="348"/>
       <c r="I179" s="199"/>
     </row>
     <row r="180" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D180" s="206"/>
-      <c r="E180" s="259" t="s">
+      <c r="E180" s="256" t="s">
+        <v>552</v>
+      </c>
+      <c r="F180" s="255"/>
+      <c r="G180" s="348"/>
+      <c r="I180" s="199"/>
+    </row>
+    <row r="181" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D181" s="257"/>
+      <c r="E181" s="253" t="s">
+        <v>556</v>
+      </c>
+      <c r="F181" s="255"/>
+      <c r="G181" s="348"/>
+      <c r="I181" s="199"/>
+    </row>
+    <row r="182" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="304" t="s">
+        <v>75</v>
+      </c>
+      <c r="E182" s="305"/>
+      <c r="G182" s="348"/>
+      <c r="I182" s="199"/>
+    </row>
+    <row r="183" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G183" s="348"/>
+      <c r="I183" s="199"/>
+    </row>
+    <row r="184" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="258" t="s">
+        <v>557</v>
+      </c>
+      <c r="D184" s="226" t="s">
         <v>558</v>
       </c>
-      <c r="F180" s="258"/>
-      <c r="G180" s="234"/>
-      <c r="I180" s="199"/>
-    </row>
-    <row r="181" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D181" s="260"/>
-      <c r="E181" s="256" t="s">
+      <c r="E184" s="259"/>
+      <c r="G184" s="348"/>
+      <c r="I184" s="199" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="260"/>
+      <c r="D185" s="252"/>
+      <c r="E185" s="261" t="s">
+        <v>560</v>
+      </c>
+      <c r="G185" s="348"/>
+      <c r="I185" s="199"/>
+    </row>
+    <row r="186" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="260"/>
+      <c r="D186" s="206" t="s">
+        <v>561</v>
+      </c>
+      <c r="E186" s="262"/>
+      <c r="G186" s="348"/>
+      <c r="I186" s="199"/>
+    </row>
+    <row r="187" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="260"/>
+      <c r="D187" s="252"/>
+      <c r="E187" s="261" t="s">
         <v>562</v>
       </c>
-      <c r="F181" s="258"/>
-      <c r="G181" s="234"/>
-      <c r="I181" s="199"/>
-    </row>
-    <row r="182" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D182" s="301" t="s">
-        <v>75</v>
-      </c>
-      <c r="E182" s="302"/>
-      <c r="I182" s="199"/>
-    </row>
-    <row r="183" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I183" s="199"/>
-    </row>
-    <row r="184" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="261" t="s">
-        <v>563</v>
-      </c>
-      <c r="D184" s="228" t="s">
-        <v>564</v>
-      </c>
-      <c r="E184" s="262"/>
-      <c r="I184" s="199" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="263"/>
-      <c r="D185" s="255"/>
-      <c r="E185" s="264" t="s">
-        <v>566</v>
-      </c>
-      <c r="I185" s="199"/>
-    </row>
-    <row r="186" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="263"/>
-      <c r="D186" s="206" t="s">
-        <v>567</v>
-      </c>
-      <c r="E186" s="265"/>
-      <c r="I186" s="199"/>
-    </row>
-    <row r="187" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="263"/>
-      <c r="D187" s="255"/>
-      <c r="E187" s="264" t="s">
-        <v>568</v>
-      </c>
+      <c r="G187" s="348"/>
       <c r="I187" s="199"/>
     </row>
     <row r="188" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D188" s="206" t="s">
-        <v>569</v>
-      </c>
-      <c r="E188" s="265"/>
+        <v>563</v>
+      </c>
+      <c r="E188" s="262"/>
+      <c r="G188" s="348"/>
       <c r="I188" s="199" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D189" s="252"/>
+      <c r="E189" s="261" t="s">
+        <v>564</v>
+      </c>
+      <c r="G189" s="348"/>
+      <c r="I189" s="199"/>
+    </row>
+    <row r="190" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="304" t="s">
+        <v>75</v>
+      </c>
+      <c r="E190" s="305"/>
+      <c r="G190" s="348"/>
+      <c r="I190" s="199"/>
+    </row>
+    <row r="191" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G191" s="348"/>
+      <c r="I191" s="199"/>
+    </row>
+    <row r="192" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G192" s="348"/>
+      <c r="I192" s="199"/>
+    </row>
+    <row r="193" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="263" t="s">
+        <v>560</v>
+      </c>
+      <c r="D193" s="226" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D189" s="255"/>
-      <c r="E189" s="264" t="s">
-        <v>570</v>
-      </c>
-      <c r="I189" s="199"/>
-    </row>
-    <row r="190" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D190" s="301" t="s">
-        <v>75</v>
-      </c>
-      <c r="E190" s="302"/>
-      <c r="I190" s="199"/>
-    </row>
-    <row r="191" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I191" s="199"/>
-    </row>
-    <row r="192" spans="1:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I192" s="199"/>
-    </row>
-    <row r="193" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="266" t="s">
-        <v>566</v>
-      </c>
-      <c r="D193" s="228" t="s">
-        <v>571</v>
-      </c>
-      <c r="E193" s="262"/>
+      <c r="E193" s="259"/>
+      <c r="G193" s="348"/>
       <c r="I193" s="199"/>
     </row>
     <row r="194" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="278"/>
-      <c r="D194" s="255"/>
-      <c r="E194" s="279" t="s">
-        <v>588</v>
-      </c>
+      <c r="C194" s="275"/>
+      <c r="D194" s="252"/>
+      <c r="E194" s="276" t="s">
+        <v>582</v>
+      </c>
+      <c r="G194" s="348"/>
       <c r="I194" s="199"/>
     </row>
     <row r="195" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D195" s="206"/>
-      <c r="E195" s="231" t="s">
-        <v>572</v>
-      </c>
+      <c r="E195" s="229" t="s">
+        <v>566</v>
+      </c>
+      <c r="G195" s="348"/>
       <c r="I195" s="199"/>
     </row>
     <row r="196" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D196" s="255"/>
-      <c r="E196" s="231" t="s">
-        <v>573</v>
-      </c>
+      <c r="D196" s="252"/>
+      <c r="E196" s="229" t="s">
+        <v>567</v>
+      </c>
+      <c r="G196" s="348"/>
       <c r="I196" s="199"/>
     </row>
     <row r="197" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D197" s="206" t="s">
+        <v>568</v>
+      </c>
+      <c r="E197" s="229"/>
+      <c r="G197" s="348"/>
+      <c r="I197" s="199"/>
+    </row>
+    <row r="198" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D198" s="252"/>
+      <c r="E198" s="229" t="s">
+        <v>569</v>
+      </c>
+      <c r="G198" s="348"/>
+      <c r="I198" s="199"/>
+    </row>
+    <row r="199" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="252"/>
+      <c r="E199" s="254" t="s">
+        <v>570</v>
+      </c>
+      <c r="G199" s="348"/>
+      <c r="I199" s="199"/>
+    </row>
+    <row r="200" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D200" s="257"/>
+      <c r="E200" s="264" t="s">
+        <v>571</v>
+      </c>
+      <c r="G200" s="348"/>
+      <c r="I200" s="199"/>
+    </row>
+    <row r="201" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="257"/>
+      <c r="E201" s="248" t="s">
+        <v>572</v>
+      </c>
+      <c r="G201" s="348"/>
+      <c r="I201" s="199"/>
+    </row>
+    <row r="202" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D202" s="257"/>
+      <c r="E202" s="265" t="s">
+        <v>573</v>
+      </c>
+      <c r="G202" s="348"/>
+      <c r="I202" s="199"/>
+    </row>
+    <row r="203" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D203" s="242"/>
+      <c r="E203" s="247" t="s">
         <v>574</v>
       </c>
-      <c r="E197" s="231"/>
-      <c r="I197" s="199"/>
-    </row>
-    <row r="198" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D198" s="255"/>
-      <c r="E198" s="231" t="s">
+      <c r="G203" s="348"/>
+      <c r="I203" s="199"/>
+    </row>
+    <row r="204" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="304" t="s">
+        <v>75</v>
+      </c>
+      <c r="E204" s="305"/>
+      <c r="G204" s="348"/>
+      <c r="I204" s="199"/>
+    </row>
+    <row r="205" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G205" s="348"/>
+      <c r="I205" s="199"/>
+    </row>
+    <row r="206" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="263" t="s">
+        <v>562</v>
+      </c>
+      <c r="D206" s="266"/>
+      <c r="E206" s="267" t="s">
         <v>575</v>
       </c>
-      <c r="I198" s="199"/>
-    </row>
-    <row r="199" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D199" s="255"/>
-      <c r="E199" s="257" t="s">
+      <c r="G206" s="348"/>
+      <c r="I206" s="199"/>
+    </row>
+    <row r="207" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="268"/>
+      <c r="D207" s="269"/>
+      <c r="E207" s="270" t="s">
         <v>576</v>
       </c>
-      <c r="I199" s="199"/>
-    </row>
-    <row r="200" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D200" s="260"/>
-      <c r="E200" s="267" t="s">
+      <c r="G207" s="348"/>
+      <c r="I207" s="199"/>
+    </row>
+    <row r="208" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C208" s="268"/>
+      <c r="D208" s="304" t="s">
+        <v>75</v>
+      </c>
+      <c r="E208" s="305"/>
+      <c r="G208" s="348"/>
+      <c r="I208" s="199"/>
+    </row>
+    <row r="209" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="268"/>
+      <c r="G209" s="348"/>
+      <c r="I209" s="199"/>
+    </row>
+    <row r="210" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C210" s="268"/>
+      <c r="G210" s="348"/>
+      <c r="I210" s="199"/>
+    </row>
+    <row r="211" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="263" t="s">
+        <v>564</v>
+      </c>
+      <c r="D211" s="271" t="s">
         <v>577</v>
       </c>
-      <c r="I200" s="199"/>
-    </row>
-    <row r="201" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D201" s="260"/>
-      <c r="E201" s="251" t="s">
+      <c r="E211" s="267"/>
+      <c r="G211" s="348"/>
+      <c r="I211" s="199"/>
+    </row>
+    <row r="212" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D212" s="272"/>
+      <c r="E212" s="270" t="s">
         <v>578</v>
       </c>
-      <c r="I201" s="199"/>
-    </row>
-    <row r="202" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D202" s="260"/>
-      <c r="E202" s="268" t="s">
+      <c r="G212" s="348"/>
+      <c r="I212" s="199"/>
+    </row>
+    <row r="213" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D213" s="272"/>
+      <c r="E213" s="270" t="s">
         <v>579</v>
       </c>
-      <c r="I202" s="199"/>
-    </row>
-    <row r="203" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D203" s="245"/>
-      <c r="E203" s="250" t="s">
-        <v>580</v>
-      </c>
-      <c r="I203" s="199"/>
-    </row>
-    <row r="204" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D204" s="301" t="s">
+      <c r="G213" s="348"/>
+      <c r="I213" s="199"/>
+    </row>
+    <row r="214" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="273" t="s">
         <v>75</v>
       </c>
-      <c r="E204" s="302"/>
-      <c r="I204" s="199"/>
-    </row>
-    <row r="205" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I205" s="199"/>
-    </row>
-    <row r="206" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C206" s="266" t="s">
-        <v>568</v>
-      </c>
-      <c r="D206" s="269"/>
-      <c r="E206" s="270" t="s">
-        <v>581</v>
-      </c>
-      <c r="I206" s="199"/>
-    </row>
-    <row r="207" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="271"/>
-      <c r="D207" s="272"/>
-      <c r="E207" s="273" t="s">
-        <v>582</v>
-      </c>
-      <c r="I207" s="199"/>
-    </row>
-    <row r="208" spans="3:9" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C208" s="271"/>
-      <c r="D208" s="301" t="s">
-        <v>75</v>
-      </c>
-      <c r="E208" s="302"/>
-      <c r="I208" s="199"/>
-    </row>
-    <row r="209" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="271"/>
-      <c r="I209" s="199"/>
-    </row>
-    <row r="210" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C210" s="271"/>
-      <c r="I210" s="199"/>
-    </row>
-    <row r="211" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C211" s="266" t="s">
-        <v>570</v>
-      </c>
-      <c r="D211" s="274" t="s">
-        <v>583</v>
-      </c>
-      <c r="E211" s="270"/>
-      <c r="I211" s="199"/>
-    </row>
-    <row r="212" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D212" s="275"/>
-      <c r="E212" s="273" t="s">
-        <v>584</v>
-      </c>
-      <c r="I212" s="199"/>
-    </row>
-    <row r="213" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D213" s="275"/>
-      <c r="E213" s="273" t="s">
-        <v>585</v>
-      </c>
-      <c r="I213" s="199"/>
-    </row>
-    <row r="214" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D214" s="276" t="s">
-        <v>75</v>
-      </c>
-      <c r="E214" s="277"/>
+      <c r="E214" s="274"/>
+      <c r="G214" s="348"/>
       <c r="I214" s="199"/>
     </row>
     <row r="215" spans="2:12" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G215" s="348"/>
       <c r="I215" s="199"/>
     </row>
     <row r="216" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10064,22 +10264,22 @@
     </row>
     <row r="217" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B217" s="146"/>
-      <c r="C217" s="291" t="s">
+      <c r="C217" s="318" t="s">
         <v>439</v>
       </c>
-      <c r="D217" s="294"/>
-      <c r="E217" s="295"/>
+      <c r="D217" s="321"/>
+      <c r="E217" s="322"/>
       <c r="F217" s="151"/>
       <c r="G217" s="152"/>
       <c r="H217" s="151"/>
       <c r="I217" s="151"/>
       <c r="J217" s="151"/>
-      <c r="K217" s="296"/>
+      <c r="K217" s="323"/>
       <c r="L217" s="151"/>
     </row>
     <row r="218" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="146"/>
-      <c r="C218" s="292"/>
+      <c r="C218" s="319"/>
       <c r="D218" s="134"/>
       <c r="E218" s="174" t="s">
         <v>440</v>
@@ -10089,21 +10289,21 @@
       <c r="H218" s="151"/>
       <c r="I218" s="151"/>
       <c r="J218" s="151"/>
-      <c r="K218" s="297"/>
+      <c r="K218" s="324"/>
       <c r="L218" s="151"/>
     </row>
     <row r="219" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C219" s="293"/>
-      <c r="D219" s="299" t="s">
+      <c r="C219" s="320"/>
+      <c r="D219" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="E219" s="300"/>
+      <c r="E219" s="293"/>
       <c r="F219" s="151"/>
       <c r="G219" s="152"/>
       <c r="H219" s="151"/>
       <c r="I219" s="151"/>
       <c r="J219" s="151"/>
-      <c r="K219" s="298"/>
+      <c r="K219" s="325"/>
       <c r="L219" s="151"/>
     </row>
     <row r="220" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10128,86 +10328,323 @@
     </row>
     <row r="223" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B223" s="147"/>
-      <c r="C223" s="291" t="s">
-        <v>619</v>
-      </c>
-      <c r="D223" s="294"/>
-      <c r="E223" s="295"/>
+      <c r="C223" s="318" t="s">
+        <v>629</v>
+      </c>
+      <c r="D223" s="321"/>
+      <c r="E223" s="322"/>
       <c r="F223" s="151"/>
       <c r="G223" s="152"/>
       <c r="H223" s="151"/>
       <c r="I223" s="151"/>
       <c r="J223" s="151"/>
-      <c r="K223" s="296"/>
+      <c r="K223" s="323" t="s">
+        <v>632</v>
+      </c>
       <c r="L223" s="151"/>
     </row>
     <row r="224" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B224" s="147"/>
-      <c r="C224" s="292"/>
-      <c r="D224" s="283"/>
-      <c r="E224" s="284"/>
+      <c r="C224" s="319"/>
+      <c r="D224" s="360" t="s">
+        <v>630</v>
+      </c>
+      <c r="E224" s="359"/>
       <c r="F224" s="151"/>
       <c r="G224" s="152"/>
       <c r="H224" s="151"/>
       <c r="I224" s="151"/>
       <c r="J224" s="151"/>
-      <c r="K224" s="297"/>
+      <c r="K224" s="324"/>
       <c r="L224" s="151"/>
     </row>
     <row r="225" spans="2:12" s="144" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="147"/>
-      <c r="C225" s="292"/>
+      <c r="C225" s="319"/>
       <c r="D225" s="134"/>
-      <c r="E225" s="174"/>
+      <c r="E225" s="174" t="s">
+        <v>631</v>
+      </c>
       <c r="F225" s="151"/>
       <c r="G225" s="152"/>
       <c r="H225" s="151"/>
       <c r="I225" s="151"/>
       <c r="J225" s="151"/>
-      <c r="K225" s="297"/>
+      <c r="K225" s="324"/>
       <c r="L225" s="151"/>
     </row>
     <row r="226" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C226" s="293"/>
-      <c r="D226" s="299" t="s">
+      <c r="C226" s="320"/>
+      <c r="D226" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="E226" s="300"/>
+      <c r="E226" s="293"/>
       <c r="F226" s="151"/>
       <c r="G226" s="152"/>
       <c r="H226" s="151"/>
       <c r="I226" s="151"/>
       <c r="J226" s="151"/>
-      <c r="K226" s="298"/>
+      <c r="K226" s="325"/>
       <c r="L226" s="151"/>
     </row>
     <row r="227" spans="2:12" s="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C227" s="144">
-        <v>3</v>
-      </c>
       <c r="D227" s="171"/>
       <c r="E227" s="172"/>
       <c r="G227" s="145"/>
       <c r="K227" s="173"/>
     </row>
+    <row r="229" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="141"/>
+      <c r="C229" s="165"/>
+      <c r="D229" s="166"/>
+      <c r="E229" s="167"/>
+      <c r="F229" s="164"/>
+      <c r="G229" s="163"/>
+    </row>
+    <row r="230" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="281"/>
+      <c r="C230" s="354" t="s">
+        <v>628</v>
+      </c>
+      <c r="D230" s="357"/>
+      <c r="E230" s="358"/>
+      <c r="F230" s="151"/>
+      <c r="G230" s="152"/>
+    </row>
+    <row r="231" spans="2:12" s="280" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="281"/>
+      <c r="C231" s="355"/>
+      <c r="D231" s="134"/>
+      <c r="E231" s="134" t="s">
+        <v>633</v>
+      </c>
+      <c r="F231" s="151"/>
+      <c r="G231" s="152"/>
+      <c r="K231" s="173"/>
+    </row>
+    <row r="232" spans="2:12" s="280" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="281"/>
+      <c r="C232" s="355"/>
+      <c r="D232" s="134" t="s">
+        <v>638</v>
+      </c>
+      <c r="E232" s="134"/>
+      <c r="F232" s="151"/>
+      <c r="G232" s="152"/>
+      <c r="K232" s="173"/>
+    </row>
+    <row r="233" spans="2:12" s="280" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="281"/>
+      <c r="C233" s="355"/>
+      <c r="D233" s="134"/>
+      <c r="E233" s="134" t="s">
+        <v>634</v>
+      </c>
+      <c r="F233" s="151"/>
+      <c r="G233" s="152"/>
+      <c r="K233" s="173"/>
+    </row>
+    <row r="234" spans="2:12" s="280" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="281"/>
+      <c r="C234" s="355"/>
+      <c r="D234" s="134"/>
+      <c r="E234" s="134" t="s">
+        <v>635</v>
+      </c>
+      <c r="F234" s="151"/>
+      <c r="G234" s="152"/>
+      <c r="K234" s="173"/>
+    </row>
+    <row r="235" spans="2:12" s="280" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="281"/>
+      <c r="C235" s="355"/>
+      <c r="D235" s="134"/>
+      <c r="E235" s="134"/>
+      <c r="F235" s="151"/>
+      <c r="G235" s="152"/>
+      <c r="K235" s="173"/>
+    </row>
+    <row r="236" spans="2:12" s="280" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="281"/>
+      <c r="C236" s="355"/>
+      <c r="D236" s="134"/>
+      <c r="E236" s="134"/>
+      <c r="F236" s="151"/>
+      <c r="G236" s="152"/>
+      <c r="K236" s="173"/>
+    </row>
+    <row r="237" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="281"/>
+      <c r="C237" s="355"/>
+      <c r="D237" s="134"/>
+      <c r="E237" s="174"/>
+      <c r="F237" s="151"/>
+      <c r="G237" s="152"/>
+    </row>
+    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="281"/>
+      <c r="C238" s="355"/>
+      <c r="D238" s="134"/>
+      <c r="E238" s="174"/>
+      <c r="F238" s="151"/>
+      <c r="G238" s="152"/>
+    </row>
+    <row r="239" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="280"/>
+      <c r="C239" s="356"/>
+      <c r="D239" s="292" t="s">
+        <v>75</v>
+      </c>
+      <c r="E239" s="293"/>
+      <c r="F239" s="151"/>
+      <c r="G239" s="152"/>
+    </row>
+    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="280"/>
+      <c r="C240" s="280"/>
+      <c r="D240" s="171"/>
+      <c r="E240" s="172"/>
+      <c r="F240" s="280"/>
+    </row>
+    <row r="242" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="141"/>
+      <c r="C242" s="165"/>
+      <c r="D242" s="166"/>
+      <c r="E242" s="167"/>
+      <c r="F242" s="164"/>
+      <c r="G242" s="163"/>
+      <c r="K242" s="173"/>
+    </row>
+    <row r="243" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="281"/>
+      <c r="C243" s="363" t="s">
+        <v>501</v>
+      </c>
+      <c r="D243" s="362"/>
+      <c r="E243" s="362"/>
+      <c r="F243" s="151"/>
+      <c r="G243" s="152"/>
+      <c r="K243" s="173"/>
+    </row>
+    <row r="244" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="281"/>
+      <c r="C244" s="362"/>
+      <c r="D244" s="191" t="s">
+        <v>637</v>
+      </c>
+      <c r="E244" s="191"/>
+      <c r="F244" s="151"/>
+      <c r="G244" s="152"/>
+      <c r="K244" s="173"/>
+    </row>
+    <row r="245" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="281"/>
+      <c r="C245" s="362"/>
+      <c r="D245" s="191"/>
+      <c r="E245" s="191"/>
+      <c r="F245" s="151"/>
+      <c r="G245" s="152"/>
+      <c r="K245" s="173"/>
+    </row>
+    <row r="246" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="281"/>
+      <c r="C246" s="362"/>
+      <c r="D246" s="191"/>
+      <c r="E246" s="191"/>
+      <c r="F246" s="151"/>
+      <c r="G246" s="152"/>
+      <c r="K246" s="173"/>
+    </row>
+    <row r="247" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="281"/>
+      <c r="C247" s="362"/>
+      <c r="D247" s="191"/>
+      <c r="E247" s="191"/>
+      <c r="F247" s="151"/>
+      <c r="G247" s="152"/>
+      <c r="K247" s="173"/>
+    </row>
+    <row r="248" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="281"/>
+      <c r="C248" s="362"/>
+      <c r="D248" s="191"/>
+      <c r="E248" s="191"/>
+      <c r="F248" s="151"/>
+      <c r="G248" s="152"/>
+      <c r="K248" s="173"/>
+    </row>
+    <row r="249" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="281"/>
+      <c r="C249" s="362"/>
+      <c r="D249" s="191"/>
+      <c r="E249" s="191"/>
+      <c r="F249" s="151"/>
+      <c r="G249" s="152"/>
+      <c r="K249" s="173"/>
+    </row>
+    <row r="250" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="281"/>
+      <c r="C250" s="362"/>
+      <c r="D250" s="191"/>
+      <c r="E250" s="364"/>
+      <c r="F250" s="151"/>
+      <c r="G250" s="152"/>
+      <c r="K250" s="173"/>
+    </row>
+    <row r="251" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="281"/>
+      <c r="C251" s="362"/>
+      <c r="D251" s="191"/>
+      <c r="E251" s="364"/>
+      <c r="F251" s="151"/>
+      <c r="G251" s="152"/>
+      <c r="K251" s="173"/>
+    </row>
+    <row r="252" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C252" s="362"/>
+      <c r="D252" s="292" t="s">
+        <v>75</v>
+      </c>
+      <c r="E252" s="293"/>
+      <c r="F252" s="151"/>
+      <c r="G252" s="152"/>
+      <c r="K252" s="173"/>
+    </row>
+    <row r="253" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D253" s="171"/>
+      <c r="E253" s="172"/>
+      <c r="G253" s="145"/>
+      <c r="K253" s="173"/>
+    </row>
+    <row r="254" spans="2:11" s="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G254" s="145"/>
+      <c r="K254" s="173"/>
+    </row>
+    <row r="259" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C259" s="280"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="K113:K127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="K79:K84"/>
-    <mergeCell ref="C87:C110"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="K87:K110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D113:E113"/>
+  <mergeCells count="51">
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="C230:C239"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:P48"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="K223:K226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="K217:K219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D165:E165"/>
     <mergeCell ref="K13:K26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C13:C26"/>
@@ -10222,23 +10659,23 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="C29:C43"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D113:E113"/>
     <mergeCell ref="D170:E170"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:P48"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="K223:K226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="K217:K219"/>
-    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="K113:K127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="K79:K84"/>
+    <mergeCell ref="C87:C110"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="K87:K110"/>
+    <mergeCell ref="D110:E110"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10429,8 +10866,8 @@
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
       <c r="M11" s="341"/>
-      <c r="N11" s="286"/>
-      <c r="O11" s="286"/>
+      <c r="N11" s="284"/>
+      <c r="O11" s="284"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="341"/>
@@ -10641,8 +11078,8 @@
     </row>
     <row r="24" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G24" s="340"/>
-      <c r="H24" s="286"/>
-      <c r="I24" s="286"/>
+      <c r="H24" s="284"/>
+      <c r="I24" s="284"/>
       <c r="J24" s="93"/>
       <c r="K24" s="93"/>
       <c r="L24" s="93"/>
@@ -10679,8 +11116,8 @@
     </row>
     <row r="26" spans="7:23" ht="15" x14ac:dyDescent="0.2">
       <c r="G26" s="340"/>
-      <c r="H26" s="286"/>
-      <c r="I26" s="286"/>
+      <c r="H26" s="284"/>
+      <c r="I26" s="284"/>
       <c r="J26" s="93"/>
       <c r="K26" s="93"/>
       <c r="L26" s="93"/>
@@ -10726,13 +11163,13 @@
       <c r="N28" s="93"/>
       <c r="O28" s="93"/>
       <c r="P28" s="340"/>
-      <c r="Q28" s="286"/>
-      <c r="R28" s="286"/>
+      <c r="Q28" s="284"/>
+      <c r="R28" s="284"/>
       <c r="S28" s="93"/>
       <c r="T28" s="340"/>
-      <c r="U28" s="286"/>
-      <c r="V28" s="286"/>
-      <c r="W28" s="286"/>
+      <c r="U28" s="284"/>
+      <c r="V28" s="284"/>
+      <c r="W28" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10777,11 +11214,11 @@
       <c r="C1" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="93"/>
@@ -10907,9 +11344,9 @@
       <c r="C1" s="344" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -10935,7 +11372,7 @@
       <c r="B7" s="345" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="286"/>
+      <c r="C7" s="284"/>
       <c r="G7" s="94" t="s">
         <v>100</v>
       </c>
@@ -11047,10 +11484,10 @@
       <c r="D1" s="344" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="96"/>
@@ -11215,11 +11652,11 @@
       <c r="F3" s="53"/>
       <c r="G3" s="53"/>
       <c r="H3" s="346"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="284"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="84"/>
